--- a/case_study_results/Case_study_results_Excel_calculation.xlsx
+++ b/case_study_results/Case_study_results_Excel_calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/CERT_Python/MFA_project/biODYM modelling template/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B31CD5-8EF7-834B-BABF-3C69CCA39C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBF51DC-AF9A-2440-B659-CE4C92BBEBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="17840" windowHeight="21100" firstSheet="2" activeTab="6" xr2:uid="{A7E6CD03-1586-5348-BEDA-FCDFDFBAF949}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="17840" windowHeight="21100" xr2:uid="{A7E6CD03-1586-5348-BEDA-FCDFDFBAF949}"/>
   </bookViews>
   <sheets>
     <sheet name="Flow_diagram" sheetId="2" r:id="rId1"/>
@@ -360,17 +360,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>481060</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>132210</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>810177</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76969</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AB3DC19-DFEB-411E-F093-DEA658B5862D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B1A8363-9AE0-D14E-5A69-BC6CBA808F13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -387,7 +387,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12892424" cy="6905543"/>
+          <a:ext cx="12394116" cy="6638636"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -713,7 +713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B07F1A-30FB-7E43-98EB-AB64FFE3C8B6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
@@ -5755,7 +5755,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2B94B1-5EE6-204E-8A48-076AA507860B}">
   <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>

--- a/case_study_results/Case_study_results_Excel_calculation.xlsx
+++ b/case_study_results/Case_study_results_Excel_calculation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/CERT_Python/MFA_project/biODYM modelling template/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CBF51DC-AF9A-2440-B659-CE4C92BBEBD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DB6AFA-1E31-C340-85D8-EA16A5DC2475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="500" windowWidth="17840" windowHeight="21100" xr2:uid="{A7E6CD03-1586-5348-BEDA-FCDFDFBAF949}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" firstSheet="4" activeTab="7" xr2:uid="{A7E6CD03-1586-5348-BEDA-FCDFDFBAF949}"/>
   </bookViews>
   <sheets>
     <sheet name="Flow_diagram" sheetId="2" r:id="rId1"/>
@@ -328,10 +328,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -713,7 +714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B07F1A-30FB-7E43-98EB-AB64FFE3C8B6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
@@ -5755,2310 +5756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2B94B1-5EE6-204E-8A48-076AA507860B}">
   <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="9" max="9" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="10.83203125" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2020</v>
-      </c>
-      <c r="B2">
-        <f>Flow_data_Biomass!B2*TC_data_Biomass!B2</f>
-        <v>50</v>
-      </c>
-      <c r="C2">
-        <f>Flow_data_Biomass!B2*TC_data_Biomass!D2</f>
-        <v>50</v>
-      </c>
-      <c r="D2">
-        <f>C2*TC_data_Biomass!F2</f>
-        <v>15</v>
-      </c>
-      <c r="E2">
-        <f>C2*TC_data_Biomass!H2</f>
-        <v>15</v>
-      </c>
-      <c r="F2">
-        <f>C2*TC_data_Biomass!J2</f>
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <f>C2*TC_data_Biomass!L2</f>
-        <v>10</v>
-      </c>
-      <c r="H2">
-        <f>C2*TC_data_Biomass!N2</f>
-        <v>5.0000000000000044</v>
-      </c>
-      <c r="I2">
-        <f>SUM(D2:H2)-C2</f>
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f>D2*TC_data_Biomass!P2</f>
-        <v>15</v>
-      </c>
-      <c r="K2">
-        <f>E2*TC_data_Biomass!R2</f>
-        <v>10.5</v>
-      </c>
-      <c r="L2">
-        <f>E2*TC_data_Biomass!T2</f>
-        <v>2.25</v>
-      </c>
-      <c r="M2">
-        <f>E2*TC_data_Biomass!V2</f>
-        <v>2.2500000000000009</v>
-      </c>
-      <c r="N2">
-        <f>F2*TC_data_Biomass!X2</f>
-        <v>5</v>
-      </c>
-      <c r="O2">
-        <f>G2*TC_data_Biomass!Z2</f>
-        <v>10</v>
-      </c>
-      <c r="P2">
-        <f>Model_validation_Carbon!P2</f>
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <f t="shared" ref="S2:S22" si="0">B2</f>
-        <v>50</v>
-      </c>
-      <c r="T2">
-        <f>SUM($S$2:S2)</f>
-        <v>50</v>
-      </c>
-      <c r="U2">
-        <f t="shared" ref="U2:U22" si="1">H2</f>
-        <v>5.0000000000000044</v>
-      </c>
-      <c r="V2">
-        <f>SUM($U$2:U2)</f>
-        <v>5.0000000000000044</v>
-      </c>
-      <c r="W2">
-        <f t="shared" ref="W2:W22" si="2">J2+K2-P2</f>
-        <v>25.5</v>
-      </c>
-      <c r="X2">
-        <f>SUM($W$2:W2)</f>
-        <v>25.5</v>
-      </c>
-      <c r="Y2">
-        <f t="shared" ref="Y2:Y22" si="3">O2+P2+N2+L2</f>
-        <v>17.25</v>
-      </c>
-      <c r="Z2">
-        <f>SUM($Y$2:Y2)</f>
-        <v>17.25</v>
-      </c>
-      <c r="AA2">
-        <f t="shared" ref="AA2:AA22" si="4">M2</f>
-        <v>2.2500000000000009</v>
-      </c>
-      <c r="AB2">
-        <f>SUM($AA$2:AA2)</f>
-        <v>2.2500000000000009</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2021</v>
-      </c>
-      <c r="B3">
-        <f>Flow_data_Biomass!B3*TC_data_Biomass!B3</f>
-        <v>55</v>
-      </c>
-      <c r="C3">
-        <f>Flow_data_Biomass!B3*TC_data_Biomass!D3</f>
-        <v>55</v>
-      </c>
-      <c r="D3">
-        <f>C3*TC_data_Biomass!F3</f>
-        <v>16.5</v>
-      </c>
-      <c r="E3">
-        <f>C3*TC_data_Biomass!H3</f>
-        <v>16.5</v>
-      </c>
-      <c r="F3">
-        <f>C3*TC_data_Biomass!J3</f>
-        <v>5.5</v>
-      </c>
-      <c r="G3">
-        <f>C3*TC_data_Biomass!L3</f>
-        <v>11</v>
-      </c>
-      <c r="H3">
-        <f>C3*TC_data_Biomass!N3</f>
-        <v>5.5000000000000053</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I22" si="5">SUM(D3:H3)-C3</f>
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f>D3*TC_data_Biomass!P3</f>
-        <v>16.5</v>
-      </c>
-      <c r="K3">
-        <f>E3*TC_data_Biomass!R3</f>
-        <v>11.549999999999999</v>
-      </c>
-      <c r="L3">
-        <f>E3*TC_data_Biomass!T3</f>
-        <v>2.4750000000000001</v>
-      </c>
-      <c r="M3">
-        <f>E3*TC_data_Biomass!V3</f>
-        <v>2.475000000000001</v>
-      </c>
-      <c r="N3">
-        <f>F3*TC_data_Biomass!X3</f>
-        <v>5.5</v>
-      </c>
-      <c r="O3">
-        <f>G3*TC_data_Biomass!Z3</f>
-        <v>11</v>
-      </c>
-      <c r="P3">
-        <f>Model_validation_Carbon!P3</f>
-        <v>8.2194604996048426</v>
-      </c>
-      <c r="S3">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="T3">
-        <f>SUM($S$2:S3)</f>
-        <v>105</v>
-      </c>
-      <c r="U3">
-        <f t="shared" si="1"/>
-        <v>5.5000000000000053</v>
-      </c>
-      <c r="V3">
-        <f>SUM($U$2:U3)</f>
-        <v>10.500000000000011</v>
-      </c>
-      <c r="W3">
-        <f t="shared" si="2"/>
-        <v>19.830539500395155</v>
-      </c>
-      <c r="X3">
-        <f>SUM($W$2:W3)</f>
-        <v>45.330539500395155</v>
-      </c>
-      <c r="Y3">
-        <f t="shared" si="3"/>
-        <v>27.194460499604844</v>
-      </c>
-      <c r="Z3">
-        <f>SUM($Y$2:Y3)</f>
-        <v>44.444460499604844</v>
-      </c>
-      <c r="AA3">
-        <f t="shared" si="4"/>
-        <v>2.475000000000001</v>
-      </c>
-      <c r="AB3">
-        <f>SUM($AA$2:AA3)</f>
-        <v>4.7250000000000014</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2022</v>
-      </c>
-      <c r="B4">
-        <f>Flow_data_Biomass!B4*TC_data_Biomass!B4</f>
-        <v>60</v>
-      </c>
-      <c r="C4">
-        <f>Flow_data_Biomass!B4*TC_data_Biomass!D4</f>
-        <v>60</v>
-      </c>
-      <c r="D4">
-        <f>C4*TC_data_Biomass!F4</f>
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <f>C4*TC_data_Biomass!H4</f>
-        <v>18</v>
-      </c>
-      <c r="F4">
-        <f>C4*TC_data_Biomass!J4</f>
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <f>C4*TC_data_Biomass!L4</f>
-        <v>12</v>
-      </c>
-      <c r="H4">
-        <f>C4*TC_data_Biomass!N4</f>
-        <v>6.0000000000000053</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f>D4*TC_data_Biomass!P4</f>
-        <v>18</v>
-      </c>
-      <c r="K4">
-        <f>E4*TC_data_Biomass!R4</f>
-        <v>12.6</v>
-      </c>
-      <c r="L4">
-        <f>E4*TC_data_Biomass!T4</f>
-        <v>2.6999999999999997</v>
-      </c>
-      <c r="M4">
-        <f>E4*TC_data_Biomass!V4</f>
-        <v>2.7000000000000011</v>
-      </c>
-      <c r="N4">
-        <f>F4*TC_data_Biomass!X4</f>
-        <v>6</v>
-      </c>
-      <c r="O4">
-        <f>G4*TC_data_Biomass!Z4</f>
-        <v>12</v>
-      </c>
-      <c r="P4">
-        <f>Model_validation_Carbon!P4</f>
-        <v>11.880910610461324</v>
-      </c>
-      <c r="S4">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="T4">
-        <f>SUM($S$2:S4)</f>
-        <v>165</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="1"/>
-        <v>6.0000000000000053</v>
-      </c>
-      <c r="V4">
-        <f>SUM($U$2:U4)</f>
-        <v>16.500000000000014</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="2"/>
-        <v>18.719089389538677</v>
-      </c>
-      <c r="X4">
-        <f>SUM($W$2:W4)</f>
-        <v>64.049628889933828</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" si="3"/>
-        <v>32.580910610461324</v>
-      </c>
-      <c r="Z4">
-        <f>SUM($Y$2:Y4)</f>
-        <v>77.025371110066175</v>
-      </c>
-      <c r="AA4">
-        <f t="shared" si="4"/>
-        <v>2.7000000000000011</v>
-      </c>
-      <c r="AB4">
-        <f>SUM($AA$2:AA4)</f>
-        <v>7.4250000000000025</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2023</v>
-      </c>
-      <c r="B5">
-        <f>Flow_data_Biomass!B5*TC_data_Biomass!B5</f>
-        <v>65</v>
-      </c>
-      <c r="C5">
-        <f>Flow_data_Biomass!B5*TC_data_Biomass!D5</f>
-        <v>65</v>
-      </c>
-      <c r="D5">
-        <f>C5*TC_data_Biomass!F5</f>
-        <v>19.5</v>
-      </c>
-      <c r="E5">
-        <f>C5*TC_data_Biomass!H5</f>
-        <v>19.5</v>
-      </c>
-      <c r="F5">
-        <f>C5*TC_data_Biomass!J5</f>
-        <v>6.5</v>
-      </c>
-      <c r="G5">
-        <f>C5*TC_data_Biomass!L5</f>
-        <v>13</v>
-      </c>
-      <c r="H5">
-        <f>C5*TC_data_Biomass!N5</f>
-        <v>6.5000000000000053</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f>D5*TC_data_Biomass!P5</f>
-        <v>19.5</v>
-      </c>
-      <c r="K5">
-        <f>E5*TC_data_Biomass!R5</f>
-        <v>13.649999999999999</v>
-      </c>
-      <c r="L5">
-        <f>E5*TC_data_Biomass!T5</f>
-        <v>2.9249999999999998</v>
-      </c>
-      <c r="M5">
-        <f>E5*TC_data_Biomass!V5</f>
-        <v>2.9250000000000012</v>
-      </c>
-      <c r="N5">
-        <f>F5*TC_data_Biomass!X5</f>
-        <v>6.5</v>
-      </c>
-      <c r="O5">
-        <f>G5*TC_data_Biomass!Z5</f>
-        <v>13</v>
-      </c>
-      <c r="P5">
-        <f>Model_validation_Carbon!P5</f>
-        <v>14.046659209320914</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="T5">
-        <f>SUM($S$2:S5)</f>
-        <v>230</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="1"/>
-        <v>6.5000000000000053</v>
-      </c>
-      <c r="V5">
-        <f>SUM($U$2:U5)</f>
-        <v>23.000000000000021</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="2"/>
-        <v>19.103340790679084</v>
-      </c>
-      <c r="X5">
-        <f>SUM($W$2:W5)</f>
-        <v>83.152969680612912</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="3"/>
-        <v>36.471659209320912</v>
-      </c>
-      <c r="Z5">
-        <f>SUM($Y$2:Y5)</f>
-        <v>113.49703031938708</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" si="4"/>
-        <v>2.9250000000000012</v>
-      </c>
-      <c r="AB5">
-        <f>SUM($AA$2:AA5)</f>
-        <v>10.350000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2024</v>
-      </c>
-      <c r="B6">
-        <f>Flow_data_Biomass!B6*TC_data_Biomass!B6</f>
-        <v>70</v>
-      </c>
-      <c r="C6">
-        <f>Flow_data_Biomass!B6*TC_data_Biomass!D6</f>
-        <v>70</v>
-      </c>
-      <c r="D6">
-        <f>C6*TC_data_Biomass!F6</f>
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <f>C6*TC_data_Biomass!H6</f>
-        <v>21</v>
-      </c>
-      <c r="F6">
-        <f>C6*TC_data_Biomass!J6</f>
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <f>C6*TC_data_Biomass!L6</f>
-        <v>14</v>
-      </c>
-      <c r="H6">
-        <f>C6*TC_data_Biomass!N6</f>
-        <v>7.0000000000000062</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f>D6*TC_data_Biomass!P6</f>
-        <v>21</v>
-      </c>
-      <c r="K6">
-        <f>E6*TC_data_Biomass!R6</f>
-        <v>14.7</v>
-      </c>
-      <c r="L6">
-        <f>E6*TC_data_Biomass!T6</f>
-        <v>3.15</v>
-      </c>
-      <c r="M6">
-        <f>E6*TC_data_Biomass!V6</f>
-        <v>3.1500000000000012</v>
-      </c>
-      <c r="N6">
-        <f>F6*TC_data_Biomass!X6</f>
-        <v>7</v>
-      </c>
-      <c r="O6">
-        <f>G6*TC_data_Biomass!Z6</f>
-        <v>14</v>
-      </c>
-      <c r="P6">
-        <f>Model_validation_Carbon!P6</f>
-        <v>15.654133398813006</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="T6">
-        <f>SUM($S$2:S6)</f>
-        <v>300</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="1"/>
-        <v>7.0000000000000062</v>
-      </c>
-      <c r="V6">
-        <f>SUM($U$2:U6)</f>
-        <v>30.000000000000028</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="2"/>
-        <v>20.045866601186997</v>
-      </c>
-      <c r="X6">
-        <f>SUM($W$2:W6)</f>
-        <v>103.19883628179991</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="3"/>
-        <v>39.804133398813001</v>
-      </c>
-      <c r="Z6">
-        <f>SUM($Y$2:Y6)</f>
-        <v>153.30116371820009</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="4"/>
-        <v>3.1500000000000012</v>
-      </c>
-      <c r="AB6">
-        <f>SUM($AA$2:AA6)</f>
-        <v>13.500000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2025</v>
-      </c>
-      <c r="B7">
-        <f>Flow_data_Biomass!B7*TC_data_Biomass!B7</f>
-        <v>75</v>
-      </c>
-      <c r="C7">
-        <f>Flow_data_Biomass!B7*TC_data_Biomass!D7</f>
-        <v>75</v>
-      </c>
-      <c r="D7">
-        <f>C7*TC_data_Biomass!F7</f>
-        <v>22.5</v>
-      </c>
-      <c r="E7">
-        <f>C7*TC_data_Biomass!H7</f>
-        <v>22.5</v>
-      </c>
-      <c r="F7">
-        <f>C7*TC_data_Biomass!J7</f>
-        <v>7.5</v>
-      </c>
-      <c r="G7">
-        <f>C7*TC_data_Biomass!L7</f>
-        <v>15</v>
-      </c>
-      <c r="H7">
-        <f>C7*TC_data_Biomass!N7</f>
-        <v>7.5000000000000071</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f>D7*TC_data_Biomass!P7</f>
-        <v>22.5</v>
-      </c>
-      <c r="K7">
-        <f>E7*TC_data_Biomass!R7</f>
-        <v>15.749999999999998</v>
-      </c>
-      <c r="L7">
-        <f>E7*TC_data_Biomass!T7</f>
-        <v>3.375</v>
-      </c>
-      <c r="M7">
-        <f>E7*TC_data_Biomass!V7</f>
-        <v>3.3750000000000013</v>
-      </c>
-      <c r="N7">
-        <f>F7*TC_data_Biomass!X7</f>
-        <v>7.5</v>
-      </c>
-      <c r="O7">
-        <f>G7*TC_data_Biomass!Z7</f>
-        <v>15</v>
-      </c>
-      <c r="P7">
-        <f>Model_validation_Carbon!P7</f>
-        <v>17.053230239178454</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="T7">
-        <f>SUM($S$2:S7)</f>
-        <v>375</v>
-      </c>
-      <c r="U7">
-        <f t="shared" si="1"/>
-        <v>7.5000000000000071</v>
-      </c>
-      <c r="V7">
-        <f>SUM($U$2:U7)</f>
-        <v>37.500000000000036</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="2"/>
-        <v>21.196769760821546</v>
-      </c>
-      <c r="X7">
-        <f>SUM($W$2:W7)</f>
-        <v>124.39560604262147</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="3"/>
-        <v>42.928230239178454</v>
-      </c>
-      <c r="Z7">
-        <f>SUM($Y$2:Y7)</f>
-        <v>196.22939395737853</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="4"/>
-        <v>3.3750000000000013</v>
-      </c>
-      <c r="AB7">
-        <f>SUM($AA$2:AA7)</f>
-        <v>16.875000000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2026</v>
-      </c>
-      <c r="B8">
-        <f>Flow_data_Biomass!B8*TC_data_Biomass!B8</f>
-        <v>80</v>
-      </c>
-      <c r="C8">
-        <f>Flow_data_Biomass!B8*TC_data_Biomass!D8</f>
-        <v>80</v>
-      </c>
-      <c r="D8">
-        <f>C8*TC_data_Biomass!F8</f>
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <f>C8*TC_data_Biomass!H8</f>
-        <v>24</v>
-      </c>
-      <c r="F8">
-        <f>C8*TC_data_Biomass!J8</f>
-        <v>8</v>
-      </c>
-      <c r="G8">
-        <f>C8*TC_data_Biomass!L8</f>
-        <v>16</v>
-      </c>
-      <c r="H8">
-        <f>C8*TC_data_Biomass!N8</f>
-        <v>8.0000000000000071</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f>D8*TC_data_Biomass!P8</f>
-        <v>24</v>
-      </c>
-      <c r="K8">
-        <f>E8*TC_data_Biomass!R8</f>
-        <v>16.799999999999997</v>
-      </c>
-      <c r="L8">
-        <f>E8*TC_data_Biomass!T8</f>
-        <v>3.5999999999999996</v>
-      </c>
-      <c r="M8">
-        <f>E8*TC_data_Biomass!V8</f>
-        <v>3.6000000000000014</v>
-      </c>
-      <c r="N8">
-        <f>F8*TC_data_Biomass!X8</f>
-        <v>8</v>
-      </c>
-      <c r="O8">
-        <f>G8*TC_data_Biomass!Z8</f>
-        <v>16</v>
-      </c>
-      <c r="P8">
-        <f>Model_validation_Carbon!P8</f>
-        <v>18.3745497017876</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="T8">
-        <f>SUM($S$2:S8)</f>
-        <v>455</v>
-      </c>
-      <c r="U8">
-        <f t="shared" si="1"/>
-        <v>8.0000000000000071</v>
-      </c>
-      <c r="V8">
-        <f>SUM($U$2:U8)</f>
-        <v>45.500000000000043</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="2"/>
-        <v>22.425450298212397</v>
-      </c>
-      <c r="X8">
-        <f>SUM($W$2:W8)</f>
-        <v>146.82105634083388</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="3"/>
-        <v>45.974549701787602</v>
-      </c>
-      <c r="Z8">
-        <f>SUM($Y$2:Y8)</f>
-        <v>242.20394365916613</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" si="4"/>
-        <v>3.6000000000000014</v>
-      </c>
-      <c r="AB8">
-        <f>SUM($AA$2:AA8)</f>
-        <v>20.475000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2027</v>
-      </c>
-      <c r="B9">
-        <f>Flow_data_Biomass!B9*TC_data_Biomass!B9</f>
-        <v>85</v>
-      </c>
-      <c r="C9">
-        <f>Flow_data_Biomass!B9*TC_data_Biomass!D9</f>
-        <v>85</v>
-      </c>
-      <c r="D9">
-        <f>C9*TC_data_Biomass!F9</f>
-        <v>25.5</v>
-      </c>
-      <c r="E9">
-        <f>C9*TC_data_Biomass!H9</f>
-        <v>25.5</v>
-      </c>
-      <c r="F9">
-        <f>C9*TC_data_Biomass!J9</f>
-        <v>8.5</v>
-      </c>
-      <c r="G9">
-        <f>C9*TC_data_Biomass!L9</f>
-        <v>17</v>
-      </c>
-      <c r="H9">
-        <f>C9*TC_data_Biomass!N9</f>
-        <v>8.5000000000000071</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f>D9*TC_data_Biomass!P9</f>
-        <v>25.5</v>
-      </c>
-      <c r="K9">
-        <f>E9*TC_data_Biomass!R9</f>
-        <v>17.849999999999998</v>
-      </c>
-      <c r="L9">
-        <f>E9*TC_data_Biomass!T9</f>
-        <v>3.8249999999999997</v>
-      </c>
-      <c r="M9">
-        <f>E9*TC_data_Biomass!V9</f>
-        <v>3.8250000000000011</v>
-      </c>
-      <c r="N9">
-        <f>F9*TC_data_Biomass!X9</f>
-        <v>8.5</v>
-      </c>
-      <c r="O9">
-        <f>G9*TC_data_Biomass!Z9</f>
-        <v>17</v>
-      </c>
-      <c r="P9">
-        <f>Model_validation_Carbon!P9</f>
-        <v>19.666838559506161</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="T9">
-        <f>SUM($S$2:S9)</f>
-        <v>540</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="1"/>
-        <v>8.5000000000000071</v>
-      </c>
-      <c r="V9">
-        <f>SUM($U$2:U9)</f>
-        <v>54.00000000000005</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="2"/>
-        <v>23.683161440493834</v>
-      </c>
-      <c r="X9">
-        <f>SUM($W$2:W9)</f>
-        <v>170.50421778132772</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="3"/>
-        <v>48.991838559506164</v>
-      </c>
-      <c r="Z9">
-        <f>SUM($Y$2:Y9)</f>
-        <v>291.19578221867232</v>
-      </c>
-      <c r="AA9">
-        <f t="shared" si="4"/>
-        <v>3.8250000000000011</v>
-      </c>
-      <c r="AB9">
-        <f>SUM($AA$2:AA9)</f>
-        <v>24.300000000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2028</v>
-      </c>
-      <c r="B10">
-        <f>Flow_data_Biomass!B10*TC_data_Biomass!B10</f>
-        <v>90</v>
-      </c>
-      <c r="C10">
-        <f>Flow_data_Biomass!B10*TC_data_Biomass!D10</f>
-        <v>90</v>
-      </c>
-      <c r="D10">
-        <f>C10*TC_data_Biomass!F10</f>
-        <v>27</v>
-      </c>
-      <c r="E10">
-        <f>C10*TC_data_Biomass!H10</f>
-        <v>27</v>
-      </c>
-      <c r="F10">
-        <f>C10*TC_data_Biomass!J10</f>
-        <v>9</v>
-      </c>
-      <c r="G10">
-        <f>C10*TC_data_Biomass!L10</f>
-        <v>18</v>
-      </c>
-      <c r="H10">
-        <f>C10*TC_data_Biomass!N10</f>
-        <v>9.0000000000000071</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f>D10*TC_data_Biomass!P10</f>
-        <v>27</v>
-      </c>
-      <c r="K10">
-        <f>E10*TC_data_Biomass!R10</f>
-        <v>18.899999999999999</v>
-      </c>
-      <c r="L10">
-        <f>E10*TC_data_Biomass!T10</f>
-        <v>4.05</v>
-      </c>
-      <c r="M10">
-        <f>E10*TC_data_Biomass!V10</f>
-        <v>4.0500000000000016</v>
-      </c>
-      <c r="N10">
-        <f>F10*TC_data_Biomass!X10</f>
-        <v>9</v>
-      </c>
-      <c r="O10">
-        <f>G10*TC_data_Biomass!Z10</f>
-        <v>18</v>
-      </c>
-      <c r="P10">
-        <f>Model_validation_Carbon!P10</f>
-        <v>20.948291669805268</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="T10">
-        <f>SUM($S$2:S10)</f>
-        <v>630</v>
-      </c>
-      <c r="U10">
-        <f t="shared" si="1"/>
-        <v>9.0000000000000071</v>
-      </c>
-      <c r="V10">
-        <f>SUM($U$2:U10)</f>
-        <v>63.000000000000057</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="2"/>
-        <v>24.95170833019473</v>
-      </c>
-      <c r="X10">
-        <f>SUM($W$2:W10)</f>
-        <v>195.45592611152244</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="3"/>
-        <v>51.998291669805269</v>
-      </c>
-      <c r="Z10">
-        <f>SUM($Y$2:Y10)</f>
-        <v>343.19407388847759</v>
-      </c>
-      <c r="AA10">
-        <f t="shared" si="4"/>
-        <v>4.0500000000000016</v>
-      </c>
-      <c r="AB10">
-        <f>SUM($AA$2:AA10)</f>
-        <v>28.350000000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2029</v>
-      </c>
-      <c r="B11">
-        <f>Flow_data_Biomass!B11*TC_data_Biomass!B11</f>
-        <v>95</v>
-      </c>
-      <c r="C11">
-        <f>Flow_data_Biomass!B11*TC_data_Biomass!D11</f>
-        <v>95</v>
-      </c>
-      <c r="D11">
-        <f>C11*TC_data_Biomass!F11</f>
-        <v>28.5</v>
-      </c>
-      <c r="E11">
-        <f>C11*TC_data_Biomass!H11</f>
-        <v>28.5</v>
-      </c>
-      <c r="F11">
-        <f>C11*TC_data_Biomass!J11</f>
-        <v>9.5</v>
-      </c>
-      <c r="G11">
-        <f>C11*TC_data_Biomass!L11</f>
-        <v>19</v>
-      </c>
-      <c r="H11">
-        <f>C11*TC_data_Biomass!N11</f>
-        <v>9.5000000000000089</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f>D11*TC_data_Biomass!P11</f>
-        <v>28.5</v>
-      </c>
-      <c r="K11">
-        <f>E11*TC_data_Biomass!R11</f>
-        <v>19.95</v>
-      </c>
-      <c r="L11">
-        <f>E11*TC_data_Biomass!T11</f>
-        <v>4.2749999999999995</v>
-      </c>
-      <c r="M11">
-        <f>E11*TC_data_Biomass!V11</f>
-        <v>4.2750000000000012</v>
-      </c>
-      <c r="N11">
-        <f>F11*TC_data_Biomass!X11</f>
-        <v>9.5</v>
-      </c>
-      <c r="O11">
-        <f>G11*TC_data_Biomass!Z11</f>
-        <v>19</v>
-      </c>
-      <c r="P11">
-        <f>Model_validation_Carbon!P11</f>
-        <v>22.22570030970563</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="T11">
-        <f>SUM($S$2:S11)</f>
-        <v>725</v>
-      </c>
-      <c r="U11">
-        <f t="shared" si="1"/>
-        <v>9.5000000000000089</v>
-      </c>
-      <c r="V11">
-        <f>SUM($U$2:U11)</f>
-        <v>72.500000000000071</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="2"/>
-        <v>26.224299690294373</v>
-      </c>
-      <c r="X11">
-        <f>SUM($W$2:W11)</f>
-        <v>221.68022580181682</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" si="3"/>
-        <v>55.000700309705628</v>
-      </c>
-      <c r="Z11">
-        <f>SUM($Y$2:Y11)</f>
-        <v>398.19477419818321</v>
-      </c>
-      <c r="AA11">
-        <f t="shared" si="4"/>
-        <v>4.2750000000000012</v>
-      </c>
-      <c r="AB11">
-        <f>SUM($AA$2:AA11)</f>
-        <v>32.625000000000007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2030</v>
-      </c>
-      <c r="B12">
-        <f>Flow_data_Biomass!B12*TC_data_Biomass!B12</f>
-        <v>100</v>
-      </c>
-      <c r="C12">
-        <f>Flow_data_Biomass!B12*TC_data_Biomass!D12</f>
-        <v>100</v>
-      </c>
-      <c r="D12">
-        <f>C12*TC_data_Biomass!F12</f>
-        <v>30</v>
-      </c>
-      <c r="E12">
-        <f>C12*TC_data_Biomass!H12</f>
-        <v>30</v>
-      </c>
-      <c r="F12">
-        <f>C12*TC_data_Biomass!J12</f>
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <f>C12*TC_data_Biomass!L12</f>
-        <v>20</v>
-      </c>
-      <c r="H12">
-        <f>C12*TC_data_Biomass!N12</f>
-        <v>10.000000000000009</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f>D12*TC_data_Biomass!P12</f>
-        <v>30</v>
-      </c>
-      <c r="K12">
-        <f>E12*TC_data_Biomass!R12</f>
-        <v>21</v>
-      </c>
-      <c r="L12">
-        <f>E12*TC_data_Biomass!T12</f>
-        <v>4.5</v>
-      </c>
-      <c r="M12">
-        <f>E12*TC_data_Biomass!V12</f>
-        <v>4.5000000000000018</v>
-      </c>
-      <c r="N12">
-        <f>F12*TC_data_Biomass!X12</f>
-        <v>10</v>
-      </c>
-      <c r="O12">
-        <f>G12*TC_data_Biomass!Z12</f>
-        <v>20</v>
-      </c>
-      <c r="P12">
-        <f>Model_validation_Carbon!P12</f>
-        <v>23.501599340700096</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="T12">
-        <f>SUM($S$2:S12)</f>
-        <v>825</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="1"/>
-        <v>10.000000000000009</v>
-      </c>
-      <c r="V12">
-        <f>SUM($U$2:U12)</f>
-        <v>82.500000000000085</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="2"/>
-        <v>27.498400659299904</v>
-      </c>
-      <c r="X12">
-        <f>SUM($W$2:W12)</f>
-        <v>249.17862646111672</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="3"/>
-        <v>58.001599340700096</v>
-      </c>
-      <c r="Z12">
-        <f>SUM($Y$2:Y12)</f>
-        <v>456.19637353888334</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" si="4"/>
-        <v>4.5000000000000018</v>
-      </c>
-      <c r="AB12">
-        <f>SUM($AA$2:AA12)</f>
-        <v>37.125000000000007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2031</v>
-      </c>
-      <c r="B13">
-        <f>Flow_data_Biomass!B13*TC_data_Biomass!B13</f>
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <f>Flow_data_Biomass!B13*TC_data_Biomass!D13</f>
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <f>C13*TC_data_Biomass!F13</f>
-        <v>1.5</v>
-      </c>
-      <c r="E13">
-        <f>C13*TC_data_Biomass!H13</f>
-        <v>1.5</v>
-      </c>
-      <c r="F13">
-        <f>C13*TC_data_Biomass!J13</f>
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <f>C13*TC_data_Biomass!L13</f>
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <f>C13*TC_data_Biomass!N13</f>
-        <v>0.50000000000000044</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f>D13*TC_data_Biomass!P13</f>
-        <v>1.5</v>
-      </c>
-      <c r="K13">
-        <f>E13*TC_data_Biomass!R13</f>
-        <v>1.0499999999999998</v>
-      </c>
-      <c r="L13">
-        <f>E13*TC_data_Biomass!T13</f>
-        <v>0.22499999999999998</v>
-      </c>
-      <c r="M13">
-        <f>E13*TC_data_Biomass!V13</f>
-        <v>0.22500000000000009</v>
-      </c>
-      <c r="N13">
-        <f>F13*TC_data_Biomass!X13</f>
-        <v>0.5</v>
-      </c>
-      <c r="O13">
-        <f>G13*TC_data_Biomass!Z13</f>
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <f>Model_validation_Carbon!P13</f>
-        <v>24.776934906314899</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="T13">
-        <f>SUM($S$2:S13)</f>
-        <v>830</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="1"/>
-        <v>0.50000000000000044</v>
-      </c>
-      <c r="V13">
-        <f>SUM($U$2:U13)</f>
-        <v>83.000000000000085</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="2"/>
-        <v>-22.226934906314899</v>
-      </c>
-      <c r="X13">
-        <f>SUM($W$2:W13)</f>
-        <v>226.95169155480181</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="3"/>
-        <v>26.501934906314901</v>
-      </c>
-      <c r="Z13">
-        <f>SUM($Y$2:Y13)</f>
-        <v>482.69830844519822</v>
-      </c>
-      <c r="AA13">
-        <f t="shared" si="4"/>
-        <v>0.22500000000000009</v>
-      </c>
-      <c r="AB13">
-        <f>SUM($AA$2:AA13)</f>
-        <v>37.350000000000009</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2032</v>
-      </c>
-      <c r="B14">
-        <f>Flow_data_Biomass!B14*TC_data_Biomass!B14</f>
-        <v>110</v>
-      </c>
-      <c r="C14">
-        <f>Flow_data_Biomass!B14*TC_data_Biomass!D14</f>
-        <v>110</v>
-      </c>
-      <c r="D14">
-        <f>C14*TC_data_Biomass!F14</f>
-        <v>33</v>
-      </c>
-      <c r="E14">
-        <f>C14*TC_data_Biomass!H14</f>
-        <v>33</v>
-      </c>
-      <c r="F14">
-        <f>C14*TC_data_Biomass!J14</f>
-        <v>11</v>
-      </c>
-      <c r="G14">
-        <f>C14*TC_data_Biomass!L14</f>
-        <v>22</v>
-      </c>
-      <c r="H14">
-        <f>C14*TC_data_Biomass!N14</f>
-        <v>11.000000000000011</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <f>D14*TC_data_Biomass!P14</f>
-        <v>33</v>
-      </c>
-      <c r="K14">
-        <f>E14*TC_data_Biomass!R14</f>
-        <v>23.099999999999998</v>
-      </c>
-      <c r="L14">
-        <f>E14*TC_data_Biomass!T14</f>
-        <v>4.95</v>
-      </c>
-      <c r="M14">
-        <f>E14*TC_data_Biomass!V14</f>
-        <v>4.950000000000002</v>
-      </c>
-      <c r="N14">
-        <f>F14*TC_data_Biomass!X14</f>
-        <v>11</v>
-      </c>
-      <c r="O14">
-        <f>G14*TC_data_Biomass!Z14</f>
-        <v>22</v>
-      </c>
-      <c r="P14">
-        <f>Model_validation_Carbon!P14</f>
-        <v>9.6131391578279661</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="T14">
-        <f>SUM($S$2:S14)</f>
-        <v>940</v>
-      </c>
-      <c r="U14">
-        <f t="shared" si="1"/>
-        <v>11.000000000000011</v>
-      </c>
-      <c r="V14">
-        <f>SUM($U$2:U14)</f>
-        <v>94.000000000000099</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="2"/>
-        <v>46.486860842172028</v>
-      </c>
-      <c r="X14">
-        <f>SUM($W$2:W14)</f>
-        <v>273.43855239697382</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="3"/>
-        <v>47.563139157827969</v>
-      </c>
-      <c r="Z14">
-        <f>SUM($Y$2:Y14)</f>
-        <v>530.26144760302623</v>
-      </c>
-      <c r="AA14">
-        <f t="shared" si="4"/>
-        <v>4.950000000000002</v>
-      </c>
-      <c r="AB14">
-        <f>SUM($AA$2:AA14)</f>
-        <v>42.300000000000011</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2033</v>
-      </c>
-      <c r="B15">
-        <f>Flow_data_Biomass!B15*TC_data_Biomass!B15</f>
-        <v>115</v>
-      </c>
-      <c r="C15">
-        <f>Flow_data_Biomass!B15*TC_data_Biomass!D15</f>
-        <v>115</v>
-      </c>
-      <c r="D15">
-        <f>C15*TC_data_Biomass!F15</f>
-        <v>34.5</v>
-      </c>
-      <c r="E15">
-        <f>C15*TC_data_Biomass!H15</f>
-        <v>34.5</v>
-      </c>
-      <c r="F15">
-        <f>C15*TC_data_Biomass!J15</f>
-        <v>11.5</v>
-      </c>
-      <c r="G15">
-        <f>C15*TC_data_Biomass!L15</f>
-        <v>23</v>
-      </c>
-      <c r="H15">
-        <f>C15*TC_data_Biomass!N15</f>
-        <v>11.500000000000011</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f>D15*TC_data_Biomass!P15</f>
-        <v>34.5</v>
-      </c>
-      <c r="K15">
-        <f>E15*TC_data_Biomass!R15</f>
-        <v>24.15</v>
-      </c>
-      <c r="L15">
-        <f>E15*TC_data_Biomass!T15</f>
-        <v>5.1749999999999998</v>
-      </c>
-      <c r="M15">
-        <f>E15*TC_data_Biomass!V15</f>
-        <v>5.1750000000000016</v>
-      </c>
-      <c r="N15">
-        <f>F15*TC_data_Biomass!X15</f>
-        <v>11.5</v>
-      </c>
-      <c r="O15">
-        <f>G15*TC_data_Biomass!Z15</f>
-        <v>23</v>
-      </c>
-      <c r="P15">
-        <f>Model_validation_Carbon!P15</f>
-        <v>21.648098785397824</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="0"/>
-        <v>115</v>
-      </c>
-      <c r="T15">
-        <f>SUM($S$2:S15)</f>
-        <v>1055</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="1"/>
-        <v>11.500000000000011</v>
-      </c>
-      <c r="V15">
-        <f>SUM($U$2:U15)</f>
-        <v>105.50000000000011</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="2"/>
-        <v>37.001901214602171</v>
-      </c>
-      <c r="X15">
-        <f>SUM($W$2:W15)</f>
-        <v>310.440453611576</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="3"/>
-        <v>61.323098785397818</v>
-      </c>
-      <c r="Z15">
-        <f>SUM($Y$2:Y15)</f>
-        <v>591.58454638842409</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" si="4"/>
-        <v>5.1750000000000016</v>
-      </c>
-      <c r="AB15">
-        <f>SUM($AA$2:AA15)</f>
-        <v>47.475000000000016</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2034</v>
-      </c>
-      <c r="B16">
-        <f>Flow_data_Biomass!B16*TC_data_Biomass!B16</f>
-        <v>120</v>
-      </c>
-      <c r="C16">
-        <f>Flow_data_Biomass!B16*TC_data_Biomass!D16</f>
-        <v>120</v>
-      </c>
-      <c r="D16">
-        <f>C16*TC_data_Biomass!F16</f>
-        <v>36</v>
-      </c>
-      <c r="E16">
-        <f>C16*TC_data_Biomass!H16</f>
-        <v>36</v>
-      </c>
-      <c r="F16">
-        <f>C16*TC_data_Biomass!J16</f>
-        <v>12</v>
-      </c>
-      <c r="G16">
-        <f>C16*TC_data_Biomass!L16</f>
-        <v>24</v>
-      </c>
-      <c r="H16">
-        <f>C16*TC_data_Biomass!N16</f>
-        <v>12.000000000000011</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <f>D16*TC_data_Biomass!P16</f>
-        <v>36</v>
-      </c>
-      <c r="K16">
-        <f>E16*TC_data_Biomass!R16</f>
-        <v>25.2</v>
-      </c>
-      <c r="L16">
-        <f>E16*TC_data_Biomass!T16</f>
-        <v>5.3999999999999995</v>
-      </c>
-      <c r="M16">
-        <f>E16*TC_data_Biomass!V16</f>
-        <v>5.4000000000000021</v>
-      </c>
-      <c r="N16">
-        <f>F16*TC_data_Biomass!X16</f>
-        <v>12</v>
-      </c>
-      <c r="O16">
-        <f>G16*TC_data_Biomass!Z16</f>
-        <v>24</v>
-      </c>
-      <c r="P16">
-        <f>Model_validation_Carbon!P16</f>
-        <v>26.482420071184492</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="T16">
-        <f>SUM($S$2:S16)</f>
-        <v>1175</v>
-      </c>
-      <c r="U16">
-        <f t="shared" si="1"/>
-        <v>12.000000000000011</v>
-      </c>
-      <c r="V16">
-        <f>SUM($U$2:U16)</f>
-        <v>117.50000000000013</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="2"/>
-        <v>34.71757992881551</v>
-      </c>
-      <c r="X16">
-        <f>SUM($W$2:W16)</f>
-        <v>345.1580335403915</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="3"/>
-        <v>67.882420071184498</v>
-      </c>
-      <c r="Z16">
-        <f>SUM($Y$2:Y16)</f>
-        <v>659.46696645960856</v>
-      </c>
-      <c r="AA16">
-        <f t="shared" si="4"/>
-        <v>5.4000000000000021</v>
-      </c>
-      <c r="AB16">
-        <f>SUM($AA$2:AA16)</f>
-        <v>52.875000000000014</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2035</v>
-      </c>
-      <c r="B17">
-        <f>Flow_data_Biomass!B17*TC_data_Biomass!B17</f>
-        <v>125</v>
-      </c>
-      <c r="C17">
-        <f>Flow_data_Biomass!B17*TC_data_Biomass!D17</f>
-        <v>125</v>
-      </c>
-      <c r="D17">
-        <f>C17*TC_data_Biomass!F17</f>
-        <v>37.5</v>
-      </c>
-      <c r="E17">
-        <f>C17*TC_data_Biomass!H17</f>
-        <v>37.5</v>
-      </c>
-      <c r="F17">
-        <f>C17*TC_data_Biomass!J17</f>
-        <v>12.5</v>
-      </c>
-      <c r="G17">
-        <f>C17*TC_data_Biomass!L17</f>
-        <v>25</v>
-      </c>
-      <c r="H17">
-        <f>C17*TC_data_Biomass!N17</f>
-        <v>12.500000000000011</v>
-      </c>
-      <c r="I17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <f>D17*TC_data_Biomass!P17</f>
-        <v>37.5</v>
-      </c>
-      <c r="K17">
-        <f>E17*TC_data_Biomass!R17</f>
-        <v>26.25</v>
-      </c>
-      <c r="L17">
-        <f>E17*TC_data_Biomass!T17</f>
-        <v>5.625</v>
-      </c>
-      <c r="M17">
-        <f>E17*TC_data_Biomass!V17</f>
-        <v>5.6250000000000018</v>
-      </c>
-      <c r="N17">
-        <f>F17*TC_data_Biomass!X17</f>
-        <v>12.5</v>
-      </c>
-      <c r="O17">
-        <f>G17*TC_data_Biomass!Z17</f>
-        <v>25</v>
-      </c>
-      <c r="P17">
-        <f>Model_validation_Carbon!P17</f>
-        <v>29.085945831594273</v>
-      </c>
-      <c r="S17">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="T17">
-        <f>SUM($S$2:S17)</f>
-        <v>1300</v>
-      </c>
-      <c r="U17">
-        <f t="shared" si="1"/>
-        <v>12.500000000000011</v>
-      </c>
-      <c r="V17">
-        <f>SUM($U$2:U17)</f>
-        <v>130.00000000000014</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="2"/>
-        <v>34.664054168405727</v>
-      </c>
-      <c r="X17">
-        <f>SUM($W$2:W17)</f>
-        <v>379.8220877087972</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="3"/>
-        <v>72.210945831594273</v>
-      </c>
-      <c r="Z17">
-        <f>SUM($Y$2:Y17)</f>
-        <v>731.6779122912028</v>
-      </c>
-      <c r="AA17">
-        <f t="shared" si="4"/>
-        <v>5.6250000000000018</v>
-      </c>
-      <c r="AB17">
-        <f>SUM($AA$2:AA17)</f>
-        <v>58.500000000000014</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2036</v>
-      </c>
-      <c r="B18">
-        <f>Flow_data_Biomass!B18*TC_data_Biomass!B18</f>
-        <v>130</v>
-      </c>
-      <c r="C18">
-        <f>Flow_data_Biomass!B18*TC_data_Biomass!D18</f>
-        <v>130</v>
-      </c>
-      <c r="D18">
-        <f>C18*TC_data_Biomass!F18</f>
-        <v>39</v>
-      </c>
-      <c r="E18">
-        <f>C18*TC_data_Biomass!H18</f>
-        <v>39</v>
-      </c>
-      <c r="F18">
-        <f>C18*TC_data_Biomass!J18</f>
-        <v>13</v>
-      </c>
-      <c r="G18">
-        <f>C18*TC_data_Biomass!L18</f>
-        <v>26</v>
-      </c>
-      <c r="H18">
-        <f>C18*TC_data_Biomass!N18</f>
-        <v>13.000000000000011</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <f>D18*TC_data_Biomass!P18</f>
-        <v>39</v>
-      </c>
-      <c r="K18">
-        <f>E18*TC_data_Biomass!R18</f>
-        <v>27.299999999999997</v>
-      </c>
-      <c r="L18">
-        <f>E18*TC_data_Biomass!T18</f>
-        <v>5.85</v>
-      </c>
-      <c r="M18">
-        <f>E18*TC_data_Biomass!V18</f>
-        <v>5.8500000000000023</v>
-      </c>
-      <c r="N18">
-        <f>F18*TC_data_Biomass!X18</f>
-        <v>13</v>
-      </c>
-      <c r="O18">
-        <f>G18*TC_data_Biomass!Z18</f>
-        <v>26</v>
-      </c>
-      <c r="P18">
-        <f>Model_validation_Carbon!P18</f>
-        <v>30.8568214647158</v>
-      </c>
-      <c r="S18">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="T18">
-        <f>SUM($S$2:S18)</f>
-        <v>1430</v>
-      </c>
-      <c r="U18">
-        <f t="shared" si="1"/>
-        <v>13.000000000000011</v>
-      </c>
-      <c r="V18">
-        <f>SUM($U$2:U18)</f>
-        <v>143.00000000000014</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="2"/>
-        <v>35.443178535284197</v>
-      </c>
-      <c r="X18">
-        <f>SUM($W$2:W18)</f>
-        <v>415.26526624408137</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" si="3"/>
-        <v>75.706821464715802</v>
-      </c>
-      <c r="Z18">
-        <f>SUM($Y$2:Y18)</f>
-        <v>807.38473375591866</v>
-      </c>
-      <c r="AA18">
-        <f t="shared" si="4"/>
-        <v>5.8500000000000023</v>
-      </c>
-      <c r="AB18">
-        <f>SUM($AA$2:AA18)</f>
-        <v>64.350000000000023</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2037</v>
-      </c>
-      <c r="B19">
-        <f>Flow_data_Biomass!B19*TC_data_Biomass!B19</f>
-        <v>135</v>
-      </c>
-      <c r="C19">
-        <f>Flow_data_Biomass!B19*TC_data_Biomass!D19</f>
-        <v>135</v>
-      </c>
-      <c r="D19">
-        <f>C19*TC_data_Biomass!F19</f>
-        <v>40.5</v>
-      </c>
-      <c r="E19">
-        <f>C19*TC_data_Biomass!H19</f>
-        <v>40.5</v>
-      </c>
-      <c r="F19">
-        <f>C19*TC_data_Biomass!J19</f>
-        <v>13.5</v>
-      </c>
-      <c r="G19">
-        <f>C19*TC_data_Biomass!L19</f>
-        <v>27</v>
-      </c>
-      <c r="H19">
-        <f>C19*TC_data_Biomass!N19</f>
-        <v>13.500000000000012</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <f>D19*TC_data_Biomass!P19</f>
-        <v>40.5</v>
-      </c>
-      <c r="K19">
-        <f>E19*TC_data_Biomass!R19</f>
-        <v>28.349999999999998</v>
-      </c>
-      <c r="L19">
-        <f>E19*TC_data_Biomass!T19</f>
-        <v>6.0750000000000002</v>
-      </c>
-      <c r="M19">
-        <f>E19*TC_data_Biomass!V19</f>
-        <v>6.075000000000002</v>
-      </c>
-      <c r="N19">
-        <f>F19*TC_data_Biomass!X19</f>
-        <v>13.5</v>
-      </c>
-      <c r="O19">
-        <f>G19*TC_data_Biomass!Z19</f>
-        <v>27</v>
-      </c>
-      <c r="P19">
-        <f>Model_validation_Carbon!P19</f>
-        <v>32.316908311242436</v>
-      </c>
-      <c r="S19">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="T19">
-        <f>SUM($S$2:S19)</f>
-        <v>1565</v>
-      </c>
-      <c r="U19">
-        <f t="shared" si="1"/>
-        <v>13.500000000000012</v>
-      </c>
-      <c r="V19">
-        <f>SUM($U$2:U19)</f>
-        <v>156.50000000000014</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="2"/>
-        <v>36.533091688757558</v>
-      </c>
-      <c r="X19">
-        <f>SUM($W$2:W19)</f>
-        <v>451.79835793283894</v>
-      </c>
-      <c r="Y19">
-        <f t="shared" si="3"/>
-        <v>78.891908311242432</v>
-      </c>
-      <c r="Z19">
-        <f>SUM($Y$2:Y19)</f>
-        <v>886.27664206716111</v>
-      </c>
-      <c r="AA19">
-        <f t="shared" si="4"/>
-        <v>6.075000000000002</v>
-      </c>
-      <c r="AB19">
-        <f>SUM($AA$2:AA19)</f>
-        <v>70.425000000000026</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2038</v>
-      </c>
-      <c r="B20">
-        <f>Flow_data_Biomass!B20*TC_data_Biomass!B20</f>
-        <v>140</v>
-      </c>
-      <c r="C20">
-        <f>Flow_data_Biomass!B20*TC_data_Biomass!D20</f>
-        <v>140</v>
-      </c>
-      <c r="D20">
-        <f>C20*TC_data_Biomass!F20</f>
-        <v>42</v>
-      </c>
-      <c r="E20">
-        <f>C20*TC_data_Biomass!H20</f>
-        <v>42</v>
-      </c>
-      <c r="F20">
-        <f>C20*TC_data_Biomass!J20</f>
-        <v>14</v>
-      </c>
-      <c r="G20">
-        <f>C20*TC_data_Biomass!L20</f>
-        <v>28</v>
-      </c>
-      <c r="H20">
-        <f>C20*TC_data_Biomass!N20</f>
-        <v>14.000000000000012</v>
-      </c>
-      <c r="I20">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <f>D20*TC_data_Biomass!P20</f>
-        <v>42</v>
-      </c>
-      <c r="K20">
-        <f>E20*TC_data_Biomass!R20</f>
-        <v>29.4</v>
-      </c>
-      <c r="L20">
-        <f>E20*TC_data_Biomass!T20</f>
-        <v>6.3</v>
-      </c>
-      <c r="M20">
-        <f>E20*TC_data_Biomass!V20</f>
-        <v>6.3000000000000025</v>
-      </c>
-      <c r="N20">
-        <f>F20*TC_data_Biomass!X20</f>
-        <v>14</v>
-      </c>
-      <c r="O20">
-        <f>G20*TC_data_Biomass!Z20</f>
-        <v>28</v>
-      </c>
-      <c r="P20">
-        <f>Model_validation_Carbon!P20</f>
-        <v>33.660992449419453</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="T20">
-        <f>SUM($S$2:S20)</f>
-        <v>1705</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="1"/>
-        <v>14.000000000000012</v>
-      </c>
-      <c r="V20">
-        <f>SUM($U$2:U20)</f>
-        <v>170.50000000000014</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="2"/>
-        <v>37.739007550580553</v>
-      </c>
-      <c r="X20">
-        <f>SUM($W$2:W20)</f>
-        <v>489.53736548341948</v>
-      </c>
-      <c r="Y20">
-        <f t="shared" si="3"/>
-        <v>81.96099244941945</v>
-      </c>
-      <c r="Z20">
-        <f>SUM($Y$2:Y20)</f>
-        <v>968.23763451658056</v>
-      </c>
-      <c r="AA20">
-        <f t="shared" si="4"/>
-        <v>6.3000000000000025</v>
-      </c>
-      <c r="AB20">
-        <f>SUM($AA$2:AA20)</f>
-        <v>76.725000000000023</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2039</v>
-      </c>
-      <c r="B21">
-        <f>Flow_data_Biomass!B21*TC_data_Biomass!B21</f>
-        <v>145</v>
-      </c>
-      <c r="C21">
-        <f>Flow_data_Biomass!B21*TC_data_Biomass!D21</f>
-        <v>145</v>
-      </c>
-      <c r="D21">
-        <f>C21*TC_data_Biomass!F21</f>
-        <v>43.5</v>
-      </c>
-      <c r="E21">
-        <f>C21*TC_data_Biomass!H21</f>
-        <v>43.5</v>
-      </c>
-      <c r="F21">
-        <f>C21*TC_data_Biomass!J21</f>
-        <v>14.5</v>
-      </c>
-      <c r="G21">
-        <f>C21*TC_data_Biomass!L21</f>
-        <v>29</v>
-      </c>
-      <c r="H21">
-        <f>C21*TC_data_Biomass!N21</f>
-        <v>14.500000000000012</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <f>D21*TC_data_Biomass!P21</f>
-        <v>43.5</v>
-      </c>
-      <c r="K21">
-        <f>E21*TC_data_Biomass!R21</f>
-        <v>30.45</v>
-      </c>
-      <c r="L21">
-        <f>E21*TC_data_Biomass!T21</f>
-        <v>6.5249999999999995</v>
-      </c>
-      <c r="M21">
-        <f>E21*TC_data_Biomass!V21</f>
-        <v>6.5250000000000021</v>
-      </c>
-      <c r="N21">
-        <f>F21*TC_data_Biomass!X21</f>
-        <v>14.5</v>
-      </c>
-      <c r="O21">
-        <f>G21*TC_data_Biomass!Z21</f>
-        <v>29</v>
-      </c>
-      <c r="P21">
-        <f>Model_validation_Carbon!P21</f>
-        <v>34.961778280434586</v>
-      </c>
-      <c r="S21">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="T21">
-        <f>SUM($S$2:S21)</f>
-        <v>1850</v>
-      </c>
-      <c r="U21">
-        <f t="shared" si="1"/>
-        <v>14.500000000000012</v>
-      </c>
-      <c r="V21">
-        <f>SUM($U$2:U21)</f>
-        <v>185.00000000000014</v>
-      </c>
-      <c r="W21">
-        <f t="shared" si="2"/>
-        <v>38.988221719565416</v>
-      </c>
-      <c r="X21">
-        <f>SUM($W$2:W21)</f>
-        <v>528.52558720298487</v>
-      </c>
-      <c r="Y21">
-        <f t="shared" si="3"/>
-        <v>84.986778280434592</v>
-      </c>
-      <c r="Z21">
-        <f>SUM($Y$2:Y21)</f>
-        <v>1053.2244127970152</v>
-      </c>
-      <c r="AA21">
-        <f t="shared" si="4"/>
-        <v>6.5250000000000021</v>
-      </c>
-      <c r="AB21">
-        <f>SUM($AA$2:AA21)</f>
-        <v>83.250000000000028</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2040</v>
-      </c>
-      <c r="B22">
-        <f>Flow_data_Biomass!B22*TC_data_Biomass!B22</f>
-        <v>150</v>
-      </c>
-      <c r="C22">
-        <f>Flow_data_Biomass!B22*TC_data_Biomass!D22</f>
-        <v>150</v>
-      </c>
-      <c r="D22">
-        <f>C22*TC_data_Biomass!F22</f>
-        <v>45</v>
-      </c>
-      <c r="E22">
-        <f>C22*TC_data_Biomass!H22</f>
-        <v>45</v>
-      </c>
-      <c r="F22">
-        <f>C22*TC_data_Biomass!J22</f>
-        <v>15</v>
-      </c>
-      <c r="G22">
-        <f>C22*TC_data_Biomass!L22</f>
-        <v>30</v>
-      </c>
-      <c r="H22">
-        <f>C22*TC_data_Biomass!N22</f>
-        <v>15.000000000000014</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <f>D22*TC_data_Biomass!P22</f>
-        <v>45</v>
-      </c>
-      <c r="K22">
-        <f>E22*TC_data_Biomass!R22</f>
-        <v>31.499999999999996</v>
-      </c>
-      <c r="L22">
-        <f>E22*TC_data_Biomass!T22</f>
-        <v>6.75</v>
-      </c>
-      <c r="M22">
-        <f>E22*TC_data_Biomass!V22</f>
-        <v>6.7500000000000027</v>
-      </c>
-      <c r="N22">
-        <f>F22*TC_data_Biomass!X22</f>
-        <v>15</v>
-      </c>
-      <c r="O22">
-        <f>G22*TC_data_Biomass!Z22</f>
-        <v>30</v>
-      </c>
-      <c r="P22">
-        <f>Model_validation_Carbon!P22</f>
-        <v>36.246402907717886</v>
-      </c>
-      <c r="S22">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="T22">
-        <f>SUM($S$2:S22)</f>
-        <v>2000</v>
-      </c>
-      <c r="U22">
-        <f t="shared" si="1"/>
-        <v>15.000000000000014</v>
-      </c>
-      <c r="V22">
-        <f>SUM($U$2:U22)</f>
-        <v>200.00000000000017</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="2"/>
-        <v>40.253597092282114</v>
-      </c>
-      <c r="X22">
-        <f>SUM($W$2:W22)</f>
-        <v>568.77918429526699</v>
-      </c>
-      <c r="Y22">
-        <f t="shared" si="3"/>
-        <v>87.996402907717879</v>
-      </c>
-      <c r="Z22">
-        <f>SUM($Y$2:Y22)</f>
-        <v>1141.220815704733</v>
-      </c>
-      <c r="AA22">
-        <f t="shared" si="4"/>
-        <v>6.7500000000000027</v>
-      </c>
-      <c r="AB22">
-        <f>SUM($AA$2:AA22)</f>
-        <v>90.000000000000028</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26778DCB-B80F-F449-834E-1FDA4FB8D60F}">
-  <dimension ref="A1:AB22"/>
-  <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -8151,2183 +5850,4571 @@
       <c r="A2">
         <v>2020</v>
       </c>
-      <c r="B2">
-        <f>Flow_data_Carbon!B2*TC_data_Carbon!B2</f>
-        <v>25</v>
-      </c>
-      <c r="C2">
-        <f>Flow_data_Carbon!B2*TC_data_Carbon!D2</f>
-        <v>25</v>
-      </c>
-      <c r="D2">
-        <f>C2*TC_data_Carbon!F2</f>
-        <v>7.5</v>
-      </c>
-      <c r="E2">
-        <f>C2*TC_data_Carbon!H2</f>
-        <v>7.5</v>
-      </c>
-      <c r="F2">
-        <f>C2*TC_data_Carbon!J2</f>
-        <v>2.5</v>
-      </c>
-      <c r="G2">
-        <f>C2*TC_data_Carbon!L2</f>
+      <c r="B2" s="3">
+        <f>Flow_data_Biomass!B2*TC_data_Biomass!B2</f>
+        <v>50</v>
+      </c>
+      <c r="C2" s="3">
+        <f>Flow_data_Biomass!B2*TC_data_Biomass!D2</f>
+        <v>50</v>
+      </c>
+      <c r="D2" s="3">
+        <f>C2*TC_data_Biomass!F2</f>
+        <v>15</v>
+      </c>
+      <c r="E2" s="3">
+        <f>C2*TC_data_Biomass!H2</f>
+        <v>15</v>
+      </c>
+      <c r="F2" s="3">
+        <f>C2*TC_data_Biomass!J2</f>
         <v>5</v>
       </c>
-      <c r="H2">
-        <f>C2*TC_data_Carbon!N2</f>
-        <v>2.5000000000000022</v>
-      </c>
-      <c r="I2">
+      <c r="G2" s="3">
+        <f>C2*TC_data_Biomass!L2</f>
+        <v>10</v>
+      </c>
+      <c r="H2" s="3">
+        <f>C2*TC_data_Biomass!N2</f>
+        <v>5.0000000000000044</v>
+      </c>
+      <c r="I2" s="3">
         <f>SUM(D2:H2)-C2</f>
         <v>0</v>
       </c>
-      <c r="J2">
-        <f>D2*TC_data_Carbon!P2</f>
-        <v>7.5</v>
-      </c>
-      <c r="K2">
-        <f>E2*TC_data_Carbon!R2</f>
-        <v>5.25</v>
-      </c>
-      <c r="L2">
-        <f>E2*TC_data_Carbon!T2</f>
-        <v>1.125</v>
-      </c>
-      <c r="M2">
-        <f>E2*TC_data_Carbon!V2</f>
-        <v>1.1250000000000004</v>
-      </c>
-      <c r="N2">
-        <f>F2*TC_data_Carbon!X2</f>
-        <v>2.5</v>
-      </c>
-      <c r="O2">
-        <f>G2*TC_data_Carbon!Z2</f>
+      <c r="J2" s="3">
+        <f>D2*TC_data_Biomass!P2</f>
+        <v>15</v>
+      </c>
+      <c r="K2" s="3">
+        <f>E2*TC_data_Biomass!R2</f>
+        <v>10.5</v>
+      </c>
+      <c r="L2" s="3">
+        <f>E2*TC_data_Biomass!T2</f>
+        <v>2.25</v>
+      </c>
+      <c r="M2" s="3">
+        <f>E2*TC_data_Biomass!V2</f>
+        <v>2.2500000000000009</v>
+      </c>
+      <c r="N2" s="3">
+        <f>F2*TC_data_Biomass!X2</f>
         <v>5</v>
       </c>
-      <c r="P2">
-        <f t="shared" ref="P2:P22" si="0">J2+K2-W2</f>
+      <c r="O2" s="3">
+        <f>G2*TC_data_Biomass!Z2</f>
+        <v>10</v>
+      </c>
+      <c r="P2" s="3">
+        <f>Model_validation_Carbon!P2</f>
         <v>0</v>
       </c>
-      <c r="S2">
-        <f t="shared" ref="S2:S22" si="1">B2</f>
-        <v>25</v>
-      </c>
-      <c r="T2">
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3">
+        <f t="shared" ref="S2:S22" si="0">B2</f>
+        <v>50</v>
+      </c>
+      <c r="T2" s="3">
         <f>SUM($S$2:S2)</f>
-        <v>25</v>
-      </c>
-      <c r="U2">
-        <f t="shared" ref="U2:U22" si="2">H2</f>
-        <v>2.5000000000000022</v>
-      </c>
-      <c r="V2">
+        <v>50</v>
+      </c>
+      <c r="U2" s="3">
+        <f t="shared" ref="U2:U22" si="1">H2</f>
+        <v>5.0000000000000044</v>
+      </c>
+      <c r="V2" s="3">
         <f>SUM($U$2:U2)</f>
-        <v>2.5000000000000022</v>
-      </c>
-      <c r="W2">
-        <f>X2</f>
-        <v>12.75</v>
-      </c>
-      <c r="X2" cm="1">
-        <f t="array" ref="X2:X22">Sequestration_process!W11:W31</f>
-        <v>12.75</v>
-      </c>
-      <c r="Y2">
+        <v>5.0000000000000044</v>
+      </c>
+      <c r="W2" s="3">
+        <f t="shared" ref="W2:W22" si="2">J2+K2-P2</f>
+        <v>25.5</v>
+      </c>
+      <c r="X2" s="3">
+        <f>SUM($W$2:W2)</f>
+        <v>25.5</v>
+      </c>
+      <c r="Y2" s="3">
         <f t="shared" ref="Y2:Y22" si="3">O2+P2+N2+L2</f>
-        <v>8.625</v>
-      </c>
-      <c r="Z2">
+        <v>17.25</v>
+      </c>
+      <c r="Z2" s="3">
         <f>SUM($Y$2:Y2)</f>
-        <v>8.625</v>
-      </c>
-      <c r="AA2">
+        <v>17.25</v>
+      </c>
+      <c r="AA2" s="3">
         <f t="shared" ref="AA2:AA22" si="4">M2</f>
-        <v>1.1250000000000004</v>
-      </c>
-      <c r="AB2">
+        <v>2.2500000000000009</v>
+      </c>
+      <c r="AB2" s="3">
         <f>SUM($AA$2:AA2)</f>
-        <v>1.1250000000000004</v>
+        <v>2.2500000000000009</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2021</v>
       </c>
-      <c r="B3">
-        <f>Flow_data_Carbon!B3*TC_data_Carbon!B3</f>
-        <v>27.5</v>
-      </c>
-      <c r="C3">
-        <f>Flow_data_Carbon!B3*TC_data_Carbon!D3</f>
-        <v>27.5</v>
-      </c>
-      <c r="D3">
-        <f>C3*TC_data_Carbon!F3</f>
-        <v>8.25</v>
-      </c>
-      <c r="E3">
-        <f>C3*TC_data_Carbon!H3</f>
-        <v>8.25</v>
-      </c>
-      <c r="F3">
-        <f>C3*TC_data_Carbon!J3</f>
-        <v>2.75</v>
-      </c>
-      <c r="G3">
-        <f>C3*TC_data_Carbon!L3</f>
+      <c r="B3" s="3">
+        <f>Flow_data_Biomass!B3*TC_data_Biomass!B3</f>
+        <v>55</v>
+      </c>
+      <c r="C3" s="3">
+        <f>Flow_data_Biomass!B3*TC_data_Biomass!D3</f>
+        <v>55</v>
+      </c>
+      <c r="D3" s="3">
+        <f>C3*TC_data_Biomass!F3</f>
+        <v>16.5</v>
+      </c>
+      <c r="E3" s="3">
+        <f>C3*TC_data_Biomass!H3</f>
+        <v>16.5</v>
+      </c>
+      <c r="F3" s="3">
+        <f>C3*TC_data_Biomass!J3</f>
         <v>5.5</v>
       </c>
-      <c r="H3">
-        <f>C3*TC_data_Carbon!N3</f>
-        <v>2.7500000000000027</v>
-      </c>
-      <c r="I3">
+      <c r="G3" s="3">
+        <f>C3*TC_data_Biomass!L3</f>
+        <v>11</v>
+      </c>
+      <c r="H3" s="3">
+        <f>C3*TC_data_Biomass!N3</f>
+        <v>5.5000000000000053</v>
+      </c>
+      <c r="I3" s="3">
         <f t="shared" ref="I3:I22" si="5">SUM(D3:H3)-C3</f>
         <v>0</v>
       </c>
-      <c r="J3">
-        <f>D3*TC_data_Carbon!P3</f>
-        <v>8.25</v>
-      </c>
-      <c r="K3">
-        <f>E3*TC_data_Carbon!R3</f>
-        <v>5.7749999999999995</v>
-      </c>
-      <c r="L3">
-        <f>E3*TC_data_Carbon!T3</f>
-        <v>1.2375</v>
-      </c>
-      <c r="M3">
-        <f>E3*TC_data_Carbon!V3</f>
-        <v>1.2375000000000005</v>
-      </c>
-      <c r="N3">
-        <f>F3*TC_data_Carbon!X3</f>
-        <v>2.75</v>
-      </c>
-      <c r="O3">
-        <f>G3*TC_data_Carbon!Z3</f>
+      <c r="J3" s="3">
+        <f>D3*TC_data_Biomass!P3</f>
+        <v>16.5</v>
+      </c>
+      <c r="K3" s="3">
+        <f>E3*TC_data_Biomass!R3</f>
+        <v>11.549999999999999</v>
+      </c>
+      <c r="L3" s="3">
+        <f>E3*TC_data_Biomass!T3</f>
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="M3" s="3">
+        <f>E3*TC_data_Biomass!V3</f>
+        <v>2.475000000000001</v>
+      </c>
+      <c r="N3" s="3">
+        <f>F3*TC_data_Biomass!X3</f>
         <v>5.5</v>
       </c>
-      <c r="P3">
+      <c r="O3" s="3">
+        <f>G3*TC_data_Biomass!Z3</f>
+        <v>11</v>
+      </c>
+      <c r="P3" s="3">
+        <f>Model_validation_Carbon!P3</f>
+        <v>8.2194604996048426</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3">
         <f t="shared" si="0"/>
-        <v>8.2194604996048426</v>
-      </c>
-      <c r="S3">
+        <v>55</v>
+      </c>
+      <c r="T3" s="3">
+        <f>SUM($S$2:S3)</f>
+        <v>105</v>
+      </c>
+      <c r="U3" s="3">
         <f t="shared" si="1"/>
-        <v>27.5</v>
-      </c>
-      <c r="T3">
-        <f>SUM($S$2:S3)</f>
-        <v>52.5</v>
-      </c>
-      <c r="U3">
+        <v>5.5000000000000053</v>
+      </c>
+      <c r="V3" s="3">
+        <f>SUM($U$2:U3)</f>
+        <v>10.500000000000011</v>
+      </c>
+      <c r="W3" s="3">
         <f t="shared" si="2"/>
-        <v>2.7500000000000027</v>
-      </c>
-      <c r="V3">
-        <f>SUM($U$2:U3)</f>
-        <v>5.2500000000000053</v>
-      </c>
-      <c r="W3">
-        <f t="shared" ref="W3:W22" si="6">X3-X2</f>
-        <v>5.805539500395156</v>
-      </c>
-      <c r="X3">
-        <v>18.555539500395156</v>
-      </c>
-      <c r="Y3">
-        <f t="shared" si="3"/>
-        <v>17.706960499604843</v>
-      </c>
-      <c r="Z3">
+        <v>19.830539500395155</v>
+      </c>
+      <c r="X3" s="3">
+        <f>SUM($W$2:W3)</f>
+        <v>45.330539500395155</v>
+      </c>
+      <c r="Y3" s="3">
+        <f t="shared" si="3"/>
+        <v>27.194460499604844</v>
+      </c>
+      <c r="Z3" s="3">
         <f>SUM($Y$2:Y3)</f>
-        <v>26.331960499604843</v>
-      </c>
-      <c r="AA3">
-        <f t="shared" si="4"/>
-        <v>1.2375000000000005</v>
-      </c>
-      <c r="AB3">
+        <v>44.444460499604844</v>
+      </c>
+      <c r="AA3" s="3">
+        <f t="shared" si="4"/>
+        <v>2.475000000000001</v>
+      </c>
+      <c r="AB3" s="3">
         <f>SUM($AA$2:AA3)</f>
-        <v>2.3625000000000007</v>
+        <v>4.7250000000000014</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2022</v>
       </c>
-      <c r="B4">
-        <f>Flow_data_Carbon!B4*TC_data_Carbon!B4</f>
-        <v>30</v>
-      </c>
-      <c r="C4">
-        <f>Flow_data_Carbon!B4*TC_data_Carbon!D4</f>
-        <v>30</v>
-      </c>
-      <c r="D4">
-        <f>C4*TC_data_Carbon!F4</f>
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <f>C4*TC_data_Carbon!H4</f>
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <f>C4*TC_data_Carbon!J4</f>
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <f>C4*TC_data_Carbon!L4</f>
+      <c r="B4" s="3">
+        <f>Flow_data_Biomass!B4*TC_data_Biomass!B4</f>
+        <v>60</v>
+      </c>
+      <c r="C4" s="3">
+        <f>Flow_data_Biomass!B4*TC_data_Biomass!D4</f>
+        <v>60</v>
+      </c>
+      <c r="D4" s="3">
+        <f>C4*TC_data_Biomass!F4</f>
+        <v>18</v>
+      </c>
+      <c r="E4" s="3">
+        <f>C4*TC_data_Biomass!H4</f>
+        <v>18</v>
+      </c>
+      <c r="F4" s="3">
+        <f>C4*TC_data_Biomass!J4</f>
         <v>6</v>
       </c>
-      <c r="H4">
-        <f>C4*TC_data_Carbon!N4</f>
-        <v>3.0000000000000027</v>
-      </c>
-      <c r="I4">
+      <c r="G4" s="3">
+        <f>C4*TC_data_Biomass!L4</f>
+        <v>12</v>
+      </c>
+      <c r="H4" s="3">
+        <f>C4*TC_data_Biomass!N4</f>
+        <v>6.0000000000000053</v>
+      </c>
+      <c r="I4" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J4">
-        <f>D4*TC_data_Carbon!P4</f>
-        <v>9</v>
-      </c>
-      <c r="K4">
-        <f>E4*TC_data_Carbon!R4</f>
-        <v>6.3</v>
-      </c>
-      <c r="L4">
-        <f>E4*TC_data_Carbon!T4</f>
-        <v>1.3499999999999999</v>
-      </c>
-      <c r="M4">
-        <f>E4*TC_data_Carbon!V4</f>
-        <v>1.3500000000000005</v>
-      </c>
-      <c r="N4">
-        <f>F4*TC_data_Carbon!X4</f>
-        <v>3</v>
-      </c>
-      <c r="O4">
-        <f>G4*TC_data_Carbon!Z4</f>
+      <c r="J4" s="3">
+        <f>D4*TC_data_Biomass!P4</f>
+        <v>18</v>
+      </c>
+      <c r="K4" s="3">
+        <f>E4*TC_data_Biomass!R4</f>
+        <v>12.6</v>
+      </c>
+      <c r="L4" s="3">
+        <f>E4*TC_data_Biomass!T4</f>
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="M4" s="3">
+        <f>E4*TC_data_Biomass!V4</f>
+        <v>2.7000000000000011</v>
+      </c>
+      <c r="N4" s="3">
+        <f>F4*TC_data_Biomass!X4</f>
         <v>6</v>
       </c>
-      <c r="P4">
+      <c r="O4" s="3">
+        <f>G4*TC_data_Biomass!Z4</f>
+        <v>12</v>
+      </c>
+      <c r="P4" s="3">
+        <f>Model_validation_Carbon!P4</f>
+        <v>11.880910610461324</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3">
         <f t="shared" si="0"/>
-        <v>11.880910610461324</v>
-      </c>
-      <c r="S4">
+        <v>60</v>
+      </c>
+      <c r="T4" s="3">
+        <f>SUM($S$2:S4)</f>
+        <v>165</v>
+      </c>
+      <c r="U4" s="3">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="T4">
-        <f>SUM($S$2:S4)</f>
-        <v>82.5</v>
-      </c>
-      <c r="U4">
+        <v>6.0000000000000053</v>
+      </c>
+      <c r="V4" s="3">
+        <f>SUM($U$2:U4)</f>
+        <v>16.500000000000014</v>
+      </c>
+      <c r="W4" s="3">
         <f t="shared" si="2"/>
-        <v>3.0000000000000027</v>
-      </c>
-      <c r="V4">
-        <f>SUM($U$2:U4)</f>
-        <v>8.2500000000000071</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="6"/>
-        <v>3.4190893895386765</v>
-      </c>
-      <c r="X4">
-        <v>21.974628889933832</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" si="3"/>
-        <v>22.230910610461326</v>
-      </c>
-      <c r="Z4">
+        <v>18.719089389538677</v>
+      </c>
+      <c r="X4" s="3">
+        <f>SUM($W$2:W4)</f>
+        <v>64.049628889933828</v>
+      </c>
+      <c r="Y4" s="3">
+        <f t="shared" si="3"/>
+        <v>32.580910610461324</v>
+      </c>
+      <c r="Z4" s="3">
         <f>SUM($Y$2:Y4)</f>
-        <v>48.562871110066169</v>
-      </c>
-      <c r="AA4">
-        <f t="shared" si="4"/>
-        <v>1.3500000000000005</v>
-      </c>
-      <c r="AB4">
+        <v>77.025371110066175</v>
+      </c>
+      <c r="AA4" s="3">
+        <f t="shared" si="4"/>
+        <v>2.7000000000000011</v>
+      </c>
+      <c r="AB4" s="3">
         <f>SUM($AA$2:AA4)</f>
-        <v>3.7125000000000012</v>
+        <v>7.4250000000000025</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2023</v>
       </c>
-      <c r="B5">
-        <f>Flow_data_Carbon!B5*TC_data_Carbon!B5</f>
-        <v>32.5</v>
-      </c>
-      <c r="C5">
-        <f>Flow_data_Carbon!B5*TC_data_Carbon!D5</f>
-        <v>32.5</v>
-      </c>
-      <c r="D5">
-        <f>C5*TC_data_Carbon!F5</f>
-        <v>9.75</v>
-      </c>
-      <c r="E5">
-        <f>C5*TC_data_Carbon!H5</f>
-        <v>9.75</v>
-      </c>
-      <c r="F5">
-        <f>C5*TC_data_Carbon!J5</f>
-        <v>3.25</v>
-      </c>
-      <c r="G5">
-        <f>C5*TC_data_Carbon!L5</f>
+      <c r="B5" s="3">
+        <f>Flow_data_Biomass!B5*TC_data_Biomass!B5</f>
+        <v>65</v>
+      </c>
+      <c r="C5" s="3">
+        <f>Flow_data_Biomass!B5*TC_data_Biomass!D5</f>
+        <v>65</v>
+      </c>
+      <c r="D5" s="3">
+        <f>C5*TC_data_Biomass!F5</f>
+        <v>19.5</v>
+      </c>
+      <c r="E5" s="3">
+        <f>C5*TC_data_Biomass!H5</f>
+        <v>19.5</v>
+      </c>
+      <c r="F5" s="3">
+        <f>C5*TC_data_Biomass!J5</f>
         <v>6.5</v>
       </c>
-      <c r="H5">
-        <f>C5*TC_data_Carbon!N5</f>
-        <v>3.2500000000000027</v>
-      </c>
-      <c r="I5">
+      <c r="G5" s="3">
+        <f>C5*TC_data_Biomass!L5</f>
+        <v>13</v>
+      </c>
+      <c r="H5" s="3">
+        <f>C5*TC_data_Biomass!N5</f>
+        <v>6.5000000000000053</v>
+      </c>
+      <c r="I5" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J5">
-        <f>D5*TC_data_Carbon!P5</f>
-        <v>9.75</v>
-      </c>
-      <c r="K5">
-        <f>E5*TC_data_Carbon!R5</f>
-        <v>6.8249999999999993</v>
-      </c>
-      <c r="L5">
-        <f>E5*TC_data_Carbon!T5</f>
-        <v>1.4624999999999999</v>
-      </c>
-      <c r="M5">
-        <f>E5*TC_data_Carbon!V5</f>
-        <v>1.4625000000000006</v>
-      </c>
-      <c r="N5">
-        <f>F5*TC_data_Carbon!X5</f>
-        <v>3.25</v>
-      </c>
-      <c r="O5">
-        <f>G5*TC_data_Carbon!Z5</f>
+      <c r="J5" s="3">
+        <f>D5*TC_data_Biomass!P5</f>
+        <v>19.5</v>
+      </c>
+      <c r="K5" s="3">
+        <f>E5*TC_data_Biomass!R5</f>
+        <v>13.649999999999999</v>
+      </c>
+      <c r="L5" s="3">
+        <f>E5*TC_data_Biomass!T5</f>
+        <v>2.9249999999999998</v>
+      </c>
+      <c r="M5" s="3">
+        <f>E5*TC_data_Biomass!V5</f>
+        <v>2.9250000000000012</v>
+      </c>
+      <c r="N5" s="3">
+        <f>F5*TC_data_Biomass!X5</f>
         <v>6.5</v>
       </c>
-      <c r="P5">
+      <c r="O5" s="3">
+        <f>G5*TC_data_Biomass!Z5</f>
+        <v>13</v>
+      </c>
+      <c r="P5" s="3">
+        <f>Model_validation_Carbon!P5</f>
+        <v>14.046659209320914</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3">
         <f t="shared" si="0"/>
-        <v>14.046659209320914</v>
-      </c>
-      <c r="S5">
+        <v>65</v>
+      </c>
+      <c r="T5" s="3">
+        <f>SUM($S$2:S5)</f>
+        <v>230</v>
+      </c>
+      <c r="U5" s="3">
         <f t="shared" si="1"/>
-        <v>32.5</v>
-      </c>
-      <c r="T5">
-        <f>SUM($S$2:S5)</f>
-        <v>115</v>
-      </c>
-      <c r="U5">
+        <v>6.5000000000000053</v>
+      </c>
+      <c r="V5" s="3">
+        <f>SUM($U$2:U5)</f>
+        <v>23.000000000000021</v>
+      </c>
+      <c r="W5" s="3">
         <f t="shared" si="2"/>
-        <v>3.2500000000000027</v>
-      </c>
-      <c r="V5">
-        <f>SUM($U$2:U5)</f>
-        <v>11.500000000000011</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="6"/>
-        <v>2.5283407906790849</v>
-      </c>
-      <c r="X5">
-        <v>24.502969680612917</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="3"/>
-        <v>25.259159209320913</v>
-      </c>
-      <c r="Z5">
+        <v>19.103340790679084</v>
+      </c>
+      <c r="X5" s="3">
+        <f>SUM($W$2:W5)</f>
+        <v>83.152969680612912</v>
+      </c>
+      <c r="Y5" s="3">
+        <f t="shared" si="3"/>
+        <v>36.471659209320912</v>
+      </c>
+      <c r="Z5" s="3">
         <f>SUM($Y$2:Y5)</f>
-        <v>73.822030319387082</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" si="4"/>
-        <v>1.4625000000000006</v>
-      </c>
-      <c r="AB5">
+        <v>113.49703031938708</v>
+      </c>
+      <c r="AA5" s="3">
+        <f t="shared" si="4"/>
+        <v>2.9250000000000012</v>
+      </c>
+      <c r="AB5" s="3">
         <f>SUM($AA$2:AA5)</f>
-        <v>5.1750000000000016</v>
+        <v>10.350000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2024</v>
       </c>
-      <c r="B6">
-        <f>Flow_data_Carbon!B6*TC_data_Carbon!B6</f>
-        <v>35</v>
-      </c>
-      <c r="C6">
-        <f>Flow_data_Carbon!B6*TC_data_Carbon!D6</f>
-        <v>35</v>
-      </c>
-      <c r="D6">
-        <f>C6*TC_data_Carbon!F6</f>
-        <v>10.5</v>
-      </c>
-      <c r="E6">
-        <f>C6*TC_data_Carbon!H6</f>
-        <v>10.5</v>
-      </c>
-      <c r="F6">
-        <f>C6*TC_data_Carbon!J6</f>
-        <v>3.5</v>
-      </c>
-      <c r="G6">
-        <f>C6*TC_data_Carbon!L6</f>
+      <c r="B6" s="3">
+        <f>Flow_data_Biomass!B6*TC_data_Biomass!B6</f>
+        <v>70</v>
+      </c>
+      <c r="C6" s="3">
+        <f>Flow_data_Biomass!B6*TC_data_Biomass!D6</f>
+        <v>70</v>
+      </c>
+      <c r="D6" s="3">
+        <f>C6*TC_data_Biomass!F6</f>
+        <v>21</v>
+      </c>
+      <c r="E6" s="3">
+        <f>C6*TC_data_Biomass!H6</f>
+        <v>21</v>
+      </c>
+      <c r="F6" s="3">
+        <f>C6*TC_data_Biomass!J6</f>
         <v>7</v>
       </c>
-      <c r="H6">
-        <f>C6*TC_data_Carbon!N6</f>
-        <v>3.5000000000000031</v>
-      </c>
-      <c r="I6">
+      <c r="G6" s="3">
+        <f>C6*TC_data_Biomass!L6</f>
+        <v>14</v>
+      </c>
+      <c r="H6" s="3">
+        <f>C6*TC_data_Biomass!N6</f>
+        <v>7.0000000000000062</v>
+      </c>
+      <c r="I6" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J6">
-        <f>D6*TC_data_Carbon!P6</f>
-        <v>10.5</v>
-      </c>
-      <c r="K6">
-        <f>E6*TC_data_Carbon!R6</f>
-        <v>7.35</v>
-      </c>
-      <c r="L6">
-        <f>E6*TC_data_Carbon!T6</f>
-        <v>1.575</v>
-      </c>
-      <c r="M6">
-        <f>E6*TC_data_Carbon!V6</f>
-        <v>1.5750000000000006</v>
-      </c>
-      <c r="N6">
-        <f>F6*TC_data_Carbon!X6</f>
-        <v>3.5</v>
-      </c>
-      <c r="O6">
-        <f>G6*TC_data_Carbon!Z6</f>
+      <c r="J6" s="3">
+        <f>D6*TC_data_Biomass!P6</f>
+        <v>21</v>
+      </c>
+      <c r="K6" s="3">
+        <f>E6*TC_data_Biomass!R6</f>
+        <v>14.7</v>
+      </c>
+      <c r="L6" s="3">
+        <f>E6*TC_data_Biomass!T6</f>
+        <v>3.15</v>
+      </c>
+      <c r="M6" s="3">
+        <f>E6*TC_data_Biomass!V6</f>
+        <v>3.1500000000000012</v>
+      </c>
+      <c r="N6" s="3">
+        <f>F6*TC_data_Biomass!X6</f>
         <v>7</v>
       </c>
-      <c r="P6">
+      <c r="O6" s="3">
+        <f>G6*TC_data_Biomass!Z6</f>
+        <v>14</v>
+      </c>
+      <c r="P6" s="3">
+        <f>Model_validation_Carbon!P6</f>
+        <v>15.654133398813006</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3">
         <f t="shared" si="0"/>
-        <v>15.654133398813006</v>
-      </c>
-      <c r="S6">
+        <v>70</v>
+      </c>
+      <c r="T6" s="3">
+        <f>SUM($S$2:S6)</f>
+        <v>300</v>
+      </c>
+      <c r="U6" s="3">
         <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="T6">
-        <f>SUM($S$2:S6)</f>
-        <v>150</v>
-      </c>
-      <c r="U6">
+        <v>7.0000000000000062</v>
+      </c>
+      <c r="V6" s="3">
+        <f>SUM($U$2:U6)</f>
+        <v>30.000000000000028</v>
+      </c>
+      <c r="W6" s="3">
         <f t="shared" si="2"/>
-        <v>3.5000000000000031</v>
-      </c>
-      <c r="V6">
-        <f>SUM($U$2:U6)</f>
-        <v>15.000000000000014</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="6"/>
-        <v>2.1958666011869958</v>
-      </c>
-      <c r="X6">
-        <v>26.698836281799913</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="3"/>
-        <v>27.729133398813005</v>
-      </c>
-      <c r="Z6">
+        <v>20.045866601186997</v>
+      </c>
+      <c r="X6" s="3">
+        <f>SUM($W$2:W6)</f>
+        <v>103.19883628179991</v>
+      </c>
+      <c r="Y6" s="3">
+        <f t="shared" si="3"/>
+        <v>39.804133398813001</v>
+      </c>
+      <c r="Z6" s="3">
         <f>SUM($Y$2:Y6)</f>
-        <v>101.55116371820009</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" si="4"/>
-        <v>1.5750000000000006</v>
-      </c>
-      <c r="AB6">
+        <v>153.30116371820009</v>
+      </c>
+      <c r="AA6" s="3">
+        <f t="shared" si="4"/>
+        <v>3.1500000000000012</v>
+      </c>
+      <c r="AB6" s="3">
         <f>SUM($AA$2:AA6)</f>
-        <v>6.7500000000000018</v>
+        <v>13.500000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2025</v>
       </c>
-      <c r="B7">
-        <f>Flow_data_Carbon!B7*TC_data_Carbon!B7</f>
-        <v>37.5</v>
-      </c>
-      <c r="C7">
-        <f>Flow_data_Carbon!B7*TC_data_Carbon!D7</f>
-        <v>37.5</v>
-      </c>
-      <c r="D7">
-        <f>C7*TC_data_Carbon!F7</f>
-        <v>11.25</v>
-      </c>
-      <c r="E7">
-        <f>C7*TC_data_Carbon!H7</f>
-        <v>11.25</v>
-      </c>
-      <c r="F7">
-        <f>C7*TC_data_Carbon!J7</f>
-        <v>3.75</v>
-      </c>
-      <c r="G7">
-        <f>C7*TC_data_Carbon!L7</f>
+      <c r="B7" s="3">
+        <f>Flow_data_Biomass!B7*TC_data_Biomass!B7</f>
+        <v>75</v>
+      </c>
+      <c r="C7" s="3">
+        <f>Flow_data_Biomass!B7*TC_data_Biomass!D7</f>
+        <v>75</v>
+      </c>
+      <c r="D7" s="3">
+        <f>C7*TC_data_Biomass!F7</f>
+        <v>22.5</v>
+      </c>
+      <c r="E7" s="3">
+        <f>C7*TC_data_Biomass!H7</f>
+        <v>22.5</v>
+      </c>
+      <c r="F7" s="3">
+        <f>C7*TC_data_Biomass!J7</f>
         <v>7.5</v>
       </c>
-      <c r="H7">
-        <f>C7*TC_data_Carbon!N7</f>
-        <v>3.7500000000000036</v>
-      </c>
-      <c r="I7">
+      <c r="G7" s="3">
+        <f>C7*TC_data_Biomass!L7</f>
+        <v>15</v>
+      </c>
+      <c r="H7" s="3">
+        <f>C7*TC_data_Biomass!N7</f>
+        <v>7.5000000000000071</v>
+      </c>
+      <c r="I7" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J7">
-        <f>D7*TC_data_Carbon!P7</f>
-        <v>11.25</v>
-      </c>
-      <c r="K7">
-        <f>E7*TC_data_Carbon!R7</f>
-        <v>7.8749999999999991</v>
-      </c>
-      <c r="L7">
-        <f>E7*TC_data_Carbon!T7</f>
-        <v>1.6875</v>
-      </c>
-      <c r="M7">
-        <f>E7*TC_data_Carbon!V7</f>
-        <v>1.6875000000000007</v>
-      </c>
-      <c r="N7">
-        <f>F7*TC_data_Carbon!X7</f>
-        <v>3.75</v>
-      </c>
-      <c r="O7">
-        <f>G7*TC_data_Carbon!Z7</f>
+      <c r="J7" s="3">
+        <f>D7*TC_data_Biomass!P7</f>
+        <v>22.5</v>
+      </c>
+      <c r="K7" s="3">
+        <f>E7*TC_data_Biomass!R7</f>
+        <v>15.749999999999998</v>
+      </c>
+      <c r="L7" s="3">
+        <f>E7*TC_data_Biomass!T7</f>
+        <v>3.375</v>
+      </c>
+      <c r="M7" s="3">
+        <f>E7*TC_data_Biomass!V7</f>
+        <v>3.3750000000000013</v>
+      </c>
+      <c r="N7" s="3">
+        <f>F7*TC_data_Biomass!X7</f>
         <v>7.5</v>
       </c>
-      <c r="P7">
+      <c r="O7" s="3">
+        <f>G7*TC_data_Biomass!Z7</f>
+        <v>15</v>
+      </c>
+      <c r="P7" s="3">
+        <f>Model_validation_Carbon!P7</f>
+        <v>17.053230239178454</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3">
         <f t="shared" si="0"/>
-        <v>17.053230239178454</v>
-      </c>
-      <c r="S7">
+        <v>75</v>
+      </c>
+      <c r="T7" s="3">
+        <f>SUM($S$2:S7)</f>
+        <v>375</v>
+      </c>
+      <c r="U7" s="3">
         <f t="shared" si="1"/>
-        <v>37.5</v>
-      </c>
-      <c r="T7">
-        <f>SUM($S$2:S7)</f>
-        <v>187.5</v>
-      </c>
-      <c r="U7">
+        <v>7.5000000000000071</v>
+      </c>
+      <c r="V7" s="3">
+        <f>SUM($U$2:U7)</f>
+        <v>37.500000000000036</v>
+      </c>
+      <c r="W7" s="3">
         <f t="shared" si="2"/>
-        <v>3.7500000000000036</v>
-      </c>
-      <c r="V7">
-        <f>SUM($U$2:U7)</f>
-        <v>18.750000000000018</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="6"/>
-        <v>2.071769760821546</v>
-      </c>
-      <c r="X7">
-        <v>28.770606042621459</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="3"/>
-        <v>29.990730239178454</v>
-      </c>
-      <c r="Z7">
+        <v>21.196769760821546</v>
+      </c>
+      <c r="X7" s="3">
+        <f>SUM($W$2:W7)</f>
+        <v>124.39560604262147</v>
+      </c>
+      <c r="Y7" s="3">
+        <f t="shared" si="3"/>
+        <v>42.928230239178454</v>
+      </c>
+      <c r="Z7" s="3">
         <f>SUM($Y$2:Y7)</f>
-        <v>131.54189395737853</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="4"/>
-        <v>1.6875000000000007</v>
-      </c>
-      <c r="AB7">
+        <v>196.22939395737853</v>
+      </c>
+      <c r="AA7" s="3">
+        <f t="shared" si="4"/>
+        <v>3.3750000000000013</v>
+      </c>
+      <c r="AB7" s="3">
         <f>SUM($AA$2:AA7)</f>
-        <v>8.4375000000000018</v>
+        <v>16.875000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2026</v>
       </c>
-      <c r="B8">
-        <f>Flow_data_Carbon!B8*TC_data_Carbon!B8</f>
-        <v>40</v>
-      </c>
-      <c r="C8">
-        <f>Flow_data_Carbon!B8*TC_data_Carbon!D8</f>
-        <v>40</v>
-      </c>
-      <c r="D8">
-        <f>C8*TC_data_Carbon!F8</f>
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <f>C8*TC_data_Carbon!H8</f>
-        <v>12</v>
-      </c>
-      <c r="F8">
-        <f>C8*TC_data_Carbon!J8</f>
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <f>C8*TC_data_Carbon!L8</f>
+      <c r="B8" s="3">
+        <f>Flow_data_Biomass!B8*TC_data_Biomass!B8</f>
+        <v>80</v>
+      </c>
+      <c r="C8" s="3">
+        <f>Flow_data_Biomass!B8*TC_data_Biomass!D8</f>
+        <v>80</v>
+      </c>
+      <c r="D8" s="3">
+        <f>C8*TC_data_Biomass!F8</f>
+        <v>24</v>
+      </c>
+      <c r="E8" s="3">
+        <f>C8*TC_data_Biomass!H8</f>
+        <v>24</v>
+      </c>
+      <c r="F8" s="3">
+        <f>C8*TC_data_Biomass!J8</f>
         <v>8</v>
       </c>
-      <c r="H8">
-        <f>C8*TC_data_Carbon!N8</f>
-        <v>4.0000000000000036</v>
-      </c>
-      <c r="I8">
+      <c r="G8" s="3">
+        <f>C8*TC_data_Biomass!L8</f>
+        <v>16</v>
+      </c>
+      <c r="H8" s="3">
+        <f>C8*TC_data_Biomass!N8</f>
+        <v>8.0000000000000071</v>
+      </c>
+      <c r="I8" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J8">
-        <f>D8*TC_data_Carbon!P8</f>
-        <v>12</v>
-      </c>
-      <c r="K8">
-        <f>E8*TC_data_Carbon!R8</f>
-        <v>8.3999999999999986</v>
-      </c>
-      <c r="L8">
-        <f>E8*TC_data_Carbon!T8</f>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="M8">
-        <f>E8*TC_data_Carbon!V8</f>
-        <v>1.8000000000000007</v>
-      </c>
-      <c r="N8">
-        <f>F8*TC_data_Carbon!X8</f>
-        <v>4</v>
-      </c>
-      <c r="O8">
-        <f>G8*TC_data_Carbon!Z8</f>
+      <c r="J8" s="3">
+        <f>D8*TC_data_Biomass!P8</f>
+        <v>24</v>
+      </c>
+      <c r="K8" s="3">
+        <f>E8*TC_data_Biomass!R8</f>
+        <v>16.799999999999997</v>
+      </c>
+      <c r="L8" s="3">
+        <f>E8*TC_data_Biomass!T8</f>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="M8" s="3">
+        <f>E8*TC_data_Biomass!V8</f>
+        <v>3.6000000000000014</v>
+      </c>
+      <c r="N8" s="3">
+        <f>F8*TC_data_Biomass!X8</f>
         <v>8</v>
       </c>
-      <c r="P8">
+      <c r="O8" s="3">
+        <f>G8*TC_data_Biomass!Z8</f>
+        <v>16</v>
+      </c>
+      <c r="P8" s="3">
+        <f>Model_validation_Carbon!P8</f>
+        <v>18.3745497017876</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3">
         <f t="shared" si="0"/>
-        <v>18.3745497017876</v>
-      </c>
-      <c r="S8">
+        <v>80</v>
+      </c>
+      <c r="T8" s="3">
+        <f>SUM($S$2:S8)</f>
+        <v>455</v>
+      </c>
+      <c r="U8" s="3">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="T8">
-        <f>SUM($S$2:S8)</f>
-        <v>227.5</v>
-      </c>
-      <c r="U8">
+        <v>8.0000000000000071</v>
+      </c>
+      <c r="V8" s="3">
+        <f>SUM($U$2:U8)</f>
+        <v>45.500000000000043</v>
+      </c>
+      <c r="W8" s="3">
         <f t="shared" si="2"/>
-        <v>4.0000000000000036</v>
-      </c>
-      <c r="V8">
-        <f>SUM($U$2:U8)</f>
-        <v>22.750000000000021</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="6"/>
-        <v>2.0254502982123981</v>
-      </c>
-      <c r="X8">
-        <v>30.796056340833857</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="3"/>
-        <v>32.174549701787598</v>
-      </c>
-      <c r="Z8">
+        <v>22.425450298212397</v>
+      </c>
+      <c r="X8" s="3">
+        <f>SUM($W$2:W8)</f>
+        <v>146.82105634083388</v>
+      </c>
+      <c r="Y8" s="3">
+        <f t="shared" si="3"/>
+        <v>45.974549701787602</v>
+      </c>
+      <c r="Z8" s="3">
         <f>SUM($Y$2:Y8)</f>
-        <v>163.71644365916615</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" si="4"/>
-        <v>1.8000000000000007</v>
-      </c>
-      <c r="AB8">
+        <v>242.20394365916613</v>
+      </c>
+      <c r="AA8" s="3">
+        <f t="shared" si="4"/>
+        <v>3.6000000000000014</v>
+      </c>
+      <c r="AB8" s="3">
         <f>SUM($AA$2:AA8)</f>
-        <v>10.237500000000002</v>
+        <v>20.475000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2027</v>
       </c>
-      <c r="B9">
-        <f>Flow_data_Carbon!B9*TC_data_Carbon!B9</f>
-        <v>42.5</v>
-      </c>
-      <c r="C9">
-        <f>Flow_data_Carbon!B9*TC_data_Carbon!D9</f>
-        <v>42.5</v>
-      </c>
-      <c r="D9">
-        <f>C9*TC_data_Carbon!F9</f>
-        <v>12.75</v>
-      </c>
-      <c r="E9">
-        <f>C9*TC_data_Carbon!H9</f>
-        <v>12.75</v>
-      </c>
-      <c r="F9">
-        <f>C9*TC_data_Carbon!J9</f>
-        <v>4.25</v>
-      </c>
-      <c r="G9">
-        <f>C9*TC_data_Carbon!L9</f>
+      <c r="B9" s="3">
+        <f>Flow_data_Biomass!B9*TC_data_Biomass!B9</f>
+        <v>85</v>
+      </c>
+      <c r="C9" s="3">
+        <f>Flow_data_Biomass!B9*TC_data_Biomass!D9</f>
+        <v>85</v>
+      </c>
+      <c r="D9" s="3">
+        <f>C9*TC_data_Biomass!F9</f>
+        <v>25.5</v>
+      </c>
+      <c r="E9" s="3">
+        <f>C9*TC_data_Biomass!H9</f>
+        <v>25.5</v>
+      </c>
+      <c r="F9" s="3">
+        <f>C9*TC_data_Biomass!J9</f>
         <v>8.5</v>
       </c>
-      <c r="H9">
-        <f>C9*TC_data_Carbon!N9</f>
-        <v>4.2500000000000036</v>
-      </c>
-      <c r="I9">
+      <c r="G9" s="3">
+        <f>C9*TC_data_Biomass!L9</f>
+        <v>17</v>
+      </c>
+      <c r="H9" s="3">
+        <f>C9*TC_data_Biomass!N9</f>
+        <v>8.5000000000000071</v>
+      </c>
+      <c r="I9" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J9">
-        <f>D9*TC_data_Carbon!P9</f>
-        <v>12.75</v>
-      </c>
-      <c r="K9">
-        <f>E9*TC_data_Carbon!R9</f>
-        <v>8.9249999999999989</v>
-      </c>
-      <c r="L9">
-        <f>E9*TC_data_Carbon!T9</f>
-        <v>1.9124999999999999</v>
-      </c>
-      <c r="M9">
-        <f>E9*TC_data_Carbon!V9</f>
-        <v>1.9125000000000005</v>
-      </c>
-      <c r="N9">
-        <f>F9*TC_data_Carbon!X9</f>
-        <v>4.25</v>
-      </c>
-      <c r="O9">
-        <f>G9*TC_data_Carbon!Z9</f>
+      <c r="J9" s="3">
+        <f>D9*TC_data_Biomass!P9</f>
+        <v>25.5</v>
+      </c>
+      <c r="K9" s="3">
+        <f>E9*TC_data_Biomass!R9</f>
+        <v>17.849999999999998</v>
+      </c>
+      <c r="L9" s="3">
+        <f>E9*TC_data_Biomass!T9</f>
+        <v>3.8249999999999997</v>
+      </c>
+      <c r="M9" s="3">
+        <f>E9*TC_data_Biomass!V9</f>
+        <v>3.8250000000000011</v>
+      </c>
+      <c r="N9" s="3">
+        <f>F9*TC_data_Biomass!X9</f>
         <v>8.5</v>
       </c>
-      <c r="P9">
+      <c r="O9" s="3">
+        <f>G9*TC_data_Biomass!Z9</f>
+        <v>17</v>
+      </c>
+      <c r="P9" s="3">
+        <f>Model_validation_Carbon!P9</f>
+        <v>19.666838559506161</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3">
         <f t="shared" si="0"/>
-        <v>19.666838559506161</v>
-      </c>
-      <c r="S9">
+        <v>85</v>
+      </c>
+      <c r="T9" s="3">
+        <f>SUM($S$2:S9)</f>
+        <v>540</v>
+      </c>
+      <c r="U9" s="3">
         <f t="shared" si="1"/>
-        <v>42.5</v>
-      </c>
-      <c r="T9">
-        <f>SUM($S$2:S9)</f>
-        <v>270</v>
-      </c>
-      <c r="U9">
+        <v>8.5000000000000071</v>
+      </c>
+      <c r="V9" s="3">
+        <f>SUM($U$2:U9)</f>
+        <v>54.00000000000005</v>
+      </c>
+      <c r="W9" s="3">
         <f t="shared" si="2"/>
-        <v>4.2500000000000036</v>
-      </c>
-      <c r="V9">
-        <f>SUM($U$2:U9)</f>
-        <v>27.000000000000025</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="6"/>
-        <v>2.0081614404938364</v>
-      </c>
-      <c r="X9">
-        <v>32.804217781327694</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="3"/>
-        <v>34.329338559506162</v>
-      </c>
-      <c r="Z9">
+        <v>23.683161440493834</v>
+      </c>
+      <c r="X9" s="3">
+        <f>SUM($W$2:W9)</f>
+        <v>170.50421778132772</v>
+      </c>
+      <c r="Y9" s="3">
+        <f t="shared" si="3"/>
+        <v>48.991838559506164</v>
+      </c>
+      <c r="Z9" s="3">
         <f>SUM($Y$2:Y9)</f>
-        <v>198.04578221867231</v>
-      </c>
-      <c r="AA9">
-        <f t="shared" si="4"/>
-        <v>1.9125000000000005</v>
-      </c>
-      <c r="AB9">
+        <v>291.19578221867232</v>
+      </c>
+      <c r="AA9" s="3">
+        <f t="shared" si="4"/>
+        <v>3.8250000000000011</v>
+      </c>
+      <c r="AB9" s="3">
         <f>SUM($AA$2:AA9)</f>
-        <v>12.150000000000002</v>
+        <v>24.300000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2028</v>
       </c>
-      <c r="B10">
-        <f>Flow_data_Carbon!B10*TC_data_Carbon!B10</f>
-        <v>45</v>
-      </c>
-      <c r="C10">
-        <f>Flow_data_Carbon!B10*TC_data_Carbon!D10</f>
-        <v>45</v>
-      </c>
-      <c r="D10">
-        <f>C10*TC_data_Carbon!F10</f>
-        <v>13.5</v>
-      </c>
-      <c r="E10">
-        <f>C10*TC_data_Carbon!H10</f>
-        <v>13.5</v>
-      </c>
-      <c r="F10">
-        <f>C10*TC_data_Carbon!J10</f>
-        <v>4.5</v>
-      </c>
-      <c r="G10">
-        <f>C10*TC_data_Carbon!L10</f>
+      <c r="B10" s="3">
+        <f>Flow_data_Biomass!B10*TC_data_Biomass!B10</f>
+        <v>90</v>
+      </c>
+      <c r="C10" s="3">
+        <f>Flow_data_Biomass!B10*TC_data_Biomass!D10</f>
+        <v>90</v>
+      </c>
+      <c r="D10" s="3">
+        <f>C10*TC_data_Biomass!F10</f>
+        <v>27</v>
+      </c>
+      <c r="E10" s="3">
+        <f>C10*TC_data_Biomass!H10</f>
+        <v>27</v>
+      </c>
+      <c r="F10" s="3">
+        <f>C10*TC_data_Biomass!J10</f>
         <v>9</v>
       </c>
-      <c r="H10">
-        <f>C10*TC_data_Carbon!N10</f>
-        <v>4.5000000000000036</v>
-      </c>
-      <c r="I10">
+      <c r="G10" s="3">
+        <f>C10*TC_data_Biomass!L10</f>
+        <v>18</v>
+      </c>
+      <c r="H10" s="3">
+        <f>C10*TC_data_Biomass!N10</f>
+        <v>9.0000000000000071</v>
+      </c>
+      <c r="I10" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J10">
-        <f>D10*TC_data_Carbon!P10</f>
-        <v>13.5</v>
-      </c>
-      <c r="K10">
-        <f>E10*TC_data_Carbon!R10</f>
-        <v>9.4499999999999993</v>
-      </c>
-      <c r="L10">
-        <f>E10*TC_data_Carbon!T10</f>
-        <v>2.0249999999999999</v>
-      </c>
-      <c r="M10">
-        <f>E10*TC_data_Carbon!V10</f>
-        <v>2.0250000000000008</v>
-      </c>
-      <c r="N10">
-        <f>F10*TC_data_Carbon!X10</f>
-        <v>4.5</v>
-      </c>
-      <c r="O10">
-        <f>G10*TC_data_Carbon!Z10</f>
+      <c r="J10" s="3">
+        <f>D10*TC_data_Biomass!P10</f>
+        <v>27</v>
+      </c>
+      <c r="K10" s="3">
+        <f>E10*TC_data_Biomass!R10</f>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="L10" s="3">
+        <f>E10*TC_data_Biomass!T10</f>
+        <v>4.05</v>
+      </c>
+      <c r="M10" s="3">
+        <f>E10*TC_data_Biomass!V10</f>
+        <v>4.0500000000000016</v>
+      </c>
+      <c r="N10" s="3">
+        <f>F10*TC_data_Biomass!X10</f>
         <v>9</v>
       </c>
-      <c r="P10">
+      <c r="O10" s="3">
+        <f>G10*TC_data_Biomass!Z10</f>
+        <v>18</v>
+      </c>
+      <c r="P10" s="3">
+        <f>Model_validation_Carbon!P10</f>
+        <v>20.948291669805268</v>
+      </c>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3">
         <f t="shared" si="0"/>
-        <v>20.948291669805268</v>
-      </c>
-      <c r="S10">
+        <v>90</v>
+      </c>
+      <c r="T10" s="3">
+        <f>SUM($S$2:S10)</f>
+        <v>630</v>
+      </c>
+      <c r="U10" s="3">
         <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="T10">
-        <f>SUM($S$2:S10)</f>
-        <v>315</v>
-      </c>
-      <c r="U10">
+        <v>9.0000000000000071</v>
+      </c>
+      <c r="V10" s="3">
+        <f>SUM($U$2:U10)</f>
+        <v>63.000000000000057</v>
+      </c>
+      <c r="W10" s="3">
         <f t="shared" si="2"/>
-        <v>4.5000000000000036</v>
-      </c>
-      <c r="V10">
-        <f>SUM($U$2:U10)</f>
-        <v>31.500000000000028</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="6"/>
-        <v>2.0017083301947309</v>
-      </c>
-      <c r="X10">
-        <v>34.805926111522425</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="3"/>
-        <v>36.47329166980527</v>
-      </c>
-      <c r="Z10">
+        <v>24.95170833019473</v>
+      </c>
+      <c r="X10" s="3">
+        <f>SUM($W$2:W10)</f>
+        <v>195.45592611152244</v>
+      </c>
+      <c r="Y10" s="3">
+        <f t="shared" si="3"/>
+        <v>51.998291669805269</v>
+      </c>
+      <c r="Z10" s="3">
         <f>SUM($Y$2:Y10)</f>
-        <v>234.51907388847758</v>
-      </c>
-      <c r="AA10">
-        <f t="shared" si="4"/>
-        <v>2.0250000000000008</v>
-      </c>
-      <c r="AB10">
+        <v>343.19407388847759</v>
+      </c>
+      <c r="AA10" s="3">
+        <f t="shared" si="4"/>
+        <v>4.0500000000000016</v>
+      </c>
+      <c r="AB10" s="3">
         <f>SUM($AA$2:AA10)</f>
-        <v>14.175000000000002</v>
+        <v>28.350000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2029</v>
       </c>
-      <c r="B11">
-        <f>Flow_data_Carbon!B11*TC_data_Carbon!B11</f>
-        <v>47.5</v>
-      </c>
-      <c r="C11">
-        <f>Flow_data_Carbon!B11*TC_data_Carbon!D11</f>
-        <v>47.5</v>
-      </c>
-      <c r="D11">
-        <f>C11*TC_data_Carbon!F11</f>
-        <v>14.25</v>
-      </c>
-      <c r="E11">
-        <f>C11*TC_data_Carbon!H11</f>
-        <v>14.25</v>
-      </c>
-      <c r="F11">
-        <f>C11*TC_data_Carbon!J11</f>
-        <v>4.75</v>
-      </c>
-      <c r="G11">
-        <f>C11*TC_data_Carbon!L11</f>
+      <c r="B11" s="3">
+        <f>Flow_data_Biomass!B11*TC_data_Biomass!B11</f>
+        <v>95</v>
+      </c>
+      <c r="C11" s="3">
+        <f>Flow_data_Biomass!B11*TC_data_Biomass!D11</f>
+        <v>95</v>
+      </c>
+      <c r="D11" s="3">
+        <f>C11*TC_data_Biomass!F11</f>
+        <v>28.5</v>
+      </c>
+      <c r="E11" s="3">
+        <f>C11*TC_data_Biomass!H11</f>
+        <v>28.5</v>
+      </c>
+      <c r="F11" s="3">
+        <f>C11*TC_data_Biomass!J11</f>
         <v>9.5</v>
       </c>
-      <c r="H11">
-        <f>C11*TC_data_Carbon!N11</f>
-        <v>4.7500000000000044</v>
-      </c>
-      <c r="I11">
+      <c r="G11" s="3">
+        <f>C11*TC_data_Biomass!L11</f>
+        <v>19</v>
+      </c>
+      <c r="H11" s="3">
+        <f>C11*TC_data_Biomass!N11</f>
+        <v>9.5000000000000089</v>
+      </c>
+      <c r="I11" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J11">
-        <f>D11*TC_data_Carbon!P11</f>
-        <v>14.25</v>
-      </c>
-      <c r="K11">
-        <f>E11*TC_data_Carbon!R11</f>
-        <v>9.9749999999999996</v>
-      </c>
-      <c r="L11">
-        <f>E11*TC_data_Carbon!T11</f>
-        <v>2.1374999999999997</v>
-      </c>
-      <c r="M11">
-        <f>E11*TC_data_Carbon!V11</f>
-        <v>2.1375000000000006</v>
-      </c>
-      <c r="N11">
-        <f>F11*TC_data_Carbon!X11</f>
-        <v>4.75</v>
-      </c>
-      <c r="O11">
-        <f>G11*TC_data_Carbon!Z11</f>
+      <c r="J11" s="3">
+        <f>D11*TC_data_Biomass!P11</f>
+        <v>28.5</v>
+      </c>
+      <c r="K11" s="3">
+        <f>E11*TC_data_Biomass!R11</f>
+        <v>19.95</v>
+      </c>
+      <c r="L11" s="3">
+        <f>E11*TC_data_Biomass!T11</f>
+        <v>4.2749999999999995</v>
+      </c>
+      <c r="M11" s="3">
+        <f>E11*TC_data_Biomass!V11</f>
+        <v>4.2750000000000012</v>
+      </c>
+      <c r="N11" s="3">
+        <f>F11*TC_data_Biomass!X11</f>
         <v>9.5</v>
       </c>
-      <c r="P11">
+      <c r="O11" s="3">
+        <f>G11*TC_data_Biomass!Z11</f>
+        <v>19</v>
+      </c>
+      <c r="P11" s="3">
+        <f>Model_validation_Carbon!P11</f>
+        <v>22.22570030970563</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3">
         <f t="shared" si="0"/>
-        <v>22.22570030970563</v>
-      </c>
-      <c r="S11">
+        <v>95</v>
+      </c>
+      <c r="T11" s="3">
+        <f>SUM($S$2:S11)</f>
+        <v>725</v>
+      </c>
+      <c r="U11" s="3">
         <f t="shared" si="1"/>
-        <v>47.5</v>
-      </c>
-      <c r="T11">
-        <f>SUM($S$2:S11)</f>
-        <v>362.5</v>
-      </c>
-      <c r="U11">
+        <v>9.5000000000000089</v>
+      </c>
+      <c r="V11" s="3">
+        <f>SUM($U$2:U11)</f>
+        <v>72.500000000000071</v>
+      </c>
+      <c r="W11" s="3">
         <f t="shared" si="2"/>
-        <v>4.7500000000000044</v>
-      </c>
-      <c r="V11">
-        <f>SUM($U$2:U11)</f>
-        <v>36.250000000000036</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="6"/>
-        <v>1.9992996902943716</v>
-      </c>
-      <c r="X11">
-        <v>36.805225801816796</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" si="3"/>
-        <v>38.613200309705633</v>
-      </c>
-      <c r="Z11">
+        <v>26.224299690294373</v>
+      </c>
+      <c r="X11" s="3">
+        <f>SUM($W$2:W11)</f>
+        <v>221.68022580181682</v>
+      </c>
+      <c r="Y11" s="3">
+        <f t="shared" si="3"/>
+        <v>55.000700309705628</v>
+      </c>
+      <c r="Z11" s="3">
         <f>SUM($Y$2:Y11)</f>
-        <v>273.13227419818321</v>
-      </c>
-      <c r="AA11">
-        <f t="shared" si="4"/>
-        <v>2.1375000000000006</v>
-      </c>
-      <c r="AB11">
+        <v>398.19477419818321</v>
+      </c>
+      <c r="AA11" s="3">
+        <f t="shared" si="4"/>
+        <v>4.2750000000000012</v>
+      </c>
+      <c r="AB11" s="3">
         <f>SUM($AA$2:AA11)</f>
-        <v>16.312500000000004</v>
+        <v>32.625000000000007</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2030</v>
       </c>
-      <c r="B12">
-        <f>Flow_data_Carbon!B12*TC_data_Carbon!B12</f>
-        <v>50</v>
-      </c>
-      <c r="C12">
-        <f>Flow_data_Carbon!B12*TC_data_Carbon!D12</f>
-        <v>50</v>
-      </c>
-      <c r="D12">
-        <f>C12*TC_data_Carbon!F12</f>
-        <v>15</v>
-      </c>
-      <c r="E12">
-        <f>C12*TC_data_Carbon!H12</f>
-        <v>15</v>
-      </c>
-      <c r="F12">
-        <f>C12*TC_data_Carbon!J12</f>
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <f>C12*TC_data_Carbon!L12</f>
+      <c r="B12" s="3">
+        <f>Flow_data_Biomass!B12*TC_data_Biomass!B12</f>
+        <v>100</v>
+      </c>
+      <c r="C12" s="3">
+        <f>Flow_data_Biomass!B12*TC_data_Biomass!D12</f>
+        <v>100</v>
+      </c>
+      <c r="D12" s="3">
+        <f>C12*TC_data_Biomass!F12</f>
+        <v>30</v>
+      </c>
+      <c r="E12" s="3">
+        <f>C12*TC_data_Biomass!H12</f>
+        <v>30</v>
+      </c>
+      <c r="F12" s="3">
+        <f>C12*TC_data_Biomass!J12</f>
         <v>10</v>
       </c>
-      <c r="H12">
-        <f>C12*TC_data_Carbon!N12</f>
-        <v>5.0000000000000044</v>
-      </c>
-      <c r="I12">
+      <c r="G12" s="3">
+        <f>C12*TC_data_Biomass!L12</f>
+        <v>20</v>
+      </c>
+      <c r="H12" s="3">
+        <f>C12*TC_data_Biomass!N12</f>
+        <v>10.000000000000009</v>
+      </c>
+      <c r="I12" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J12">
-        <f>D12*TC_data_Carbon!P12</f>
-        <v>15</v>
-      </c>
-      <c r="K12">
-        <f>E12*TC_data_Carbon!R12</f>
-        <v>10.5</v>
-      </c>
-      <c r="L12">
-        <f>E12*TC_data_Carbon!T12</f>
-        <v>2.25</v>
-      </c>
-      <c r="M12">
-        <f>E12*TC_data_Carbon!V12</f>
-        <v>2.2500000000000009</v>
-      </c>
-      <c r="N12">
-        <f>F12*TC_data_Carbon!X12</f>
-        <v>5</v>
-      </c>
-      <c r="O12">
-        <f>G12*TC_data_Carbon!Z12</f>
+      <c r="J12" s="3">
+        <f>D12*TC_data_Biomass!P12</f>
+        <v>30</v>
+      </c>
+      <c r="K12" s="3">
+        <f>E12*TC_data_Biomass!R12</f>
+        <v>21</v>
+      </c>
+      <c r="L12" s="3">
+        <f>E12*TC_data_Biomass!T12</f>
+        <v>4.5</v>
+      </c>
+      <c r="M12" s="3">
+        <f>E12*TC_data_Biomass!V12</f>
+        <v>4.5000000000000018</v>
+      </c>
+      <c r="N12" s="3">
+        <f>F12*TC_data_Biomass!X12</f>
         <v>10</v>
       </c>
-      <c r="P12">
+      <c r="O12" s="3">
+        <f>G12*TC_data_Biomass!Z12</f>
+        <v>20</v>
+      </c>
+      <c r="P12" s="3">
+        <f>Model_validation_Carbon!P12</f>
+        <v>23.501599340700096</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3">
         <f t="shared" si="0"/>
-        <v>23.501599340700096</v>
-      </c>
-      <c r="S12">
+        <v>100</v>
+      </c>
+      <c r="T12" s="3">
+        <f>SUM($S$2:S12)</f>
+        <v>825</v>
+      </c>
+      <c r="U12" s="3">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="T12">
-        <f>SUM($S$2:S12)</f>
-        <v>412.5</v>
-      </c>
-      <c r="U12">
+        <v>10.000000000000009</v>
+      </c>
+      <c r="V12" s="3">
+        <f>SUM($U$2:U12)</f>
+        <v>82.500000000000085</v>
+      </c>
+      <c r="W12" s="3">
         <f t="shared" si="2"/>
-        <v>5.0000000000000044</v>
-      </c>
-      <c r="V12">
-        <f>SUM($U$2:U12)</f>
-        <v>41.250000000000043</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="6"/>
-        <v>1.9984006592999037</v>
-      </c>
-      <c r="X12">
-        <v>38.8036264611167</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="3"/>
-        <v>40.751599340700096</v>
-      </c>
-      <c r="Z12">
+        <v>27.498400659299904</v>
+      </c>
+      <c r="X12" s="3">
+        <f>SUM($W$2:W12)</f>
+        <v>249.17862646111672</v>
+      </c>
+      <c r="Y12" s="3">
+        <f t="shared" si="3"/>
+        <v>58.001599340700096</v>
+      </c>
+      <c r="Z12" s="3">
         <f>SUM($Y$2:Y12)</f>
-        <v>313.88387353888334</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" si="4"/>
-        <v>2.2500000000000009</v>
-      </c>
-      <c r="AB12">
+        <v>456.19637353888334</v>
+      </c>
+      <c r="AA12" s="3">
+        <f t="shared" si="4"/>
+        <v>4.5000000000000018</v>
+      </c>
+      <c r="AB12" s="3">
         <f>SUM($AA$2:AA12)</f>
-        <v>18.562500000000004</v>
+        <v>37.125000000000007</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2031</v>
       </c>
-      <c r="B13">
-        <f>Flow_data_Carbon!B13*TC_data_Carbon!B13</f>
-        <v>2.5</v>
-      </c>
-      <c r="C13">
-        <f>Flow_data_Carbon!B13*TC_data_Carbon!D13</f>
-        <v>2.5</v>
-      </c>
-      <c r="D13">
-        <f>C13*TC_data_Carbon!F13</f>
-        <v>0.75</v>
-      </c>
-      <c r="E13">
-        <f>C13*TC_data_Carbon!H13</f>
-        <v>0.75</v>
-      </c>
-      <c r="F13">
-        <f>C13*TC_data_Carbon!J13</f>
-        <v>0.25</v>
-      </c>
-      <c r="G13">
-        <f>C13*TC_data_Carbon!L13</f>
+      <c r="B13" s="3">
+        <f>Flow_data_Biomass!B13*TC_data_Biomass!B13</f>
+        <v>5</v>
+      </c>
+      <c r="C13" s="3">
+        <f>Flow_data_Biomass!B13*TC_data_Biomass!D13</f>
+        <v>5</v>
+      </c>
+      <c r="D13" s="3">
+        <f>C13*TC_data_Biomass!F13</f>
+        <v>1.5</v>
+      </c>
+      <c r="E13" s="3">
+        <f>C13*TC_data_Biomass!H13</f>
+        <v>1.5</v>
+      </c>
+      <c r="F13" s="3">
+        <f>C13*TC_data_Biomass!J13</f>
         <v>0.5</v>
       </c>
-      <c r="H13">
-        <f>C13*TC_data_Carbon!N13</f>
-        <v>0.25000000000000022</v>
-      </c>
-      <c r="I13">
+      <c r="G13" s="3">
+        <f>C13*TC_data_Biomass!L13</f>
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <f>C13*TC_data_Biomass!N13</f>
+        <v>0.50000000000000044</v>
+      </c>
+      <c r="I13" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J13">
-        <f>D13*TC_data_Carbon!P13</f>
-        <v>0.75</v>
-      </c>
-      <c r="K13">
-        <f>E13*TC_data_Carbon!R13</f>
-        <v>0.52499999999999991</v>
-      </c>
-      <c r="L13">
-        <f>E13*TC_data_Carbon!T13</f>
-        <v>0.11249999999999999</v>
-      </c>
-      <c r="M13">
-        <f>E13*TC_data_Carbon!V13</f>
-        <v>0.11250000000000004</v>
-      </c>
-      <c r="N13">
-        <f>F13*TC_data_Carbon!X13</f>
-        <v>0.25</v>
-      </c>
-      <c r="O13">
-        <f>G13*TC_data_Carbon!Z13</f>
+      <c r="J13" s="3">
+        <f>D13*TC_data_Biomass!P13</f>
+        <v>1.5</v>
+      </c>
+      <c r="K13" s="3">
+        <f>E13*TC_data_Biomass!R13</f>
+        <v>1.0499999999999998</v>
+      </c>
+      <c r="L13" s="3">
+        <f>E13*TC_data_Biomass!T13</f>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="M13" s="3">
+        <f>E13*TC_data_Biomass!V13</f>
+        <v>0.22500000000000009</v>
+      </c>
+      <c r="N13" s="3">
+        <f>F13*TC_data_Biomass!X13</f>
         <v>0.5</v>
       </c>
-      <c r="P13">
+      <c r="O13" s="3">
+        <f>G13*TC_data_Biomass!Z13</f>
+        <v>1</v>
+      </c>
+      <c r="P13" s="3">
+        <f>Model_validation_Carbon!P13</f>
+        <v>24.776934906314899</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3">
         <f t="shared" si="0"/>
-        <v>24.776934906314899</v>
-      </c>
-      <c r="S13">
+        <v>5</v>
+      </c>
+      <c r="T13" s="3">
+        <f>SUM($S$2:S13)</f>
+        <v>830</v>
+      </c>
+      <c r="U13" s="3">
         <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="T13">
-        <f>SUM($S$2:S13)</f>
-        <v>415</v>
-      </c>
-      <c r="U13">
+        <v>0.50000000000000044</v>
+      </c>
+      <c r="V13" s="3">
+        <f>SUM($U$2:U13)</f>
+        <v>83.000000000000085</v>
+      </c>
+      <c r="W13" s="3">
         <f t="shared" si="2"/>
-        <v>0.25000000000000022</v>
-      </c>
-      <c r="V13">
-        <f>SUM($U$2:U13)</f>
-        <v>41.500000000000043</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="6"/>
-        <v>-23.501934906314901</v>
-      </c>
-      <c r="X13">
-        <v>15.301691554801801</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="3"/>
-        <v>25.6394349063149</v>
-      </c>
-      <c r="Z13">
+        <v>-22.226934906314899</v>
+      </c>
+      <c r="X13" s="3">
+        <f>SUM($W$2:W13)</f>
+        <v>226.95169155480181</v>
+      </c>
+      <c r="Y13" s="3">
+        <f t="shared" si="3"/>
+        <v>26.501934906314901</v>
+      </c>
+      <c r="Z13" s="3">
         <f>SUM($Y$2:Y13)</f>
-        <v>339.52330844519821</v>
-      </c>
-      <c r="AA13">
-        <f t="shared" si="4"/>
-        <v>0.11250000000000004</v>
-      </c>
-      <c r="AB13">
+        <v>482.69830844519822</v>
+      </c>
+      <c r="AA13" s="3">
+        <f t="shared" si="4"/>
+        <v>0.22500000000000009</v>
+      </c>
+      <c r="AB13" s="3">
         <f>SUM($AA$2:AA13)</f>
-        <v>18.675000000000004</v>
+        <v>37.350000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2032</v>
       </c>
-      <c r="B14">
-        <f>Flow_data_Carbon!B14*TC_data_Carbon!B14</f>
-        <v>55</v>
-      </c>
-      <c r="C14">
-        <f>Flow_data_Carbon!B14*TC_data_Carbon!D14</f>
-        <v>55</v>
-      </c>
-      <c r="D14">
-        <f>C14*TC_data_Carbon!F14</f>
-        <v>16.5</v>
-      </c>
-      <c r="E14">
-        <f>C14*TC_data_Carbon!H14</f>
-        <v>16.5</v>
-      </c>
-      <c r="F14">
-        <f>C14*TC_data_Carbon!J14</f>
-        <v>5.5</v>
-      </c>
-      <c r="G14">
-        <f>C14*TC_data_Carbon!L14</f>
+      <c r="B14" s="3">
+        <f>Flow_data_Biomass!B14*TC_data_Biomass!B14</f>
+        <v>110</v>
+      </c>
+      <c r="C14" s="3">
+        <f>Flow_data_Biomass!B14*TC_data_Biomass!D14</f>
+        <v>110</v>
+      </c>
+      <c r="D14" s="3">
+        <f>C14*TC_data_Biomass!F14</f>
+        <v>33</v>
+      </c>
+      <c r="E14" s="3">
+        <f>C14*TC_data_Biomass!H14</f>
+        <v>33</v>
+      </c>
+      <c r="F14" s="3">
+        <f>C14*TC_data_Biomass!J14</f>
         <v>11</v>
       </c>
-      <c r="H14">
-        <f>C14*TC_data_Carbon!N14</f>
-        <v>5.5000000000000053</v>
-      </c>
-      <c r="I14">
+      <c r="G14" s="3">
+        <f>C14*TC_data_Biomass!L14</f>
+        <v>22</v>
+      </c>
+      <c r="H14" s="3">
+        <f>C14*TC_data_Biomass!N14</f>
+        <v>11.000000000000011</v>
+      </c>
+      <c r="I14" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J14">
-        <f>D14*TC_data_Carbon!P14</f>
-        <v>16.5</v>
-      </c>
-      <c r="K14">
-        <f>E14*TC_data_Carbon!R14</f>
-        <v>11.549999999999999</v>
-      </c>
-      <c r="L14">
-        <f>E14*TC_data_Carbon!T14</f>
-        <v>2.4750000000000001</v>
-      </c>
-      <c r="M14">
-        <f>E14*TC_data_Carbon!V14</f>
-        <v>2.475000000000001</v>
-      </c>
-      <c r="N14">
-        <f>F14*TC_data_Carbon!X14</f>
-        <v>5.5</v>
-      </c>
-      <c r="O14">
-        <f>G14*TC_data_Carbon!Z14</f>
+      <c r="J14" s="3">
+        <f>D14*TC_data_Biomass!P14</f>
+        <v>33</v>
+      </c>
+      <c r="K14" s="3">
+        <f>E14*TC_data_Biomass!R14</f>
+        <v>23.099999999999998</v>
+      </c>
+      <c r="L14" s="3">
+        <f>E14*TC_data_Biomass!T14</f>
+        <v>4.95</v>
+      </c>
+      <c r="M14" s="3">
+        <f>E14*TC_data_Biomass!V14</f>
+        <v>4.950000000000002</v>
+      </c>
+      <c r="N14" s="3">
+        <f>F14*TC_data_Biomass!X14</f>
         <v>11</v>
       </c>
-      <c r="P14">
+      <c r="O14" s="3">
+        <f>G14*TC_data_Biomass!Z14</f>
+        <v>22</v>
+      </c>
+      <c r="P14" s="3">
+        <f>Model_validation_Carbon!P14</f>
+        <v>9.6131391578279661</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3">
         <f t="shared" si="0"/>
-        <v>9.6131391578279661</v>
-      </c>
-      <c r="S14">
+        <v>110</v>
+      </c>
+      <c r="T14" s="3">
+        <f>SUM($S$2:S14)</f>
+        <v>940</v>
+      </c>
+      <c r="U14" s="3">
         <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-      <c r="T14">
-        <f>SUM($S$2:S14)</f>
-        <v>470</v>
-      </c>
-      <c r="U14">
+        <v>11.000000000000011</v>
+      </c>
+      <c r="V14" s="3">
+        <f>SUM($U$2:U14)</f>
+        <v>94.000000000000099</v>
+      </c>
+      <c r="W14" s="3">
         <f t="shared" si="2"/>
-        <v>5.5000000000000053</v>
-      </c>
-      <c r="V14">
-        <f>SUM($U$2:U14)</f>
-        <v>47.00000000000005</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="6"/>
-        <v>18.436860842172031</v>
-      </c>
-      <c r="X14">
-        <v>33.73855239697383</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="3"/>
-        <v>28.588139157827968</v>
-      </c>
-      <c r="Z14">
+        <v>46.486860842172028</v>
+      </c>
+      <c r="X14" s="3">
+        <f>SUM($W$2:W14)</f>
+        <v>273.43855239697382</v>
+      </c>
+      <c r="Y14" s="3">
+        <f t="shared" si="3"/>
+        <v>47.563139157827969</v>
+      </c>
+      <c r="Z14" s="3">
         <f>SUM($Y$2:Y14)</f>
-        <v>368.11144760302619</v>
-      </c>
-      <c r="AA14">
-        <f t="shared" si="4"/>
-        <v>2.475000000000001</v>
-      </c>
-      <c r="AB14">
+        <v>530.26144760302623</v>
+      </c>
+      <c r="AA14" s="3">
+        <f t="shared" si="4"/>
+        <v>4.950000000000002</v>
+      </c>
+      <c r="AB14" s="3">
         <f>SUM($AA$2:AA14)</f>
-        <v>21.150000000000006</v>
+        <v>42.300000000000011</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2033</v>
       </c>
-      <c r="B15">
-        <f>Flow_data_Carbon!B15*TC_data_Carbon!B15</f>
-        <v>57.5</v>
-      </c>
-      <c r="C15">
-        <f>Flow_data_Carbon!B15*TC_data_Carbon!D15</f>
-        <v>57.5</v>
-      </c>
-      <c r="D15">
-        <f>C15*TC_data_Carbon!F15</f>
-        <v>17.25</v>
-      </c>
-      <c r="E15">
-        <f>C15*TC_data_Carbon!H15</f>
-        <v>17.25</v>
-      </c>
-      <c r="F15">
-        <f>C15*TC_data_Carbon!J15</f>
-        <v>5.75</v>
-      </c>
-      <c r="G15">
-        <f>C15*TC_data_Carbon!L15</f>
+      <c r="B15" s="3">
+        <f>Flow_data_Biomass!B15*TC_data_Biomass!B15</f>
+        <v>115</v>
+      </c>
+      <c r="C15" s="3">
+        <f>Flow_data_Biomass!B15*TC_data_Biomass!D15</f>
+        <v>115</v>
+      </c>
+      <c r="D15" s="3">
+        <f>C15*TC_data_Biomass!F15</f>
+        <v>34.5</v>
+      </c>
+      <c r="E15" s="3">
+        <f>C15*TC_data_Biomass!H15</f>
+        <v>34.5</v>
+      </c>
+      <c r="F15" s="3">
+        <f>C15*TC_data_Biomass!J15</f>
         <v>11.5</v>
       </c>
-      <c r="H15">
-        <f>C15*TC_data_Carbon!N15</f>
-        <v>5.7500000000000053</v>
-      </c>
-      <c r="I15">
+      <c r="G15" s="3">
+        <f>C15*TC_data_Biomass!L15</f>
+        <v>23</v>
+      </c>
+      <c r="H15" s="3">
+        <f>C15*TC_data_Biomass!N15</f>
+        <v>11.500000000000011</v>
+      </c>
+      <c r="I15" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J15">
-        <f>D15*TC_data_Carbon!P15</f>
-        <v>17.25</v>
-      </c>
-      <c r="K15">
-        <f>E15*TC_data_Carbon!R15</f>
-        <v>12.074999999999999</v>
-      </c>
-      <c r="L15">
-        <f>E15*TC_data_Carbon!T15</f>
-        <v>2.5874999999999999</v>
-      </c>
-      <c r="M15">
-        <f>E15*TC_data_Carbon!V15</f>
-        <v>2.5875000000000008</v>
-      </c>
-      <c r="N15">
-        <f>F15*TC_data_Carbon!X15</f>
-        <v>5.75</v>
-      </c>
-      <c r="O15">
-        <f>G15*TC_data_Carbon!Z15</f>
+      <c r="J15" s="3">
+        <f>D15*TC_data_Biomass!P15</f>
+        <v>34.5</v>
+      </c>
+      <c r="K15" s="3">
+        <f>E15*TC_data_Biomass!R15</f>
+        <v>24.15</v>
+      </c>
+      <c r="L15" s="3">
+        <f>E15*TC_data_Biomass!T15</f>
+        <v>5.1749999999999998</v>
+      </c>
+      <c r="M15" s="3">
+        <f>E15*TC_data_Biomass!V15</f>
+        <v>5.1750000000000016</v>
+      </c>
+      <c r="N15" s="3">
+        <f>F15*TC_data_Biomass!X15</f>
         <v>11.5</v>
       </c>
-      <c r="P15">
+      <c r="O15" s="3">
+        <f>G15*TC_data_Biomass!Z15</f>
+        <v>23</v>
+      </c>
+      <c r="P15" s="3">
+        <f>Model_validation_Carbon!P15</f>
+        <v>21.648098785397824</v>
+      </c>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3">
         <f t="shared" si="0"/>
-        <v>21.648098785397824</v>
-      </c>
-      <c r="S15">
+        <v>115</v>
+      </c>
+      <c r="T15" s="3">
+        <f>SUM($S$2:S15)</f>
+        <v>1055</v>
+      </c>
+      <c r="U15" s="3">
         <f t="shared" si="1"/>
-        <v>57.5</v>
-      </c>
-      <c r="T15">
-        <f>SUM($S$2:S15)</f>
-        <v>527.5</v>
-      </c>
-      <c r="U15">
+        <v>11.500000000000011</v>
+      </c>
+      <c r="V15" s="3">
+        <f>SUM($U$2:U15)</f>
+        <v>105.50000000000011</v>
+      </c>
+      <c r="W15" s="3">
         <f t="shared" si="2"/>
-        <v>5.7500000000000053</v>
-      </c>
-      <c r="V15">
-        <f>SUM($U$2:U15)</f>
-        <v>52.750000000000057</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="6"/>
-        <v>7.6769012146021751</v>
-      </c>
-      <c r="X15">
-        <v>41.415453611576005</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="3"/>
-        <v>41.485598785397819</v>
-      </c>
-      <c r="Z15">
+        <v>37.001901214602171</v>
+      </c>
+      <c r="X15" s="3">
+        <f>SUM($W$2:W15)</f>
+        <v>310.440453611576</v>
+      </c>
+      <c r="Y15" s="3">
+        <f t="shared" si="3"/>
+        <v>61.323098785397818</v>
+      </c>
+      <c r="Z15" s="3">
         <f>SUM($Y$2:Y15)</f>
-        <v>409.59704638842402</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" si="4"/>
-        <v>2.5875000000000008</v>
-      </c>
-      <c r="AB15">
+        <v>591.58454638842409</v>
+      </c>
+      <c r="AA15" s="3">
+        <f t="shared" si="4"/>
+        <v>5.1750000000000016</v>
+      </c>
+      <c r="AB15" s="3">
         <f>SUM($AA$2:AA15)</f>
-        <v>23.737500000000008</v>
+        <v>47.475000000000016</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2034</v>
       </c>
-      <c r="B16">
-        <f>Flow_data_Carbon!B16*TC_data_Carbon!B16</f>
-        <v>60</v>
-      </c>
-      <c r="C16">
-        <f>Flow_data_Carbon!B16*TC_data_Carbon!D16</f>
-        <v>60</v>
-      </c>
-      <c r="D16">
-        <f>C16*TC_data_Carbon!F16</f>
-        <v>18</v>
-      </c>
-      <c r="E16">
-        <f>C16*TC_data_Carbon!H16</f>
-        <v>18</v>
-      </c>
-      <c r="F16">
-        <f>C16*TC_data_Carbon!J16</f>
-        <v>6</v>
-      </c>
-      <c r="G16">
-        <f>C16*TC_data_Carbon!L16</f>
+      <c r="B16" s="3">
+        <f>Flow_data_Biomass!B16*TC_data_Biomass!B16</f>
+        <v>120</v>
+      </c>
+      <c r="C16" s="3">
+        <f>Flow_data_Biomass!B16*TC_data_Biomass!D16</f>
+        <v>120</v>
+      </c>
+      <c r="D16" s="3">
+        <f>C16*TC_data_Biomass!F16</f>
+        <v>36</v>
+      </c>
+      <c r="E16" s="3">
+        <f>C16*TC_data_Biomass!H16</f>
+        <v>36</v>
+      </c>
+      <c r="F16" s="3">
+        <f>C16*TC_data_Biomass!J16</f>
         <v>12</v>
       </c>
-      <c r="H16">
-        <f>C16*TC_data_Carbon!N16</f>
-        <v>6.0000000000000053</v>
-      </c>
-      <c r="I16">
+      <c r="G16" s="3">
+        <f>C16*TC_data_Biomass!L16</f>
+        <v>24</v>
+      </c>
+      <c r="H16" s="3">
+        <f>C16*TC_data_Biomass!N16</f>
+        <v>12.000000000000011</v>
+      </c>
+      <c r="I16" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J16">
-        <f>D16*TC_data_Carbon!P16</f>
-        <v>18</v>
-      </c>
-      <c r="K16">
-        <f>E16*TC_data_Carbon!R16</f>
-        <v>12.6</v>
-      </c>
-      <c r="L16">
-        <f>E16*TC_data_Carbon!T16</f>
-        <v>2.6999999999999997</v>
-      </c>
-      <c r="M16">
-        <f>E16*TC_data_Carbon!V16</f>
-        <v>2.7000000000000011</v>
-      </c>
-      <c r="N16">
-        <f>F16*TC_data_Carbon!X16</f>
-        <v>6</v>
-      </c>
-      <c r="O16">
-        <f>G16*TC_data_Carbon!Z16</f>
+      <c r="J16" s="3">
+        <f>D16*TC_data_Biomass!P16</f>
+        <v>36</v>
+      </c>
+      <c r="K16" s="3">
+        <f>E16*TC_data_Biomass!R16</f>
+        <v>25.2</v>
+      </c>
+      <c r="L16" s="3">
+        <f>E16*TC_data_Biomass!T16</f>
+        <v>5.3999999999999995</v>
+      </c>
+      <c r="M16" s="3">
+        <f>E16*TC_data_Biomass!V16</f>
+        <v>5.4000000000000021</v>
+      </c>
+      <c r="N16" s="3">
+        <f>F16*TC_data_Biomass!X16</f>
         <v>12</v>
       </c>
-      <c r="P16">
+      <c r="O16" s="3">
+        <f>G16*TC_data_Biomass!Z16</f>
+        <v>24</v>
+      </c>
+      <c r="P16" s="3">
+        <f>Model_validation_Carbon!P16</f>
+        <v>26.482420071184492</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3">
         <f t="shared" si="0"/>
-        <v>26.482420071184492</v>
-      </c>
-      <c r="S16">
+        <v>120</v>
+      </c>
+      <c r="T16" s="3">
+        <f>SUM($S$2:S16)</f>
+        <v>1175</v>
+      </c>
+      <c r="U16" s="3">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="T16">
-        <f>SUM($S$2:S16)</f>
-        <v>587.5</v>
-      </c>
-      <c r="U16">
+        <v>12.000000000000011</v>
+      </c>
+      <c r="V16" s="3">
+        <f>SUM($U$2:U16)</f>
+        <v>117.50000000000013</v>
+      </c>
+      <c r="W16" s="3">
         <f t="shared" si="2"/>
-        <v>6.0000000000000053</v>
-      </c>
-      <c r="V16">
-        <f>SUM($U$2:U16)</f>
-        <v>58.750000000000064</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="6"/>
-        <v>4.117579928815509</v>
-      </c>
-      <c r="X16">
-        <v>45.533033540391514</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="3"/>
-        <v>47.182420071184495</v>
-      </c>
-      <c r="Z16">
+        <v>34.71757992881551</v>
+      </c>
+      <c r="X16" s="3">
+        <f>SUM($W$2:W16)</f>
+        <v>345.1580335403915</v>
+      </c>
+      <c r="Y16" s="3">
+        <f t="shared" si="3"/>
+        <v>67.882420071184498</v>
+      </c>
+      <c r="Z16" s="3">
         <f>SUM($Y$2:Y16)</f>
-        <v>456.7794664596085</v>
-      </c>
-      <c r="AA16">
-        <f t="shared" si="4"/>
-        <v>2.7000000000000011</v>
-      </c>
-      <c r="AB16">
+        <v>659.46696645960856</v>
+      </c>
+      <c r="AA16" s="3">
+        <f t="shared" si="4"/>
+        <v>5.4000000000000021</v>
+      </c>
+      <c r="AB16" s="3">
         <f>SUM($AA$2:AA16)</f>
-        <v>26.437500000000007</v>
+        <v>52.875000000000014</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2035</v>
       </c>
-      <c r="B17">
-        <f>Flow_data_Carbon!B17*TC_data_Carbon!B17</f>
-        <v>62.5</v>
-      </c>
-      <c r="C17">
-        <f>Flow_data_Carbon!B17*TC_data_Carbon!D17</f>
-        <v>62.5</v>
-      </c>
-      <c r="D17">
-        <f>C17*TC_data_Carbon!F17</f>
-        <v>18.75</v>
-      </c>
-      <c r="E17">
-        <f>C17*TC_data_Carbon!H17</f>
-        <v>18.75</v>
-      </c>
-      <c r="F17">
-        <f>C17*TC_data_Carbon!J17</f>
-        <v>6.25</v>
-      </c>
-      <c r="G17">
-        <f>C17*TC_data_Carbon!L17</f>
+      <c r="B17" s="3">
+        <f>Flow_data_Biomass!B17*TC_data_Biomass!B17</f>
+        <v>125</v>
+      </c>
+      <c r="C17" s="3">
+        <f>Flow_data_Biomass!B17*TC_data_Biomass!D17</f>
+        <v>125</v>
+      </c>
+      <c r="D17" s="3">
+        <f>C17*TC_data_Biomass!F17</f>
+        <v>37.5</v>
+      </c>
+      <c r="E17" s="3">
+        <f>C17*TC_data_Biomass!H17</f>
+        <v>37.5</v>
+      </c>
+      <c r="F17" s="3">
+        <f>C17*TC_data_Biomass!J17</f>
         <v>12.5</v>
       </c>
-      <c r="H17">
-        <f>C17*TC_data_Carbon!N17</f>
-        <v>6.2500000000000053</v>
-      </c>
-      <c r="I17">
+      <c r="G17" s="3">
+        <f>C17*TC_data_Biomass!L17</f>
+        <v>25</v>
+      </c>
+      <c r="H17" s="3">
+        <f>C17*TC_data_Biomass!N17</f>
+        <v>12.500000000000011</v>
+      </c>
+      <c r="I17" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J17">
-        <f>D17*TC_data_Carbon!P17</f>
-        <v>18.75</v>
-      </c>
-      <c r="K17">
-        <f>E17*TC_data_Carbon!R17</f>
-        <v>13.125</v>
-      </c>
-      <c r="L17">
-        <f>E17*TC_data_Carbon!T17</f>
-        <v>2.8125</v>
-      </c>
-      <c r="M17">
-        <f>E17*TC_data_Carbon!V17</f>
-        <v>2.8125000000000009</v>
-      </c>
-      <c r="N17">
-        <f>F17*TC_data_Carbon!X17</f>
-        <v>6.25</v>
-      </c>
-      <c r="O17">
-        <f>G17*TC_data_Carbon!Z17</f>
+      <c r="J17" s="3">
+        <f>D17*TC_data_Biomass!P17</f>
+        <v>37.5</v>
+      </c>
+      <c r="K17" s="3">
+        <f>E17*TC_data_Biomass!R17</f>
+        <v>26.25</v>
+      </c>
+      <c r="L17" s="3">
+        <f>E17*TC_data_Biomass!T17</f>
+        <v>5.625</v>
+      </c>
+      <c r="M17" s="3">
+        <f>E17*TC_data_Biomass!V17</f>
+        <v>5.6250000000000018</v>
+      </c>
+      <c r="N17" s="3">
+        <f>F17*TC_data_Biomass!X17</f>
         <v>12.5</v>
       </c>
-      <c r="P17">
+      <c r="O17" s="3">
+        <f>G17*TC_data_Biomass!Z17</f>
+        <v>25</v>
+      </c>
+      <c r="P17" s="3">
+        <f>Model_validation_Carbon!P17</f>
+        <v>29.085945831594273</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3">
         <f t="shared" si="0"/>
-        <v>29.085945831594273</v>
-      </c>
-      <c r="S17">
+        <v>125</v>
+      </c>
+      <c r="T17" s="3">
+        <f>SUM($S$2:S17)</f>
+        <v>1300</v>
+      </c>
+      <c r="U17" s="3">
         <f t="shared" si="1"/>
-        <v>62.5</v>
-      </c>
-      <c r="T17">
-        <f>SUM($S$2:S17)</f>
-        <v>650</v>
-      </c>
-      <c r="U17">
+        <v>12.500000000000011</v>
+      </c>
+      <c r="V17" s="3">
+        <f>SUM($U$2:U17)</f>
+        <v>130.00000000000014</v>
+      </c>
+      <c r="W17" s="3">
         <f t="shared" si="2"/>
-        <v>6.2500000000000053</v>
-      </c>
-      <c r="V17">
-        <f>SUM($U$2:U17)</f>
-        <v>65.000000000000071</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="6"/>
-        <v>2.7890541684057268</v>
-      </c>
-      <c r="X17">
-        <v>48.322087708797241</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="3"/>
-        <v>50.648445831594273</v>
-      </c>
-      <c r="Z17">
+        <v>34.664054168405727</v>
+      </c>
+      <c r="X17" s="3">
+        <f>SUM($W$2:W17)</f>
+        <v>379.8220877087972</v>
+      </c>
+      <c r="Y17" s="3">
+        <f t="shared" si="3"/>
+        <v>72.210945831594273</v>
+      </c>
+      <c r="Z17" s="3">
         <f>SUM($Y$2:Y17)</f>
-        <v>507.4279122912028</v>
-      </c>
-      <c r="AA17">
-        <f t="shared" si="4"/>
-        <v>2.8125000000000009</v>
-      </c>
-      <c r="AB17">
+        <v>731.6779122912028</v>
+      </c>
+      <c r="AA17" s="3">
+        <f t="shared" si="4"/>
+        <v>5.6250000000000018</v>
+      </c>
+      <c r="AB17" s="3">
         <f>SUM($AA$2:AA17)</f>
-        <v>29.250000000000007</v>
+        <v>58.500000000000014</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2036</v>
       </c>
-      <c r="B18">
-        <f>Flow_data_Carbon!B18*TC_data_Carbon!B18</f>
-        <v>65</v>
-      </c>
-      <c r="C18">
-        <f>Flow_data_Carbon!B18*TC_data_Carbon!D18</f>
-        <v>65</v>
-      </c>
-      <c r="D18">
-        <f>C18*TC_data_Carbon!F18</f>
-        <v>19.5</v>
-      </c>
-      <c r="E18">
-        <f>C18*TC_data_Carbon!H18</f>
-        <v>19.5</v>
-      </c>
-      <c r="F18">
-        <f>C18*TC_data_Carbon!J18</f>
-        <v>6.5</v>
-      </c>
-      <c r="G18">
-        <f>C18*TC_data_Carbon!L18</f>
+      <c r="B18" s="3">
+        <f>Flow_data_Biomass!B18*TC_data_Biomass!B18</f>
+        <v>130</v>
+      </c>
+      <c r="C18" s="3">
+        <f>Flow_data_Biomass!B18*TC_data_Biomass!D18</f>
+        <v>130</v>
+      </c>
+      <c r="D18" s="3">
+        <f>C18*TC_data_Biomass!F18</f>
+        <v>39</v>
+      </c>
+      <c r="E18" s="3">
+        <f>C18*TC_data_Biomass!H18</f>
+        <v>39</v>
+      </c>
+      <c r="F18" s="3">
+        <f>C18*TC_data_Biomass!J18</f>
         <v>13</v>
       </c>
-      <c r="H18">
-        <f>C18*TC_data_Carbon!N18</f>
-        <v>6.5000000000000053</v>
-      </c>
-      <c r="I18">
+      <c r="G18" s="3">
+        <f>C18*TC_data_Biomass!L18</f>
+        <v>26</v>
+      </c>
+      <c r="H18" s="3">
+        <f>C18*TC_data_Biomass!N18</f>
+        <v>13.000000000000011</v>
+      </c>
+      <c r="I18" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J18">
-        <f>D18*TC_data_Carbon!P18</f>
-        <v>19.5</v>
-      </c>
-      <c r="K18">
-        <f>E18*TC_data_Carbon!R18</f>
-        <v>13.649999999999999</v>
-      </c>
-      <c r="L18">
-        <f>E18*TC_data_Carbon!T18</f>
-        <v>2.9249999999999998</v>
-      </c>
-      <c r="M18">
-        <f>E18*TC_data_Carbon!V18</f>
-        <v>2.9250000000000012</v>
-      </c>
-      <c r="N18">
-        <f>F18*TC_data_Carbon!X18</f>
-        <v>6.5</v>
-      </c>
-      <c r="O18">
-        <f>G18*TC_data_Carbon!Z18</f>
+      <c r="J18" s="3">
+        <f>D18*TC_data_Biomass!P18</f>
+        <v>39</v>
+      </c>
+      <c r="K18" s="3">
+        <f>E18*TC_data_Biomass!R18</f>
+        <v>27.299999999999997</v>
+      </c>
+      <c r="L18" s="3">
+        <f>E18*TC_data_Biomass!T18</f>
+        <v>5.85</v>
+      </c>
+      <c r="M18" s="3">
+        <f>E18*TC_data_Biomass!V18</f>
+        <v>5.8500000000000023</v>
+      </c>
+      <c r="N18" s="3">
+        <f>F18*TC_data_Biomass!X18</f>
         <v>13</v>
       </c>
-      <c r="P18">
+      <c r="O18" s="3">
+        <f>G18*TC_data_Biomass!Z18</f>
+        <v>26</v>
+      </c>
+      <c r="P18" s="3">
+        <f>Model_validation_Carbon!P18</f>
+        <v>30.8568214647158</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3">
         <f t="shared" si="0"/>
-        <v>30.8568214647158</v>
-      </c>
-      <c r="S18">
+        <v>130</v>
+      </c>
+      <c r="T18" s="3">
+        <f>SUM($S$2:S18)</f>
+        <v>1430</v>
+      </c>
+      <c r="U18" s="3">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="T18">
-        <f>SUM($S$2:S18)</f>
-        <v>715</v>
-      </c>
-      <c r="U18">
+        <v>13.000000000000011</v>
+      </c>
+      <c r="V18" s="3">
+        <f>SUM($U$2:U18)</f>
+        <v>143.00000000000014</v>
+      </c>
+      <c r="W18" s="3">
         <f t="shared" si="2"/>
-        <v>6.5000000000000053</v>
-      </c>
-      <c r="V18">
-        <f>SUM($U$2:U18)</f>
-        <v>71.500000000000071</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="6"/>
-        <v>2.2931785352841985</v>
-      </c>
-      <c r="X18">
-        <v>50.61526624408144</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" si="3"/>
-        <v>53.281821464715797</v>
-      </c>
-      <c r="Z18">
+        <v>35.443178535284197</v>
+      </c>
+      <c r="X18" s="3">
+        <f>SUM($W$2:W18)</f>
+        <v>415.26526624408137</v>
+      </c>
+      <c r="Y18" s="3">
+        <f t="shared" si="3"/>
+        <v>75.706821464715802</v>
+      </c>
+      <c r="Z18" s="3">
         <f>SUM($Y$2:Y18)</f>
-        <v>560.70973375591859</v>
-      </c>
-      <c r="AA18">
-        <f t="shared" si="4"/>
-        <v>2.9250000000000012</v>
-      </c>
-      <c r="AB18">
+        <v>807.38473375591866</v>
+      </c>
+      <c r="AA18" s="3">
+        <f t="shared" si="4"/>
+        <v>5.8500000000000023</v>
+      </c>
+      <c r="AB18" s="3">
         <f>SUM($AA$2:AA18)</f>
-        <v>32.175000000000011</v>
+        <v>64.350000000000023</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2037</v>
       </c>
-      <c r="B19">
-        <f>Flow_data_Carbon!B19*TC_data_Carbon!B19</f>
-        <v>67.5</v>
-      </c>
-      <c r="C19">
-        <f>Flow_data_Carbon!B19*TC_data_Carbon!D19</f>
-        <v>67.5</v>
-      </c>
-      <c r="D19">
-        <f>C19*TC_data_Carbon!F19</f>
-        <v>20.25</v>
-      </c>
-      <c r="E19">
-        <f>C19*TC_data_Carbon!H19</f>
-        <v>20.25</v>
-      </c>
-      <c r="F19">
-        <f>C19*TC_data_Carbon!J19</f>
-        <v>6.75</v>
-      </c>
-      <c r="G19">
-        <f>C19*TC_data_Carbon!L19</f>
+      <c r="B19" s="3">
+        <f>Flow_data_Biomass!B19*TC_data_Biomass!B19</f>
+        <v>135</v>
+      </c>
+      <c r="C19" s="3">
+        <f>Flow_data_Biomass!B19*TC_data_Biomass!D19</f>
+        <v>135</v>
+      </c>
+      <c r="D19" s="3">
+        <f>C19*TC_data_Biomass!F19</f>
+        <v>40.5</v>
+      </c>
+      <c r="E19" s="3">
+        <f>C19*TC_data_Biomass!H19</f>
+        <v>40.5</v>
+      </c>
+      <c r="F19" s="3">
+        <f>C19*TC_data_Biomass!J19</f>
         <v>13.5</v>
       </c>
-      <c r="H19">
-        <f>C19*TC_data_Carbon!N19</f>
-        <v>6.7500000000000062</v>
-      </c>
-      <c r="I19">
+      <c r="G19" s="3">
+        <f>C19*TC_data_Biomass!L19</f>
+        <v>27</v>
+      </c>
+      <c r="H19" s="3">
+        <f>C19*TC_data_Biomass!N19</f>
+        <v>13.500000000000012</v>
+      </c>
+      <c r="I19" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J19">
-        <f>D19*TC_data_Carbon!P19</f>
-        <v>20.25</v>
-      </c>
-      <c r="K19">
-        <f>E19*TC_data_Carbon!R19</f>
-        <v>14.174999999999999</v>
-      </c>
-      <c r="L19">
-        <f>E19*TC_data_Carbon!T19</f>
-        <v>3.0375000000000001</v>
-      </c>
-      <c r="M19">
-        <f>E19*TC_data_Carbon!V19</f>
-        <v>3.037500000000001</v>
-      </c>
-      <c r="N19">
-        <f>F19*TC_data_Carbon!X19</f>
-        <v>6.75</v>
-      </c>
-      <c r="O19">
-        <f>G19*TC_data_Carbon!Z19</f>
+      <c r="J19" s="3">
+        <f>D19*TC_data_Biomass!P19</f>
+        <v>40.5</v>
+      </c>
+      <c r="K19" s="3">
+        <f>E19*TC_data_Biomass!R19</f>
+        <v>28.349999999999998</v>
+      </c>
+      <c r="L19" s="3">
+        <f>E19*TC_data_Biomass!T19</f>
+        <v>6.0750000000000002</v>
+      </c>
+      <c r="M19" s="3">
+        <f>E19*TC_data_Biomass!V19</f>
+        <v>6.075000000000002</v>
+      </c>
+      <c r="N19" s="3">
+        <f>F19*TC_data_Biomass!X19</f>
         <v>13.5</v>
       </c>
-      <c r="P19">
+      <c r="O19" s="3">
+        <f>G19*TC_data_Biomass!Z19</f>
+        <v>27</v>
+      </c>
+      <c r="P19" s="3">
+        <f>Model_validation_Carbon!P19</f>
+        <v>32.316908311242436</v>
+      </c>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3">
         <f t="shared" si="0"/>
-        <v>32.316908311242436</v>
-      </c>
-      <c r="S19">
+        <v>135</v>
+      </c>
+      <c r="T19" s="3">
+        <f>SUM($S$2:S19)</f>
+        <v>1565</v>
+      </c>
+      <c r="U19" s="3">
         <f t="shared" si="1"/>
-        <v>67.5</v>
-      </c>
-      <c r="T19">
-        <f>SUM($S$2:S19)</f>
-        <v>782.5</v>
-      </c>
-      <c r="U19">
+        <v>13.500000000000012</v>
+      </c>
+      <c r="V19" s="3">
+        <f>SUM($U$2:U19)</f>
+        <v>156.50000000000014</v>
+      </c>
+      <c r="W19" s="3">
         <f t="shared" si="2"/>
-        <v>6.7500000000000062</v>
-      </c>
-      <c r="V19">
-        <f>SUM($U$2:U19)</f>
-        <v>78.250000000000071</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="6"/>
-        <v>2.1080916887575611</v>
-      </c>
-      <c r="X19">
-        <v>52.723357932839001</v>
-      </c>
-      <c r="Y19">
-        <f t="shared" si="3"/>
-        <v>55.604408311242437</v>
-      </c>
-      <c r="Z19">
+        <v>36.533091688757558</v>
+      </c>
+      <c r="X19" s="3">
+        <f>SUM($W$2:W19)</f>
+        <v>451.79835793283894</v>
+      </c>
+      <c r="Y19" s="3">
+        <f t="shared" si="3"/>
+        <v>78.891908311242432</v>
+      </c>
+      <c r="Z19" s="3">
         <f>SUM($Y$2:Y19)</f>
-        <v>616.31414206716101</v>
-      </c>
-      <c r="AA19">
-        <f t="shared" si="4"/>
-        <v>3.037500000000001</v>
-      </c>
-      <c r="AB19">
+        <v>886.27664206716111</v>
+      </c>
+      <c r="AA19" s="3">
+        <f t="shared" si="4"/>
+        <v>6.075000000000002</v>
+      </c>
+      <c r="AB19" s="3">
         <f>SUM($AA$2:AA19)</f>
-        <v>35.212500000000013</v>
+        <v>70.425000000000026</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2038</v>
       </c>
-      <c r="B20">
-        <f>Flow_data_Carbon!B20*TC_data_Carbon!B20</f>
-        <v>70</v>
-      </c>
-      <c r="C20">
-        <f>Flow_data_Carbon!B20*TC_data_Carbon!D20</f>
-        <v>70</v>
-      </c>
-      <c r="D20">
-        <f>C20*TC_data_Carbon!F20</f>
-        <v>21</v>
-      </c>
-      <c r="E20">
-        <f>C20*TC_data_Carbon!H20</f>
-        <v>21</v>
-      </c>
-      <c r="F20">
-        <f>C20*TC_data_Carbon!J20</f>
-        <v>7</v>
-      </c>
-      <c r="G20">
-        <f>C20*TC_data_Carbon!L20</f>
+      <c r="B20" s="3">
+        <f>Flow_data_Biomass!B20*TC_data_Biomass!B20</f>
+        <v>140</v>
+      </c>
+      <c r="C20" s="3">
+        <f>Flow_data_Biomass!B20*TC_data_Biomass!D20</f>
+        <v>140</v>
+      </c>
+      <c r="D20" s="3">
+        <f>C20*TC_data_Biomass!F20</f>
+        <v>42</v>
+      </c>
+      <c r="E20" s="3">
+        <f>C20*TC_data_Biomass!H20</f>
+        <v>42</v>
+      </c>
+      <c r="F20" s="3">
+        <f>C20*TC_data_Biomass!J20</f>
         <v>14</v>
       </c>
-      <c r="H20">
-        <f>C20*TC_data_Carbon!N20</f>
-        <v>7.0000000000000062</v>
-      </c>
-      <c r="I20">
+      <c r="G20" s="3">
+        <f>C20*TC_data_Biomass!L20</f>
+        <v>28</v>
+      </c>
+      <c r="H20" s="3">
+        <f>C20*TC_data_Biomass!N20</f>
+        <v>14.000000000000012</v>
+      </c>
+      <c r="I20" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J20">
-        <f>D20*TC_data_Carbon!P20</f>
-        <v>21</v>
-      </c>
-      <c r="K20">
-        <f>E20*TC_data_Carbon!R20</f>
-        <v>14.7</v>
-      </c>
-      <c r="L20">
-        <f>E20*TC_data_Carbon!T20</f>
-        <v>3.15</v>
-      </c>
-      <c r="M20">
-        <f>E20*TC_data_Carbon!V20</f>
-        <v>3.1500000000000012</v>
-      </c>
-      <c r="N20">
-        <f>F20*TC_data_Carbon!X20</f>
-        <v>7</v>
-      </c>
-      <c r="O20">
-        <f>G20*TC_data_Carbon!Z20</f>
+      <c r="J20" s="3">
+        <f>D20*TC_data_Biomass!P20</f>
+        <v>42</v>
+      </c>
+      <c r="K20" s="3">
+        <f>E20*TC_data_Biomass!R20</f>
+        <v>29.4</v>
+      </c>
+      <c r="L20" s="3">
+        <f>E20*TC_data_Biomass!T20</f>
+        <v>6.3</v>
+      </c>
+      <c r="M20" s="3">
+        <f>E20*TC_data_Biomass!V20</f>
+        <v>6.3000000000000025</v>
+      </c>
+      <c r="N20" s="3">
+        <f>F20*TC_data_Biomass!X20</f>
         <v>14</v>
       </c>
-      <c r="P20">
+      <c r="O20" s="3">
+        <f>G20*TC_data_Biomass!Z20</f>
+        <v>28</v>
+      </c>
+      <c r="P20" s="3">
+        <f>Model_validation_Carbon!P20</f>
+        <v>33.660992449419453</v>
+      </c>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3">
         <f t="shared" si="0"/>
-        <v>33.660992449419453</v>
-      </c>
-      <c r="S20">
+        <v>140</v>
+      </c>
+      <c r="T20" s="3">
+        <f>SUM($S$2:S20)</f>
+        <v>1705</v>
+      </c>
+      <c r="U20" s="3">
         <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="T20">
-        <f>SUM($S$2:S20)</f>
-        <v>852.5</v>
-      </c>
-      <c r="U20">
+        <v>14.000000000000012</v>
+      </c>
+      <c r="V20" s="3">
+        <f>SUM($U$2:U20)</f>
+        <v>170.50000000000014</v>
+      </c>
+      <c r="W20" s="3">
         <f t="shared" si="2"/>
-        <v>7.0000000000000062</v>
-      </c>
-      <c r="V20">
-        <f>SUM($U$2:U20)</f>
-        <v>85.250000000000071</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="6"/>
-        <v>2.0390075505805498</v>
-      </c>
-      <c r="X20">
-        <v>54.762365483419551</v>
-      </c>
-      <c r="Y20">
-        <f t="shared" si="3"/>
-        <v>57.810992449419452</v>
-      </c>
-      <c r="Z20">
+        <v>37.739007550580553</v>
+      </c>
+      <c r="X20" s="3">
+        <f>SUM($W$2:W20)</f>
+        <v>489.53736548341948</v>
+      </c>
+      <c r="Y20" s="3">
+        <f t="shared" si="3"/>
+        <v>81.96099244941945</v>
+      </c>
+      <c r="Z20" s="3">
         <f>SUM($Y$2:Y20)</f>
-        <v>674.12513451658049</v>
-      </c>
-      <c r="AA20">
-        <f t="shared" si="4"/>
-        <v>3.1500000000000012</v>
-      </c>
-      <c r="AB20">
+        <v>968.23763451658056</v>
+      </c>
+      <c r="AA20" s="3">
+        <f t="shared" si="4"/>
+        <v>6.3000000000000025</v>
+      </c>
+      <c r="AB20" s="3">
         <f>SUM($AA$2:AA20)</f>
-        <v>38.362500000000011</v>
+        <v>76.725000000000023</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2039</v>
       </c>
-      <c r="B21">
-        <f>Flow_data_Carbon!B21*TC_data_Carbon!B21</f>
-        <v>72.5</v>
-      </c>
-      <c r="C21">
-        <f>Flow_data_Carbon!B21*TC_data_Carbon!D21</f>
-        <v>72.5</v>
-      </c>
-      <c r="D21">
-        <f>C21*TC_data_Carbon!F21</f>
-        <v>21.75</v>
-      </c>
-      <c r="E21">
-        <f>C21*TC_data_Carbon!H21</f>
-        <v>21.75</v>
-      </c>
-      <c r="F21">
-        <f>C21*TC_data_Carbon!J21</f>
-        <v>7.25</v>
-      </c>
-      <c r="G21">
-        <f>C21*TC_data_Carbon!L21</f>
+      <c r="B21" s="3">
+        <f>Flow_data_Biomass!B21*TC_data_Biomass!B21</f>
+        <v>145</v>
+      </c>
+      <c r="C21" s="3">
+        <f>Flow_data_Biomass!B21*TC_data_Biomass!D21</f>
+        <v>145</v>
+      </c>
+      <c r="D21" s="3">
+        <f>C21*TC_data_Biomass!F21</f>
+        <v>43.5</v>
+      </c>
+      <c r="E21" s="3">
+        <f>C21*TC_data_Biomass!H21</f>
+        <v>43.5</v>
+      </c>
+      <c r="F21" s="3">
+        <f>C21*TC_data_Biomass!J21</f>
         <v>14.5</v>
       </c>
-      <c r="H21">
-        <f>C21*TC_data_Carbon!N21</f>
-        <v>7.2500000000000062</v>
-      </c>
-      <c r="I21">
+      <c r="G21" s="3">
+        <f>C21*TC_data_Biomass!L21</f>
+        <v>29</v>
+      </c>
+      <c r="H21" s="3">
+        <f>C21*TC_data_Biomass!N21</f>
+        <v>14.500000000000012</v>
+      </c>
+      <c r="I21" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J21">
-        <f>D21*TC_data_Carbon!P21</f>
-        <v>21.75</v>
-      </c>
-      <c r="K21">
-        <f>E21*TC_data_Carbon!R21</f>
-        <v>15.225</v>
-      </c>
-      <c r="L21">
-        <f>E21*TC_data_Carbon!T21</f>
-        <v>3.2624999999999997</v>
-      </c>
-      <c r="M21">
-        <f>E21*TC_data_Carbon!V21</f>
-        <v>3.2625000000000011</v>
-      </c>
-      <c r="N21">
-        <f>F21*TC_data_Carbon!X21</f>
-        <v>7.25</v>
-      </c>
-      <c r="O21">
-        <f>G21*TC_data_Carbon!Z21</f>
+      <c r="J21" s="3">
+        <f>D21*TC_data_Biomass!P21</f>
+        <v>43.5</v>
+      </c>
+      <c r="K21" s="3">
+        <f>E21*TC_data_Biomass!R21</f>
+        <v>30.45</v>
+      </c>
+      <c r="L21" s="3">
+        <f>E21*TC_data_Biomass!T21</f>
+        <v>6.5249999999999995</v>
+      </c>
+      <c r="M21" s="3">
+        <f>E21*TC_data_Biomass!V21</f>
+        <v>6.5250000000000021</v>
+      </c>
+      <c r="N21" s="3">
+        <f>F21*TC_data_Biomass!X21</f>
         <v>14.5</v>
       </c>
-      <c r="P21">
+      <c r="O21" s="3">
+        <f>G21*TC_data_Biomass!Z21</f>
+        <v>29</v>
+      </c>
+      <c r="P21" s="3">
+        <f>Model_validation_Carbon!P21</f>
+        <v>34.961778280434586</v>
+      </c>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3">
         <f t="shared" si="0"/>
-        <v>34.961778280434586</v>
-      </c>
-      <c r="S21">
+        <v>145</v>
+      </c>
+      <c r="T21" s="3">
+        <f>SUM($S$2:S21)</f>
+        <v>1850</v>
+      </c>
+      <c r="U21" s="3">
         <f t="shared" si="1"/>
-        <v>72.5</v>
-      </c>
-      <c r="T21">
-        <f>SUM($S$2:S21)</f>
-        <v>925</v>
-      </c>
-      <c r="U21">
+        <v>14.500000000000012</v>
+      </c>
+      <c r="V21" s="3">
+        <f>SUM($U$2:U21)</f>
+        <v>185.00000000000014</v>
+      </c>
+      <c r="W21" s="3">
         <f t="shared" si="2"/>
-        <v>7.2500000000000062</v>
-      </c>
-      <c r="V21">
-        <f>SUM($U$2:U21)</f>
-        <v>92.500000000000071</v>
-      </c>
-      <c r="W21">
-        <f t="shared" si="6"/>
-        <v>2.013221719565415</v>
-      </c>
-      <c r="X21">
-        <v>56.775587202984966</v>
-      </c>
-      <c r="Y21">
-        <f t="shared" si="3"/>
-        <v>59.974278280434589</v>
-      </c>
-      <c r="Z21">
+        <v>38.988221719565416</v>
+      </c>
+      <c r="X21" s="3">
+        <f>SUM($W$2:W21)</f>
+        <v>528.52558720298487</v>
+      </c>
+      <c r="Y21" s="3">
+        <f t="shared" si="3"/>
+        <v>84.986778280434592</v>
+      </c>
+      <c r="Z21" s="3">
         <f>SUM($Y$2:Y21)</f>
-        <v>734.09941279701502</v>
-      </c>
-      <c r="AA21">
-        <f t="shared" si="4"/>
-        <v>3.2625000000000011</v>
-      </c>
-      <c r="AB21">
+        <v>1053.2244127970152</v>
+      </c>
+      <c r="AA21" s="3">
+        <f t="shared" si="4"/>
+        <v>6.5250000000000021</v>
+      </c>
+      <c r="AB21" s="3">
         <f>SUM($AA$2:AA21)</f>
-        <v>41.625000000000014</v>
+        <v>83.250000000000028</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2040</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
+        <f>Flow_data_Biomass!B22*TC_data_Biomass!B22</f>
+        <v>150</v>
+      </c>
+      <c r="C22" s="3">
+        <f>Flow_data_Biomass!B22*TC_data_Biomass!D22</f>
+        <v>150</v>
+      </c>
+      <c r="D22" s="3">
+        <f>C22*TC_data_Biomass!F22</f>
+        <v>45</v>
+      </c>
+      <c r="E22" s="3">
+        <f>C22*TC_data_Biomass!H22</f>
+        <v>45</v>
+      </c>
+      <c r="F22" s="3">
+        <f>C22*TC_data_Biomass!J22</f>
+        <v>15</v>
+      </c>
+      <c r="G22" s="3">
+        <f>C22*TC_data_Biomass!L22</f>
+        <v>30</v>
+      </c>
+      <c r="H22" s="3">
+        <f>C22*TC_data_Biomass!N22</f>
+        <v>15.000000000000014</v>
+      </c>
+      <c r="I22" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <f>D22*TC_data_Biomass!P22</f>
+        <v>45</v>
+      </c>
+      <c r="K22" s="3">
+        <f>E22*TC_data_Biomass!R22</f>
+        <v>31.499999999999996</v>
+      </c>
+      <c r="L22" s="3">
+        <f>E22*TC_data_Biomass!T22</f>
+        <v>6.75</v>
+      </c>
+      <c r="M22" s="3">
+        <f>E22*TC_data_Biomass!V22</f>
+        <v>6.7500000000000027</v>
+      </c>
+      <c r="N22" s="3">
+        <f>F22*TC_data_Biomass!X22</f>
+        <v>15</v>
+      </c>
+      <c r="O22" s="3">
+        <f>G22*TC_data_Biomass!Z22</f>
+        <v>30</v>
+      </c>
+      <c r="P22" s="3">
+        <f>Model_validation_Carbon!P22</f>
+        <v>36.246402907717886</v>
+      </c>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="T22" s="3">
+        <f>SUM($S$2:S22)</f>
+        <v>2000</v>
+      </c>
+      <c r="U22" s="3">
+        <f t="shared" si="1"/>
+        <v>15.000000000000014</v>
+      </c>
+      <c r="V22" s="3">
+        <f>SUM($U$2:U22)</f>
+        <v>200.00000000000017</v>
+      </c>
+      <c r="W22" s="3">
+        <f t="shared" si="2"/>
+        <v>40.253597092282114</v>
+      </c>
+      <c r="X22" s="3">
+        <f>SUM($W$2:W22)</f>
+        <v>568.77918429526699</v>
+      </c>
+      <c r="Y22" s="3">
+        <f t="shared" si="3"/>
+        <v>87.996402907717879</v>
+      </c>
+      <c r="Z22" s="3">
+        <f>SUM($Y$2:Y22)</f>
+        <v>1141.220815704733</v>
+      </c>
+      <c r="AA22" s="3">
+        <f t="shared" si="4"/>
+        <v>6.7500000000000027</v>
+      </c>
+      <c r="AB22" s="3">
+        <f>SUM($AA$2:AA22)</f>
+        <v>90.000000000000028</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26778DCB-B80F-F449-834E-1FDA4FB8D60F}">
+  <dimension ref="A1:AB22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="10.83203125" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2020</v>
+      </c>
+      <c r="B2" s="3">
+        <f>Flow_data_Carbon!B2*TC_data_Carbon!B2</f>
+        <v>25</v>
+      </c>
+      <c r="C2" s="3">
+        <f>Flow_data_Carbon!B2*TC_data_Carbon!D2</f>
+        <v>25</v>
+      </c>
+      <c r="D2" s="3">
+        <f>C2*TC_data_Carbon!F2</f>
+        <v>7.5</v>
+      </c>
+      <c r="E2" s="3">
+        <f>C2*TC_data_Carbon!H2</f>
+        <v>7.5</v>
+      </c>
+      <c r="F2" s="3">
+        <f>C2*TC_data_Carbon!J2</f>
+        <v>2.5</v>
+      </c>
+      <c r="G2" s="3">
+        <f>C2*TC_data_Carbon!L2</f>
+        <v>5</v>
+      </c>
+      <c r="H2" s="3">
+        <f>C2*TC_data_Carbon!N2</f>
+        <v>2.5000000000000022</v>
+      </c>
+      <c r="I2" s="3">
+        <f>SUM(D2:H2)-C2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <f>D2*TC_data_Carbon!P2</f>
+        <v>7.5</v>
+      </c>
+      <c r="K2" s="3">
+        <f>E2*TC_data_Carbon!R2</f>
+        <v>5.25</v>
+      </c>
+      <c r="L2" s="3">
+        <f>E2*TC_data_Carbon!T2</f>
+        <v>1.125</v>
+      </c>
+      <c r="M2" s="3">
+        <f>E2*TC_data_Carbon!V2</f>
+        <v>1.1250000000000004</v>
+      </c>
+      <c r="N2" s="3">
+        <f>F2*TC_data_Carbon!X2</f>
+        <v>2.5</v>
+      </c>
+      <c r="O2" s="3">
+        <f>G2*TC_data_Carbon!Z2</f>
+        <v>5</v>
+      </c>
+      <c r="P2" s="3">
+        <f t="shared" ref="P2:P22" si="0">J2+K2-W2</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3">
+        <f t="shared" ref="S2:S22" si="1">B2</f>
+        <v>25</v>
+      </c>
+      <c r="T2" s="3">
+        <f>SUM($S$2:S2)</f>
+        <v>25</v>
+      </c>
+      <c r="U2" s="3">
+        <f t="shared" ref="U2:U22" si="2">H2</f>
+        <v>2.5000000000000022</v>
+      </c>
+      <c r="V2" s="3">
+        <f>SUM($U$2:U2)</f>
+        <v>2.5000000000000022</v>
+      </c>
+      <c r="W2" s="3">
+        <f>X2</f>
+        <v>12.75</v>
+      </c>
+      <c r="X2" s="3" cm="1">
+        <f t="array" ref="X2:X22">Sequestration_process!W11:W31</f>
+        <v>12.75</v>
+      </c>
+      <c r="Y2" s="3">
+        <f t="shared" ref="Y2:Y22" si="3">O2+P2+N2+L2</f>
+        <v>8.625</v>
+      </c>
+      <c r="Z2" s="3">
+        <f>SUM($Y$2:Y2)</f>
+        <v>8.625</v>
+      </c>
+      <c r="AA2" s="3">
+        <f t="shared" ref="AA2:AA22" si="4">M2</f>
+        <v>1.1250000000000004</v>
+      </c>
+      <c r="AB2" s="3">
+        <f>SUM($AA$2:AA2)</f>
+        <v>1.1250000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2021</v>
+      </c>
+      <c r="B3" s="3">
+        <f>Flow_data_Carbon!B3*TC_data_Carbon!B3</f>
+        <v>27.5</v>
+      </c>
+      <c r="C3" s="3">
+        <f>Flow_data_Carbon!B3*TC_data_Carbon!D3</f>
+        <v>27.5</v>
+      </c>
+      <c r="D3" s="3">
+        <f>C3*TC_data_Carbon!F3</f>
+        <v>8.25</v>
+      </c>
+      <c r="E3" s="3">
+        <f>C3*TC_data_Carbon!H3</f>
+        <v>8.25</v>
+      </c>
+      <c r="F3" s="3">
+        <f>C3*TC_data_Carbon!J3</f>
+        <v>2.75</v>
+      </c>
+      <c r="G3" s="3">
+        <f>C3*TC_data_Carbon!L3</f>
+        <v>5.5</v>
+      </c>
+      <c r="H3" s="3">
+        <f>C3*TC_data_Carbon!N3</f>
+        <v>2.7500000000000027</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" ref="I3:I22" si="5">SUM(D3:H3)-C3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <f>D3*TC_data_Carbon!P3</f>
+        <v>8.25</v>
+      </c>
+      <c r="K3" s="3">
+        <f>E3*TC_data_Carbon!R3</f>
+        <v>5.7749999999999995</v>
+      </c>
+      <c r="L3" s="3">
+        <f>E3*TC_data_Carbon!T3</f>
+        <v>1.2375</v>
+      </c>
+      <c r="M3" s="3">
+        <f>E3*TC_data_Carbon!V3</f>
+        <v>1.2375000000000005</v>
+      </c>
+      <c r="N3" s="3">
+        <f>F3*TC_data_Carbon!X3</f>
+        <v>2.75</v>
+      </c>
+      <c r="O3" s="3">
+        <f>G3*TC_data_Carbon!Z3</f>
+        <v>5.5</v>
+      </c>
+      <c r="P3" s="3">
+        <f t="shared" si="0"/>
+        <v>8.2194604996048426</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3">
+        <f t="shared" si="1"/>
+        <v>27.5</v>
+      </c>
+      <c r="T3" s="3">
+        <f>SUM($S$2:S3)</f>
+        <v>52.5</v>
+      </c>
+      <c r="U3" s="3">
+        <f t="shared" si="2"/>
+        <v>2.7500000000000027</v>
+      </c>
+      <c r="V3" s="3">
+        <f>SUM($U$2:U3)</f>
+        <v>5.2500000000000053</v>
+      </c>
+      <c r="W3" s="3">
+        <f t="shared" ref="W3:W22" si="6">X3-X2</f>
+        <v>5.805539500395156</v>
+      </c>
+      <c r="X3" s="3">
+        <v>18.555539500395156</v>
+      </c>
+      <c r="Y3" s="3">
+        <f t="shared" si="3"/>
+        <v>17.706960499604843</v>
+      </c>
+      <c r="Z3" s="3">
+        <f>SUM($Y$2:Y3)</f>
+        <v>26.331960499604843</v>
+      </c>
+      <c r="AA3" s="3">
+        <f t="shared" si="4"/>
+        <v>1.2375000000000005</v>
+      </c>
+      <c r="AB3" s="3">
+        <f>SUM($AA$2:AA3)</f>
+        <v>2.3625000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2022</v>
+      </c>
+      <c r="B4" s="3">
+        <f>Flow_data_Carbon!B4*TC_data_Carbon!B4</f>
+        <v>30</v>
+      </c>
+      <c r="C4" s="3">
+        <f>Flow_data_Carbon!B4*TC_data_Carbon!D4</f>
+        <v>30</v>
+      </c>
+      <c r="D4" s="3">
+        <f>C4*TC_data_Carbon!F4</f>
+        <v>9</v>
+      </c>
+      <c r="E4" s="3">
+        <f>C4*TC_data_Carbon!H4</f>
+        <v>9</v>
+      </c>
+      <c r="F4" s="3">
+        <f>C4*TC_data_Carbon!J4</f>
+        <v>3</v>
+      </c>
+      <c r="G4" s="3">
+        <f>C4*TC_data_Carbon!L4</f>
+        <v>6</v>
+      </c>
+      <c r="H4" s="3">
+        <f>C4*TC_data_Carbon!N4</f>
+        <v>3.0000000000000027</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <f>D4*TC_data_Carbon!P4</f>
+        <v>9</v>
+      </c>
+      <c r="K4" s="3">
+        <f>E4*TC_data_Carbon!R4</f>
+        <v>6.3</v>
+      </c>
+      <c r="L4" s="3">
+        <f>E4*TC_data_Carbon!T4</f>
+        <v>1.3499999999999999</v>
+      </c>
+      <c r="M4" s="3">
+        <f>E4*TC_data_Carbon!V4</f>
+        <v>1.3500000000000005</v>
+      </c>
+      <c r="N4" s="3">
+        <f>F4*TC_data_Carbon!X4</f>
+        <v>3</v>
+      </c>
+      <c r="O4" s="3">
+        <f>G4*TC_data_Carbon!Z4</f>
+        <v>6</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" si="0"/>
+        <v>11.880910610461324</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="T4" s="3">
+        <f>SUM($S$2:S4)</f>
+        <v>82.5</v>
+      </c>
+      <c r="U4" s="3">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000027</v>
+      </c>
+      <c r="V4" s="3">
+        <f>SUM($U$2:U4)</f>
+        <v>8.2500000000000071</v>
+      </c>
+      <c r="W4" s="3">
+        <f t="shared" si="6"/>
+        <v>3.4190893895386765</v>
+      </c>
+      <c r="X4" s="3">
+        <v>21.974628889933832</v>
+      </c>
+      <c r="Y4" s="3">
+        <f t="shared" si="3"/>
+        <v>22.230910610461326</v>
+      </c>
+      <c r="Z4" s="3">
+        <f>SUM($Y$2:Y4)</f>
+        <v>48.562871110066169</v>
+      </c>
+      <c r="AA4" s="3">
+        <f t="shared" si="4"/>
+        <v>1.3500000000000005</v>
+      </c>
+      <c r="AB4" s="3">
+        <f>SUM($AA$2:AA4)</f>
+        <v>3.7125000000000012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2023</v>
+      </c>
+      <c r="B5" s="3">
+        <f>Flow_data_Carbon!B5*TC_data_Carbon!B5</f>
+        <v>32.5</v>
+      </c>
+      <c r="C5" s="3">
+        <f>Flow_data_Carbon!B5*TC_data_Carbon!D5</f>
+        <v>32.5</v>
+      </c>
+      <c r="D5" s="3">
+        <f>C5*TC_data_Carbon!F5</f>
+        <v>9.75</v>
+      </c>
+      <c r="E5" s="3">
+        <f>C5*TC_data_Carbon!H5</f>
+        <v>9.75</v>
+      </c>
+      <c r="F5" s="3">
+        <f>C5*TC_data_Carbon!J5</f>
+        <v>3.25</v>
+      </c>
+      <c r="G5" s="3">
+        <f>C5*TC_data_Carbon!L5</f>
+        <v>6.5</v>
+      </c>
+      <c r="H5" s="3">
+        <f>C5*TC_data_Carbon!N5</f>
+        <v>3.2500000000000027</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <f>D5*TC_data_Carbon!P5</f>
+        <v>9.75</v>
+      </c>
+      <c r="K5" s="3">
+        <f>E5*TC_data_Carbon!R5</f>
+        <v>6.8249999999999993</v>
+      </c>
+      <c r="L5" s="3">
+        <f>E5*TC_data_Carbon!T5</f>
+        <v>1.4624999999999999</v>
+      </c>
+      <c r="M5" s="3">
+        <f>E5*TC_data_Carbon!V5</f>
+        <v>1.4625000000000006</v>
+      </c>
+      <c r="N5" s="3">
+        <f>F5*TC_data_Carbon!X5</f>
+        <v>3.25</v>
+      </c>
+      <c r="O5" s="3">
+        <f>G5*TC_data_Carbon!Z5</f>
+        <v>6.5</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" si="0"/>
+        <v>14.046659209320914</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3">
+        <f t="shared" si="1"/>
+        <v>32.5</v>
+      </c>
+      <c r="T5" s="3">
+        <f>SUM($S$2:S5)</f>
+        <v>115</v>
+      </c>
+      <c r="U5" s="3">
+        <f t="shared" si="2"/>
+        <v>3.2500000000000027</v>
+      </c>
+      <c r="V5" s="3">
+        <f>SUM($U$2:U5)</f>
+        <v>11.500000000000011</v>
+      </c>
+      <c r="W5" s="3">
+        <f t="shared" si="6"/>
+        <v>2.5283407906790849</v>
+      </c>
+      <c r="X5" s="3">
+        <v>24.502969680612917</v>
+      </c>
+      <c r="Y5" s="3">
+        <f t="shared" si="3"/>
+        <v>25.259159209320913</v>
+      </c>
+      <c r="Z5" s="3">
+        <f>SUM($Y$2:Y5)</f>
+        <v>73.822030319387082</v>
+      </c>
+      <c r="AA5" s="3">
+        <f t="shared" si="4"/>
+        <v>1.4625000000000006</v>
+      </c>
+      <c r="AB5" s="3">
+        <f>SUM($AA$2:AA5)</f>
+        <v>5.1750000000000016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2024</v>
+      </c>
+      <c r="B6" s="3">
+        <f>Flow_data_Carbon!B6*TC_data_Carbon!B6</f>
+        <v>35</v>
+      </c>
+      <c r="C6" s="3">
+        <f>Flow_data_Carbon!B6*TC_data_Carbon!D6</f>
+        <v>35</v>
+      </c>
+      <c r="D6" s="3">
+        <f>C6*TC_data_Carbon!F6</f>
+        <v>10.5</v>
+      </c>
+      <c r="E6" s="3">
+        <f>C6*TC_data_Carbon!H6</f>
+        <v>10.5</v>
+      </c>
+      <c r="F6" s="3">
+        <f>C6*TC_data_Carbon!J6</f>
+        <v>3.5</v>
+      </c>
+      <c r="G6" s="3">
+        <f>C6*TC_data_Carbon!L6</f>
+        <v>7</v>
+      </c>
+      <c r="H6" s="3">
+        <f>C6*TC_data_Carbon!N6</f>
+        <v>3.5000000000000031</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <f>D6*TC_data_Carbon!P6</f>
+        <v>10.5</v>
+      </c>
+      <c r="K6" s="3">
+        <f>E6*TC_data_Carbon!R6</f>
+        <v>7.35</v>
+      </c>
+      <c r="L6" s="3">
+        <f>E6*TC_data_Carbon!T6</f>
+        <v>1.575</v>
+      </c>
+      <c r="M6" s="3">
+        <f>E6*TC_data_Carbon!V6</f>
+        <v>1.5750000000000006</v>
+      </c>
+      <c r="N6" s="3">
+        <f>F6*TC_data_Carbon!X6</f>
+        <v>3.5</v>
+      </c>
+      <c r="O6" s="3">
+        <f>G6*TC_data_Carbon!Z6</f>
+        <v>7</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="0"/>
+        <v>15.654133398813006</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="T6" s="3">
+        <f>SUM($S$2:S6)</f>
+        <v>150</v>
+      </c>
+      <c r="U6" s="3">
+        <f t="shared" si="2"/>
+        <v>3.5000000000000031</v>
+      </c>
+      <c r="V6" s="3">
+        <f>SUM($U$2:U6)</f>
+        <v>15.000000000000014</v>
+      </c>
+      <c r="W6" s="3">
+        <f t="shared" si="6"/>
+        <v>2.1958666011869958</v>
+      </c>
+      <c r="X6" s="3">
+        <v>26.698836281799913</v>
+      </c>
+      <c r="Y6" s="3">
+        <f t="shared" si="3"/>
+        <v>27.729133398813005</v>
+      </c>
+      <c r="Z6" s="3">
+        <f>SUM($Y$2:Y6)</f>
+        <v>101.55116371820009</v>
+      </c>
+      <c r="AA6" s="3">
+        <f t="shared" si="4"/>
+        <v>1.5750000000000006</v>
+      </c>
+      <c r="AB6" s="3">
+        <f>SUM($AA$2:AA6)</f>
+        <v>6.7500000000000018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2025</v>
+      </c>
+      <c r="B7" s="3">
+        <f>Flow_data_Carbon!B7*TC_data_Carbon!B7</f>
+        <v>37.5</v>
+      </c>
+      <c r="C7" s="3">
+        <f>Flow_data_Carbon!B7*TC_data_Carbon!D7</f>
+        <v>37.5</v>
+      </c>
+      <c r="D7" s="3">
+        <f>C7*TC_data_Carbon!F7</f>
+        <v>11.25</v>
+      </c>
+      <c r="E7" s="3">
+        <f>C7*TC_data_Carbon!H7</f>
+        <v>11.25</v>
+      </c>
+      <c r="F7" s="3">
+        <f>C7*TC_data_Carbon!J7</f>
+        <v>3.75</v>
+      </c>
+      <c r="G7" s="3">
+        <f>C7*TC_data_Carbon!L7</f>
+        <v>7.5</v>
+      </c>
+      <c r="H7" s="3">
+        <f>C7*TC_data_Carbon!N7</f>
+        <v>3.7500000000000036</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <f>D7*TC_data_Carbon!P7</f>
+        <v>11.25</v>
+      </c>
+      <c r="K7" s="3">
+        <f>E7*TC_data_Carbon!R7</f>
+        <v>7.8749999999999991</v>
+      </c>
+      <c r="L7" s="3">
+        <f>E7*TC_data_Carbon!T7</f>
+        <v>1.6875</v>
+      </c>
+      <c r="M7" s="3">
+        <f>E7*TC_data_Carbon!V7</f>
+        <v>1.6875000000000007</v>
+      </c>
+      <c r="N7" s="3">
+        <f>F7*TC_data_Carbon!X7</f>
+        <v>3.75</v>
+      </c>
+      <c r="O7" s="3">
+        <f>G7*TC_data_Carbon!Z7</f>
+        <v>7.5</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="0"/>
+        <v>17.053230239178454</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="T7" s="3">
+        <f>SUM($S$2:S7)</f>
+        <v>187.5</v>
+      </c>
+      <c r="U7" s="3">
+        <f t="shared" si="2"/>
+        <v>3.7500000000000036</v>
+      </c>
+      <c r="V7" s="3">
+        <f>SUM($U$2:U7)</f>
+        <v>18.750000000000018</v>
+      </c>
+      <c r="W7" s="3">
+        <f t="shared" si="6"/>
+        <v>2.071769760821546</v>
+      </c>
+      <c r="X7" s="3">
+        <v>28.770606042621459</v>
+      </c>
+      <c r="Y7" s="3">
+        <f t="shared" si="3"/>
+        <v>29.990730239178454</v>
+      </c>
+      <c r="Z7" s="3">
+        <f>SUM($Y$2:Y7)</f>
+        <v>131.54189395737853</v>
+      </c>
+      <c r="AA7" s="3">
+        <f t="shared" si="4"/>
+        <v>1.6875000000000007</v>
+      </c>
+      <c r="AB7" s="3">
+        <f>SUM($AA$2:AA7)</f>
+        <v>8.4375000000000018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2026</v>
+      </c>
+      <c r="B8" s="3">
+        <f>Flow_data_Carbon!B8*TC_data_Carbon!B8</f>
+        <v>40</v>
+      </c>
+      <c r="C8" s="3">
+        <f>Flow_data_Carbon!B8*TC_data_Carbon!D8</f>
+        <v>40</v>
+      </c>
+      <c r="D8" s="3">
+        <f>C8*TC_data_Carbon!F8</f>
+        <v>12</v>
+      </c>
+      <c r="E8" s="3">
+        <f>C8*TC_data_Carbon!H8</f>
+        <v>12</v>
+      </c>
+      <c r="F8" s="3">
+        <f>C8*TC_data_Carbon!J8</f>
+        <v>4</v>
+      </c>
+      <c r="G8" s="3">
+        <f>C8*TC_data_Carbon!L8</f>
+        <v>8</v>
+      </c>
+      <c r="H8" s="3">
+        <f>C8*TC_data_Carbon!N8</f>
+        <v>4.0000000000000036</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <f>D8*TC_data_Carbon!P8</f>
+        <v>12</v>
+      </c>
+      <c r="K8" s="3">
+        <f>E8*TC_data_Carbon!R8</f>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="L8" s="3">
+        <f>E8*TC_data_Carbon!T8</f>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="M8" s="3">
+        <f>E8*TC_data_Carbon!V8</f>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="N8" s="3">
+        <f>F8*TC_data_Carbon!X8</f>
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
+        <f>G8*TC_data_Carbon!Z8</f>
+        <v>8</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="0"/>
+        <v>18.3745497017876</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="T8" s="3">
+        <f>SUM($S$2:S8)</f>
+        <v>227.5</v>
+      </c>
+      <c r="U8" s="3">
+        <f t="shared" si="2"/>
+        <v>4.0000000000000036</v>
+      </c>
+      <c r="V8" s="3">
+        <f>SUM($U$2:U8)</f>
+        <v>22.750000000000021</v>
+      </c>
+      <c r="W8" s="3">
+        <f t="shared" si="6"/>
+        <v>2.0254502982123981</v>
+      </c>
+      <c r="X8" s="3">
+        <v>30.796056340833857</v>
+      </c>
+      <c r="Y8" s="3">
+        <f t="shared" si="3"/>
+        <v>32.174549701787598</v>
+      </c>
+      <c r="Z8" s="3">
+        <f>SUM($Y$2:Y8)</f>
+        <v>163.71644365916615</v>
+      </c>
+      <c r="AA8" s="3">
+        <f t="shared" si="4"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="AB8" s="3">
+        <f>SUM($AA$2:AA8)</f>
+        <v>10.237500000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2027</v>
+      </c>
+      <c r="B9" s="3">
+        <f>Flow_data_Carbon!B9*TC_data_Carbon!B9</f>
+        <v>42.5</v>
+      </c>
+      <c r="C9" s="3">
+        <f>Flow_data_Carbon!B9*TC_data_Carbon!D9</f>
+        <v>42.5</v>
+      </c>
+      <c r="D9" s="3">
+        <f>C9*TC_data_Carbon!F9</f>
+        <v>12.75</v>
+      </c>
+      <c r="E9" s="3">
+        <f>C9*TC_data_Carbon!H9</f>
+        <v>12.75</v>
+      </c>
+      <c r="F9" s="3">
+        <f>C9*TC_data_Carbon!J9</f>
+        <v>4.25</v>
+      </c>
+      <c r="G9" s="3">
+        <f>C9*TC_data_Carbon!L9</f>
+        <v>8.5</v>
+      </c>
+      <c r="H9" s="3">
+        <f>C9*TC_data_Carbon!N9</f>
+        <v>4.2500000000000036</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <f>D9*TC_data_Carbon!P9</f>
+        <v>12.75</v>
+      </c>
+      <c r="K9" s="3">
+        <f>E9*TC_data_Carbon!R9</f>
+        <v>8.9249999999999989</v>
+      </c>
+      <c r="L9" s="3">
+        <f>E9*TC_data_Carbon!T9</f>
+        <v>1.9124999999999999</v>
+      </c>
+      <c r="M9" s="3">
+        <f>E9*TC_data_Carbon!V9</f>
+        <v>1.9125000000000005</v>
+      </c>
+      <c r="N9" s="3">
+        <f>F9*TC_data_Carbon!X9</f>
+        <v>4.25</v>
+      </c>
+      <c r="O9" s="3">
+        <f>G9*TC_data_Carbon!Z9</f>
+        <v>8.5</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="0"/>
+        <v>19.666838559506161</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3">
+        <f t="shared" si="1"/>
+        <v>42.5</v>
+      </c>
+      <c r="T9" s="3">
+        <f>SUM($S$2:S9)</f>
+        <v>270</v>
+      </c>
+      <c r="U9" s="3">
+        <f t="shared" si="2"/>
+        <v>4.2500000000000036</v>
+      </c>
+      <c r="V9" s="3">
+        <f>SUM($U$2:U9)</f>
+        <v>27.000000000000025</v>
+      </c>
+      <c r="W9" s="3">
+        <f t="shared" si="6"/>
+        <v>2.0081614404938364</v>
+      </c>
+      <c r="X9" s="3">
+        <v>32.804217781327694</v>
+      </c>
+      <c r="Y9" s="3">
+        <f t="shared" si="3"/>
+        <v>34.329338559506162</v>
+      </c>
+      <c r="Z9" s="3">
+        <f>SUM($Y$2:Y9)</f>
+        <v>198.04578221867231</v>
+      </c>
+      <c r="AA9" s="3">
+        <f t="shared" si="4"/>
+        <v>1.9125000000000005</v>
+      </c>
+      <c r="AB9" s="3">
+        <f>SUM($AA$2:AA9)</f>
+        <v>12.150000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2028</v>
+      </c>
+      <c r="B10" s="3">
+        <f>Flow_data_Carbon!B10*TC_data_Carbon!B10</f>
+        <v>45</v>
+      </c>
+      <c r="C10" s="3">
+        <f>Flow_data_Carbon!B10*TC_data_Carbon!D10</f>
+        <v>45</v>
+      </c>
+      <c r="D10" s="3">
+        <f>C10*TC_data_Carbon!F10</f>
+        <v>13.5</v>
+      </c>
+      <c r="E10" s="3">
+        <f>C10*TC_data_Carbon!H10</f>
+        <v>13.5</v>
+      </c>
+      <c r="F10" s="3">
+        <f>C10*TC_data_Carbon!J10</f>
+        <v>4.5</v>
+      </c>
+      <c r="G10" s="3">
+        <f>C10*TC_data_Carbon!L10</f>
+        <v>9</v>
+      </c>
+      <c r="H10" s="3">
+        <f>C10*TC_data_Carbon!N10</f>
+        <v>4.5000000000000036</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <f>D10*TC_data_Carbon!P10</f>
+        <v>13.5</v>
+      </c>
+      <c r="K10" s="3">
+        <f>E10*TC_data_Carbon!R10</f>
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="L10" s="3">
+        <f>E10*TC_data_Carbon!T10</f>
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="M10" s="3">
+        <f>E10*TC_data_Carbon!V10</f>
+        <v>2.0250000000000008</v>
+      </c>
+      <c r="N10" s="3">
+        <f>F10*TC_data_Carbon!X10</f>
+        <v>4.5</v>
+      </c>
+      <c r="O10" s="3">
+        <f>G10*TC_data_Carbon!Z10</f>
+        <v>9</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="0"/>
+        <v>20.948291669805268</v>
+      </c>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="T10" s="3">
+        <f>SUM($S$2:S10)</f>
+        <v>315</v>
+      </c>
+      <c r="U10" s="3">
+        <f t="shared" si="2"/>
+        <v>4.5000000000000036</v>
+      </c>
+      <c r="V10" s="3">
+        <f>SUM($U$2:U10)</f>
+        <v>31.500000000000028</v>
+      </c>
+      <c r="W10" s="3">
+        <f t="shared" si="6"/>
+        <v>2.0017083301947309</v>
+      </c>
+      <c r="X10" s="3">
+        <v>34.805926111522425</v>
+      </c>
+      <c r="Y10" s="3">
+        <f t="shared" si="3"/>
+        <v>36.47329166980527</v>
+      </c>
+      <c r="Z10" s="3">
+        <f>SUM($Y$2:Y10)</f>
+        <v>234.51907388847758</v>
+      </c>
+      <c r="AA10" s="3">
+        <f t="shared" si="4"/>
+        <v>2.0250000000000008</v>
+      </c>
+      <c r="AB10" s="3">
+        <f>SUM($AA$2:AA10)</f>
+        <v>14.175000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2029</v>
+      </c>
+      <c r="B11" s="3">
+        <f>Flow_data_Carbon!B11*TC_data_Carbon!B11</f>
+        <v>47.5</v>
+      </c>
+      <c r="C11" s="3">
+        <f>Flow_data_Carbon!B11*TC_data_Carbon!D11</f>
+        <v>47.5</v>
+      </c>
+      <c r="D11" s="3">
+        <f>C11*TC_data_Carbon!F11</f>
+        <v>14.25</v>
+      </c>
+      <c r="E11" s="3">
+        <f>C11*TC_data_Carbon!H11</f>
+        <v>14.25</v>
+      </c>
+      <c r="F11" s="3">
+        <f>C11*TC_data_Carbon!J11</f>
+        <v>4.75</v>
+      </c>
+      <c r="G11" s="3">
+        <f>C11*TC_data_Carbon!L11</f>
+        <v>9.5</v>
+      </c>
+      <c r="H11" s="3">
+        <f>C11*TC_data_Carbon!N11</f>
+        <v>4.7500000000000044</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <f>D11*TC_data_Carbon!P11</f>
+        <v>14.25</v>
+      </c>
+      <c r="K11" s="3">
+        <f>E11*TC_data_Carbon!R11</f>
+        <v>9.9749999999999996</v>
+      </c>
+      <c r="L11" s="3">
+        <f>E11*TC_data_Carbon!T11</f>
+        <v>2.1374999999999997</v>
+      </c>
+      <c r="M11" s="3">
+        <f>E11*TC_data_Carbon!V11</f>
+        <v>2.1375000000000006</v>
+      </c>
+      <c r="N11" s="3">
+        <f>F11*TC_data_Carbon!X11</f>
+        <v>4.75</v>
+      </c>
+      <c r="O11" s="3">
+        <f>G11*TC_data_Carbon!Z11</f>
+        <v>9.5</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="0"/>
+        <v>22.22570030970563</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3">
+        <f t="shared" si="1"/>
+        <v>47.5</v>
+      </c>
+      <c r="T11" s="3">
+        <f>SUM($S$2:S11)</f>
+        <v>362.5</v>
+      </c>
+      <c r="U11" s="3">
+        <f t="shared" si="2"/>
+        <v>4.7500000000000044</v>
+      </c>
+      <c r="V11" s="3">
+        <f>SUM($U$2:U11)</f>
+        <v>36.250000000000036</v>
+      </c>
+      <c r="W11" s="3">
+        <f t="shared" si="6"/>
+        <v>1.9992996902943716</v>
+      </c>
+      <c r="X11" s="3">
+        <v>36.805225801816796</v>
+      </c>
+      <c r="Y11" s="3">
+        <f t="shared" si="3"/>
+        <v>38.613200309705633</v>
+      </c>
+      <c r="Z11" s="3">
+        <f>SUM($Y$2:Y11)</f>
+        <v>273.13227419818321</v>
+      </c>
+      <c r="AA11" s="3">
+        <f t="shared" si="4"/>
+        <v>2.1375000000000006</v>
+      </c>
+      <c r="AB11" s="3">
+        <f>SUM($AA$2:AA11)</f>
+        <v>16.312500000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2030</v>
+      </c>
+      <c r="B12" s="3">
+        <f>Flow_data_Carbon!B12*TC_data_Carbon!B12</f>
+        <v>50</v>
+      </c>
+      <c r="C12" s="3">
+        <f>Flow_data_Carbon!B12*TC_data_Carbon!D12</f>
+        <v>50</v>
+      </c>
+      <c r="D12" s="3">
+        <f>C12*TC_data_Carbon!F12</f>
+        <v>15</v>
+      </c>
+      <c r="E12" s="3">
+        <f>C12*TC_data_Carbon!H12</f>
+        <v>15</v>
+      </c>
+      <c r="F12" s="3">
+        <f>C12*TC_data_Carbon!J12</f>
+        <v>5</v>
+      </c>
+      <c r="G12" s="3">
+        <f>C12*TC_data_Carbon!L12</f>
+        <v>10</v>
+      </c>
+      <c r="H12" s="3">
+        <f>C12*TC_data_Carbon!N12</f>
+        <v>5.0000000000000044</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <f>D12*TC_data_Carbon!P12</f>
+        <v>15</v>
+      </c>
+      <c r="K12" s="3">
+        <f>E12*TC_data_Carbon!R12</f>
+        <v>10.5</v>
+      </c>
+      <c r="L12" s="3">
+        <f>E12*TC_data_Carbon!T12</f>
+        <v>2.25</v>
+      </c>
+      <c r="M12" s="3">
+        <f>E12*TC_data_Carbon!V12</f>
+        <v>2.2500000000000009</v>
+      </c>
+      <c r="N12" s="3">
+        <f>F12*TC_data_Carbon!X12</f>
+        <v>5</v>
+      </c>
+      <c r="O12" s="3">
+        <f>G12*TC_data_Carbon!Z12</f>
+        <v>10</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="0"/>
+        <v>23.501599340700096</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="T12" s="3">
+        <f>SUM($S$2:S12)</f>
+        <v>412.5</v>
+      </c>
+      <c r="U12" s="3">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000044</v>
+      </c>
+      <c r="V12" s="3">
+        <f>SUM($U$2:U12)</f>
+        <v>41.250000000000043</v>
+      </c>
+      <c r="W12" s="3">
+        <f t="shared" si="6"/>
+        <v>1.9984006592999037</v>
+      </c>
+      <c r="X12" s="3">
+        <v>38.8036264611167</v>
+      </c>
+      <c r="Y12" s="3">
+        <f t="shared" si="3"/>
+        <v>40.751599340700096</v>
+      </c>
+      <c r="Z12" s="3">
+        <f>SUM($Y$2:Y12)</f>
+        <v>313.88387353888334</v>
+      </c>
+      <c r="AA12" s="3">
+        <f t="shared" si="4"/>
+        <v>2.2500000000000009</v>
+      </c>
+      <c r="AB12" s="3">
+        <f>SUM($AA$2:AA12)</f>
+        <v>18.562500000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2031</v>
+      </c>
+      <c r="B13" s="3">
+        <f>Flow_data_Carbon!B13*TC_data_Carbon!B13</f>
+        <v>2.5</v>
+      </c>
+      <c r="C13" s="3">
+        <f>Flow_data_Carbon!B13*TC_data_Carbon!D13</f>
+        <v>2.5</v>
+      </c>
+      <c r="D13" s="3">
+        <f>C13*TC_data_Carbon!F13</f>
+        <v>0.75</v>
+      </c>
+      <c r="E13" s="3">
+        <f>C13*TC_data_Carbon!H13</f>
+        <v>0.75</v>
+      </c>
+      <c r="F13" s="3">
+        <f>C13*TC_data_Carbon!J13</f>
+        <v>0.25</v>
+      </c>
+      <c r="G13" s="3">
+        <f>C13*TC_data_Carbon!L13</f>
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="3">
+        <f>C13*TC_data_Carbon!N13</f>
+        <v>0.25000000000000022</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <f>D13*TC_data_Carbon!P13</f>
+        <v>0.75</v>
+      </c>
+      <c r="K13" s="3">
+        <f>E13*TC_data_Carbon!R13</f>
+        <v>0.52499999999999991</v>
+      </c>
+      <c r="L13" s="3">
+        <f>E13*TC_data_Carbon!T13</f>
+        <v>0.11249999999999999</v>
+      </c>
+      <c r="M13" s="3">
+        <f>E13*TC_data_Carbon!V13</f>
+        <v>0.11250000000000004</v>
+      </c>
+      <c r="N13" s="3">
+        <f>F13*TC_data_Carbon!X13</f>
+        <v>0.25</v>
+      </c>
+      <c r="O13" s="3">
+        <f>G13*TC_data_Carbon!Z13</f>
+        <v>0.5</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="0"/>
+        <v>24.776934906314899</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="T13" s="3">
+        <f>SUM($S$2:S13)</f>
+        <v>415</v>
+      </c>
+      <c r="U13" s="3">
+        <f t="shared" si="2"/>
+        <v>0.25000000000000022</v>
+      </c>
+      <c r="V13" s="3">
+        <f>SUM($U$2:U13)</f>
+        <v>41.500000000000043</v>
+      </c>
+      <c r="W13" s="3">
+        <f t="shared" si="6"/>
+        <v>-23.501934906314901</v>
+      </c>
+      <c r="X13" s="3">
+        <v>15.301691554801801</v>
+      </c>
+      <c r="Y13" s="3">
+        <f t="shared" si="3"/>
+        <v>25.6394349063149</v>
+      </c>
+      <c r="Z13" s="3">
+        <f>SUM($Y$2:Y13)</f>
+        <v>339.52330844519821</v>
+      </c>
+      <c r="AA13" s="3">
+        <f t="shared" si="4"/>
+        <v>0.11250000000000004</v>
+      </c>
+      <c r="AB13" s="3">
+        <f>SUM($AA$2:AA13)</f>
+        <v>18.675000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2032</v>
+      </c>
+      <c r="B14" s="3">
+        <f>Flow_data_Carbon!B14*TC_data_Carbon!B14</f>
+        <v>55</v>
+      </c>
+      <c r="C14" s="3">
+        <f>Flow_data_Carbon!B14*TC_data_Carbon!D14</f>
+        <v>55</v>
+      </c>
+      <c r="D14" s="3">
+        <f>C14*TC_data_Carbon!F14</f>
+        <v>16.5</v>
+      </c>
+      <c r="E14" s="3">
+        <f>C14*TC_data_Carbon!H14</f>
+        <v>16.5</v>
+      </c>
+      <c r="F14" s="3">
+        <f>C14*TC_data_Carbon!J14</f>
+        <v>5.5</v>
+      </c>
+      <c r="G14" s="3">
+        <f>C14*TC_data_Carbon!L14</f>
+        <v>11</v>
+      </c>
+      <c r="H14" s="3">
+        <f>C14*TC_data_Carbon!N14</f>
+        <v>5.5000000000000053</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <f>D14*TC_data_Carbon!P14</f>
+        <v>16.5</v>
+      </c>
+      <c r="K14" s="3">
+        <f>E14*TC_data_Carbon!R14</f>
+        <v>11.549999999999999</v>
+      </c>
+      <c r="L14" s="3">
+        <f>E14*TC_data_Carbon!T14</f>
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="M14" s="3">
+        <f>E14*TC_data_Carbon!V14</f>
+        <v>2.475000000000001</v>
+      </c>
+      <c r="N14" s="3">
+        <f>F14*TC_data_Carbon!X14</f>
+        <v>5.5</v>
+      </c>
+      <c r="O14" s="3">
+        <f>G14*TC_data_Carbon!Z14</f>
+        <v>11</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="0"/>
+        <v>9.6131391578279661</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="T14" s="3">
+        <f>SUM($S$2:S14)</f>
+        <v>470</v>
+      </c>
+      <c r="U14" s="3">
+        <f t="shared" si="2"/>
+        <v>5.5000000000000053</v>
+      </c>
+      <c r="V14" s="3">
+        <f>SUM($U$2:U14)</f>
+        <v>47.00000000000005</v>
+      </c>
+      <c r="W14" s="3">
+        <f t="shared" si="6"/>
+        <v>18.436860842172031</v>
+      </c>
+      <c r="X14" s="3">
+        <v>33.73855239697383</v>
+      </c>
+      <c r="Y14" s="3">
+        <f t="shared" si="3"/>
+        <v>28.588139157827968</v>
+      </c>
+      <c r="Z14" s="3">
+        <f>SUM($Y$2:Y14)</f>
+        <v>368.11144760302619</v>
+      </c>
+      <c r="AA14" s="3">
+        <f t="shared" si="4"/>
+        <v>2.475000000000001</v>
+      </c>
+      <c r="AB14" s="3">
+        <f>SUM($AA$2:AA14)</f>
+        <v>21.150000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2033</v>
+      </c>
+      <c r="B15" s="3">
+        <f>Flow_data_Carbon!B15*TC_data_Carbon!B15</f>
+        <v>57.5</v>
+      </c>
+      <c r="C15" s="3">
+        <f>Flow_data_Carbon!B15*TC_data_Carbon!D15</f>
+        <v>57.5</v>
+      </c>
+      <c r="D15" s="3">
+        <f>C15*TC_data_Carbon!F15</f>
+        <v>17.25</v>
+      </c>
+      <c r="E15" s="3">
+        <f>C15*TC_data_Carbon!H15</f>
+        <v>17.25</v>
+      </c>
+      <c r="F15" s="3">
+        <f>C15*TC_data_Carbon!J15</f>
+        <v>5.75</v>
+      </c>
+      <c r="G15" s="3">
+        <f>C15*TC_data_Carbon!L15</f>
+        <v>11.5</v>
+      </c>
+      <c r="H15" s="3">
+        <f>C15*TC_data_Carbon!N15</f>
+        <v>5.7500000000000053</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <f>D15*TC_data_Carbon!P15</f>
+        <v>17.25</v>
+      </c>
+      <c r="K15" s="3">
+        <f>E15*TC_data_Carbon!R15</f>
+        <v>12.074999999999999</v>
+      </c>
+      <c r="L15" s="3">
+        <f>E15*TC_data_Carbon!T15</f>
+        <v>2.5874999999999999</v>
+      </c>
+      <c r="M15" s="3">
+        <f>E15*TC_data_Carbon!V15</f>
+        <v>2.5875000000000008</v>
+      </c>
+      <c r="N15" s="3">
+        <f>F15*TC_data_Carbon!X15</f>
+        <v>5.75</v>
+      </c>
+      <c r="O15" s="3">
+        <f>G15*TC_data_Carbon!Z15</f>
+        <v>11.5</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="0"/>
+        <v>21.648098785397824</v>
+      </c>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3">
+        <f t="shared" si="1"/>
+        <v>57.5</v>
+      </c>
+      <c r="T15" s="3">
+        <f>SUM($S$2:S15)</f>
+        <v>527.5</v>
+      </c>
+      <c r="U15" s="3">
+        <f t="shared" si="2"/>
+        <v>5.7500000000000053</v>
+      </c>
+      <c r="V15" s="3">
+        <f>SUM($U$2:U15)</f>
+        <v>52.750000000000057</v>
+      </c>
+      <c r="W15" s="3">
+        <f t="shared" si="6"/>
+        <v>7.6769012146021751</v>
+      </c>
+      <c r="X15" s="3">
+        <v>41.415453611576005</v>
+      </c>
+      <c r="Y15" s="3">
+        <f t="shared" si="3"/>
+        <v>41.485598785397819</v>
+      </c>
+      <c r="Z15" s="3">
+        <f>SUM($Y$2:Y15)</f>
+        <v>409.59704638842402</v>
+      </c>
+      <c r="AA15" s="3">
+        <f t="shared" si="4"/>
+        <v>2.5875000000000008</v>
+      </c>
+      <c r="AB15" s="3">
+        <f>SUM($AA$2:AA15)</f>
+        <v>23.737500000000008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2034</v>
+      </c>
+      <c r="B16" s="3">
+        <f>Flow_data_Carbon!B16*TC_data_Carbon!B16</f>
+        <v>60</v>
+      </c>
+      <c r="C16" s="3">
+        <f>Flow_data_Carbon!B16*TC_data_Carbon!D16</f>
+        <v>60</v>
+      </c>
+      <c r="D16" s="3">
+        <f>C16*TC_data_Carbon!F16</f>
+        <v>18</v>
+      </c>
+      <c r="E16" s="3">
+        <f>C16*TC_data_Carbon!H16</f>
+        <v>18</v>
+      </c>
+      <c r="F16" s="3">
+        <f>C16*TC_data_Carbon!J16</f>
+        <v>6</v>
+      </c>
+      <c r="G16" s="3">
+        <f>C16*TC_data_Carbon!L16</f>
+        <v>12</v>
+      </c>
+      <c r="H16" s="3">
+        <f>C16*TC_data_Carbon!N16</f>
+        <v>6.0000000000000053</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <f>D16*TC_data_Carbon!P16</f>
+        <v>18</v>
+      </c>
+      <c r="K16" s="3">
+        <f>E16*TC_data_Carbon!R16</f>
+        <v>12.6</v>
+      </c>
+      <c r="L16" s="3">
+        <f>E16*TC_data_Carbon!T16</f>
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="M16" s="3">
+        <f>E16*TC_data_Carbon!V16</f>
+        <v>2.7000000000000011</v>
+      </c>
+      <c r="N16" s="3">
+        <f>F16*TC_data_Carbon!X16</f>
+        <v>6</v>
+      </c>
+      <c r="O16" s="3">
+        <f>G16*TC_data_Carbon!Z16</f>
+        <v>12</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="0"/>
+        <v>26.482420071184492</v>
+      </c>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="T16" s="3">
+        <f>SUM($S$2:S16)</f>
+        <v>587.5</v>
+      </c>
+      <c r="U16" s="3">
+        <f t="shared" si="2"/>
+        <v>6.0000000000000053</v>
+      </c>
+      <c r="V16" s="3">
+        <f>SUM($U$2:U16)</f>
+        <v>58.750000000000064</v>
+      </c>
+      <c r="W16" s="3">
+        <f t="shared" si="6"/>
+        <v>4.117579928815509</v>
+      </c>
+      <c r="X16" s="3">
+        <v>45.533033540391514</v>
+      </c>
+      <c r="Y16" s="3">
+        <f t="shared" si="3"/>
+        <v>47.182420071184495</v>
+      </c>
+      <c r="Z16" s="3">
+        <f>SUM($Y$2:Y16)</f>
+        <v>456.7794664596085</v>
+      </c>
+      <c r="AA16" s="3">
+        <f t="shared" si="4"/>
+        <v>2.7000000000000011</v>
+      </c>
+      <c r="AB16" s="3">
+        <f>SUM($AA$2:AA16)</f>
+        <v>26.437500000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2035</v>
+      </c>
+      <c r="B17" s="3">
+        <f>Flow_data_Carbon!B17*TC_data_Carbon!B17</f>
+        <v>62.5</v>
+      </c>
+      <c r="C17" s="3">
+        <f>Flow_data_Carbon!B17*TC_data_Carbon!D17</f>
+        <v>62.5</v>
+      </c>
+      <c r="D17" s="3">
+        <f>C17*TC_data_Carbon!F17</f>
+        <v>18.75</v>
+      </c>
+      <c r="E17" s="3">
+        <f>C17*TC_data_Carbon!H17</f>
+        <v>18.75</v>
+      </c>
+      <c r="F17" s="3">
+        <f>C17*TC_data_Carbon!J17</f>
+        <v>6.25</v>
+      </c>
+      <c r="G17" s="3">
+        <f>C17*TC_data_Carbon!L17</f>
+        <v>12.5</v>
+      </c>
+      <c r="H17" s="3">
+        <f>C17*TC_data_Carbon!N17</f>
+        <v>6.2500000000000053</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <f>D17*TC_data_Carbon!P17</f>
+        <v>18.75</v>
+      </c>
+      <c r="K17" s="3">
+        <f>E17*TC_data_Carbon!R17</f>
+        <v>13.125</v>
+      </c>
+      <c r="L17" s="3">
+        <f>E17*TC_data_Carbon!T17</f>
+        <v>2.8125</v>
+      </c>
+      <c r="M17" s="3">
+        <f>E17*TC_data_Carbon!V17</f>
+        <v>2.8125000000000009</v>
+      </c>
+      <c r="N17" s="3">
+        <f>F17*TC_data_Carbon!X17</f>
+        <v>6.25</v>
+      </c>
+      <c r="O17" s="3">
+        <f>G17*TC_data_Carbon!Z17</f>
+        <v>12.5</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="0"/>
+        <v>29.085945831594273</v>
+      </c>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+      <c r="T17" s="3">
+        <f>SUM($S$2:S17)</f>
+        <v>650</v>
+      </c>
+      <c r="U17" s="3">
+        <f t="shared" si="2"/>
+        <v>6.2500000000000053</v>
+      </c>
+      <c r="V17" s="3">
+        <f>SUM($U$2:U17)</f>
+        <v>65.000000000000071</v>
+      </c>
+      <c r="W17" s="3">
+        <f t="shared" si="6"/>
+        <v>2.7890541684057268</v>
+      </c>
+      <c r="X17" s="3">
+        <v>48.322087708797241</v>
+      </c>
+      <c r="Y17" s="3">
+        <f t="shared" si="3"/>
+        <v>50.648445831594273</v>
+      </c>
+      <c r="Z17" s="3">
+        <f>SUM($Y$2:Y17)</f>
+        <v>507.4279122912028</v>
+      </c>
+      <c r="AA17" s="3">
+        <f t="shared" si="4"/>
+        <v>2.8125000000000009</v>
+      </c>
+      <c r="AB17" s="3">
+        <f>SUM($AA$2:AA17)</f>
+        <v>29.250000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2036</v>
+      </c>
+      <c r="B18" s="3">
+        <f>Flow_data_Carbon!B18*TC_data_Carbon!B18</f>
+        <v>65</v>
+      </c>
+      <c r="C18" s="3">
+        <f>Flow_data_Carbon!B18*TC_data_Carbon!D18</f>
+        <v>65</v>
+      </c>
+      <c r="D18" s="3">
+        <f>C18*TC_data_Carbon!F18</f>
+        <v>19.5</v>
+      </c>
+      <c r="E18" s="3">
+        <f>C18*TC_data_Carbon!H18</f>
+        <v>19.5</v>
+      </c>
+      <c r="F18" s="3">
+        <f>C18*TC_data_Carbon!J18</f>
+        <v>6.5</v>
+      </c>
+      <c r="G18" s="3">
+        <f>C18*TC_data_Carbon!L18</f>
+        <v>13</v>
+      </c>
+      <c r="H18" s="3">
+        <f>C18*TC_data_Carbon!N18</f>
+        <v>6.5000000000000053</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <f>D18*TC_data_Carbon!P18</f>
+        <v>19.5</v>
+      </c>
+      <c r="K18" s="3">
+        <f>E18*TC_data_Carbon!R18</f>
+        <v>13.649999999999999</v>
+      </c>
+      <c r="L18" s="3">
+        <f>E18*TC_data_Carbon!T18</f>
+        <v>2.9249999999999998</v>
+      </c>
+      <c r="M18" s="3">
+        <f>E18*TC_data_Carbon!V18</f>
+        <v>2.9250000000000012</v>
+      </c>
+      <c r="N18" s="3">
+        <f>F18*TC_data_Carbon!X18</f>
+        <v>6.5</v>
+      </c>
+      <c r="O18" s="3">
+        <f>G18*TC_data_Carbon!Z18</f>
+        <v>13</v>
+      </c>
+      <c r="P18" s="3">
+        <f t="shared" si="0"/>
+        <v>30.8568214647158</v>
+      </c>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="T18" s="3">
+        <f>SUM($S$2:S18)</f>
+        <v>715</v>
+      </c>
+      <c r="U18" s="3">
+        <f t="shared" si="2"/>
+        <v>6.5000000000000053</v>
+      </c>
+      <c r="V18" s="3">
+        <f>SUM($U$2:U18)</f>
+        <v>71.500000000000071</v>
+      </c>
+      <c r="W18" s="3">
+        <f t="shared" si="6"/>
+        <v>2.2931785352841985</v>
+      </c>
+      <c r="X18" s="3">
+        <v>50.61526624408144</v>
+      </c>
+      <c r="Y18" s="3">
+        <f t="shared" si="3"/>
+        <v>53.281821464715797</v>
+      </c>
+      <c r="Z18" s="3">
+        <f>SUM($Y$2:Y18)</f>
+        <v>560.70973375591859</v>
+      </c>
+      <c r="AA18" s="3">
+        <f t="shared" si="4"/>
+        <v>2.9250000000000012</v>
+      </c>
+      <c r="AB18" s="3">
+        <f>SUM($AA$2:AA18)</f>
+        <v>32.175000000000011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2037</v>
+      </c>
+      <c r="B19" s="3">
+        <f>Flow_data_Carbon!B19*TC_data_Carbon!B19</f>
+        <v>67.5</v>
+      </c>
+      <c r="C19" s="3">
+        <f>Flow_data_Carbon!B19*TC_data_Carbon!D19</f>
+        <v>67.5</v>
+      </c>
+      <c r="D19" s="3">
+        <f>C19*TC_data_Carbon!F19</f>
+        <v>20.25</v>
+      </c>
+      <c r="E19" s="3">
+        <f>C19*TC_data_Carbon!H19</f>
+        <v>20.25</v>
+      </c>
+      <c r="F19" s="3">
+        <f>C19*TC_data_Carbon!J19</f>
+        <v>6.75</v>
+      </c>
+      <c r="G19" s="3">
+        <f>C19*TC_data_Carbon!L19</f>
+        <v>13.5</v>
+      </c>
+      <c r="H19" s="3">
+        <f>C19*TC_data_Carbon!N19</f>
+        <v>6.7500000000000062</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <f>D19*TC_data_Carbon!P19</f>
+        <v>20.25</v>
+      </c>
+      <c r="K19" s="3">
+        <f>E19*TC_data_Carbon!R19</f>
+        <v>14.174999999999999</v>
+      </c>
+      <c r="L19" s="3">
+        <f>E19*TC_data_Carbon!T19</f>
+        <v>3.0375000000000001</v>
+      </c>
+      <c r="M19" s="3">
+        <f>E19*TC_data_Carbon!V19</f>
+        <v>3.037500000000001</v>
+      </c>
+      <c r="N19" s="3">
+        <f>F19*TC_data_Carbon!X19</f>
+        <v>6.75</v>
+      </c>
+      <c r="O19" s="3">
+        <f>G19*TC_data_Carbon!Z19</f>
+        <v>13.5</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" si="0"/>
+        <v>32.316908311242436</v>
+      </c>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3">
+        <f t="shared" si="1"/>
+        <v>67.5</v>
+      </c>
+      <c r="T19" s="3">
+        <f>SUM($S$2:S19)</f>
+        <v>782.5</v>
+      </c>
+      <c r="U19" s="3">
+        <f t="shared" si="2"/>
+        <v>6.7500000000000062</v>
+      </c>
+      <c r="V19" s="3">
+        <f>SUM($U$2:U19)</f>
+        <v>78.250000000000071</v>
+      </c>
+      <c r="W19" s="3">
+        <f t="shared" si="6"/>
+        <v>2.1080916887575611</v>
+      </c>
+      <c r="X19" s="3">
+        <v>52.723357932839001</v>
+      </c>
+      <c r="Y19" s="3">
+        <f t="shared" si="3"/>
+        <v>55.604408311242437</v>
+      </c>
+      <c r="Z19" s="3">
+        <f>SUM($Y$2:Y19)</f>
+        <v>616.31414206716101</v>
+      </c>
+      <c r="AA19" s="3">
+        <f t="shared" si="4"/>
+        <v>3.037500000000001</v>
+      </c>
+      <c r="AB19" s="3">
+        <f>SUM($AA$2:AA19)</f>
+        <v>35.212500000000013</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2038</v>
+      </c>
+      <c r="B20" s="3">
+        <f>Flow_data_Carbon!B20*TC_data_Carbon!B20</f>
+        <v>70</v>
+      </c>
+      <c r="C20" s="3">
+        <f>Flow_data_Carbon!B20*TC_data_Carbon!D20</f>
+        <v>70</v>
+      </c>
+      <c r="D20" s="3">
+        <f>C20*TC_data_Carbon!F20</f>
+        <v>21</v>
+      </c>
+      <c r="E20" s="3">
+        <f>C20*TC_data_Carbon!H20</f>
+        <v>21</v>
+      </c>
+      <c r="F20" s="3">
+        <f>C20*TC_data_Carbon!J20</f>
+        <v>7</v>
+      </c>
+      <c r="G20" s="3">
+        <f>C20*TC_data_Carbon!L20</f>
+        <v>14</v>
+      </c>
+      <c r="H20" s="3">
+        <f>C20*TC_data_Carbon!N20</f>
+        <v>7.0000000000000062</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <f>D20*TC_data_Carbon!P20</f>
+        <v>21</v>
+      </c>
+      <c r="K20" s="3">
+        <f>E20*TC_data_Carbon!R20</f>
+        <v>14.7</v>
+      </c>
+      <c r="L20" s="3">
+        <f>E20*TC_data_Carbon!T20</f>
+        <v>3.15</v>
+      </c>
+      <c r="M20" s="3">
+        <f>E20*TC_data_Carbon!V20</f>
+        <v>3.1500000000000012</v>
+      </c>
+      <c r="N20" s="3">
+        <f>F20*TC_data_Carbon!X20</f>
+        <v>7</v>
+      </c>
+      <c r="O20" s="3">
+        <f>G20*TC_data_Carbon!Z20</f>
+        <v>14</v>
+      </c>
+      <c r="P20" s="3">
+        <f t="shared" si="0"/>
+        <v>33.660992449419453</v>
+      </c>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="T20" s="3">
+        <f>SUM($S$2:S20)</f>
+        <v>852.5</v>
+      </c>
+      <c r="U20" s="3">
+        <f t="shared" si="2"/>
+        <v>7.0000000000000062</v>
+      </c>
+      <c r="V20" s="3">
+        <f>SUM($U$2:U20)</f>
+        <v>85.250000000000071</v>
+      </c>
+      <c r="W20" s="3">
+        <f t="shared" si="6"/>
+        <v>2.0390075505805498</v>
+      </c>
+      <c r="X20" s="3">
+        <v>54.762365483419551</v>
+      </c>
+      <c r="Y20" s="3">
+        <f t="shared" si="3"/>
+        <v>57.810992449419452</v>
+      </c>
+      <c r="Z20" s="3">
+        <f>SUM($Y$2:Y20)</f>
+        <v>674.12513451658049</v>
+      </c>
+      <c r="AA20" s="3">
+        <f t="shared" si="4"/>
+        <v>3.1500000000000012</v>
+      </c>
+      <c r="AB20" s="3">
+        <f>SUM($AA$2:AA20)</f>
+        <v>38.362500000000011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2039</v>
+      </c>
+      <c r="B21" s="3">
+        <f>Flow_data_Carbon!B21*TC_data_Carbon!B21</f>
+        <v>72.5</v>
+      </c>
+      <c r="C21" s="3">
+        <f>Flow_data_Carbon!B21*TC_data_Carbon!D21</f>
+        <v>72.5</v>
+      </c>
+      <c r="D21" s="3">
+        <f>C21*TC_data_Carbon!F21</f>
+        <v>21.75</v>
+      </c>
+      <c r="E21" s="3">
+        <f>C21*TC_data_Carbon!H21</f>
+        <v>21.75</v>
+      </c>
+      <c r="F21" s="3">
+        <f>C21*TC_data_Carbon!J21</f>
+        <v>7.25</v>
+      </c>
+      <c r="G21" s="3">
+        <f>C21*TC_data_Carbon!L21</f>
+        <v>14.5</v>
+      </c>
+      <c r="H21" s="3">
+        <f>C21*TC_data_Carbon!N21</f>
+        <v>7.2500000000000062</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <f>D21*TC_data_Carbon!P21</f>
+        <v>21.75</v>
+      </c>
+      <c r="K21" s="3">
+        <f>E21*TC_data_Carbon!R21</f>
+        <v>15.225</v>
+      </c>
+      <c r="L21" s="3">
+        <f>E21*TC_data_Carbon!T21</f>
+        <v>3.2624999999999997</v>
+      </c>
+      <c r="M21" s="3">
+        <f>E21*TC_data_Carbon!V21</f>
+        <v>3.2625000000000011</v>
+      </c>
+      <c r="N21" s="3">
+        <f>F21*TC_data_Carbon!X21</f>
+        <v>7.25</v>
+      </c>
+      <c r="O21" s="3">
+        <f>G21*TC_data_Carbon!Z21</f>
+        <v>14.5</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="0"/>
+        <v>34.961778280434586</v>
+      </c>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3">
+        <f t="shared" si="1"/>
+        <v>72.5</v>
+      </c>
+      <c r="T21" s="3">
+        <f>SUM($S$2:S21)</f>
+        <v>925</v>
+      </c>
+      <c r="U21" s="3">
+        <f t="shared" si="2"/>
+        <v>7.2500000000000062</v>
+      </c>
+      <c r="V21" s="3">
+        <f>SUM($U$2:U21)</f>
+        <v>92.500000000000071</v>
+      </c>
+      <c r="W21" s="3">
+        <f t="shared" si="6"/>
+        <v>2.013221719565415</v>
+      </c>
+      <c r="X21" s="3">
+        <v>56.775587202984966</v>
+      </c>
+      <c r="Y21" s="3">
+        <f t="shared" si="3"/>
+        <v>59.974278280434589</v>
+      </c>
+      <c r="Z21" s="3">
+        <f>SUM($Y$2:Y21)</f>
+        <v>734.09941279701502</v>
+      </c>
+      <c r="AA21" s="3">
+        <f t="shared" si="4"/>
+        <v>3.2625000000000011</v>
+      </c>
+      <c r="AB21" s="3">
+        <f>SUM($AA$2:AA21)</f>
+        <v>41.625000000000014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2040</v>
+      </c>
+      <c r="B22" s="3">
         <f>Flow_data_Carbon!B22*TC_data_Carbon!B22</f>
         <v>75</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <f>Flow_data_Carbon!B22*TC_data_Carbon!D22</f>
         <v>75</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <f>C22*TC_data_Carbon!F22</f>
         <v>22.5</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <f>C22*TC_data_Carbon!H22</f>
         <v>22.5</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <f>C22*TC_data_Carbon!J22</f>
         <v>7.5</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <f>C22*TC_data_Carbon!L22</f>
         <v>15</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <f>C22*TC_data_Carbon!N22</f>
         <v>7.5000000000000071</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="3">
         <f>D22*TC_data_Carbon!P22</f>
         <v>22.5</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="3">
         <f>E22*TC_data_Carbon!R22</f>
         <v>15.749999999999998</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="3">
         <f>E22*TC_data_Carbon!T22</f>
         <v>3.375</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="3">
         <f>E22*TC_data_Carbon!V22</f>
         <v>3.3750000000000013</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="3">
         <f>F22*TC_data_Carbon!X22</f>
         <v>7.5</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="3">
         <f>G22*TC_data_Carbon!Z22</f>
         <v>15</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="3">
         <f t="shared" si="0"/>
         <v>36.246402907717886</v>
       </c>
-      <c r="S22">
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="3">
         <f>SUM($S$2:S22)</f>
         <v>1000</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="3">
         <f t="shared" si="2"/>
         <v>7.5000000000000071</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="3">
         <f>SUM($U$2:U22)</f>
         <v>100.00000000000009</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="3">
         <f t="shared" si="6"/>
         <v>2.0035970922821136</v>
       </c>
-      <c r="X22">
+      <c r="X22" s="3">
         <v>58.779184295267079</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" s="3">
         <f t="shared" si="3"/>
         <v>62.121402907717886</v>
       </c>
-      <c r="Z22">
+      <c r="Z22" s="3">
         <f>SUM($Y$2:Y22)</f>
         <v>796.2208157047329</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" s="3">
         <f t="shared" si="4"/>
         <v>3.3750000000000013</v>
       </c>
-      <c r="AB22">
+      <c r="AB22" s="3">
         <f>SUM($AA$2:AA22)</f>
         <v>45.000000000000014</v>
       </c>

--- a/case_study_results/Case_study_results_Excel_calculation.xlsx
+++ b/case_study_results/Case_study_results_Excel_calculation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukas/CERT_Python/MFA_project/biODYM modelling template/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DB6AFA-1E31-C340-85D8-EA16A5DC2475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAF1767-7AF4-CD4E-AD67-A7082FF7FBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" firstSheet="4" activeTab="7" xr2:uid="{A7E6CD03-1586-5348-BEDA-FCDFDFBAF949}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{A7E6CD03-1586-5348-BEDA-FCDFDFBAF949}"/>
   </bookViews>
   <sheets>
     <sheet name="Flow_diagram" sheetId="2" r:id="rId1"/>
@@ -84,10 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="63">
-  <si>
-    <t>T</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="62">
   <si>
     <t>TC_1_2</t>
   </si>
@@ -361,17 +358,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>810177</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76969</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>577273</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>111168</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B1A8363-9AE0-D14E-5A69-BC6CBA808F13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A79EB39-379C-1D43-B5F8-7607329456C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -388,7 +385,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12394116" cy="6638636"/>
+          <a:ext cx="15470909" cy="9001168"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -714,7 +711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B07F1A-30FB-7E43-98EB-AB64FFE3C8B6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
@@ -729,9 +726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3D4A5C-13C6-6947-A736-B7BA4A79E699}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -740,13 +735,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
         <v>45</v>
-      </c>
-      <c r="B1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1011,9 +1006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B738330-DCC2-2C4A-8AC7-53B265BB74D4}">
   <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1048,85 +1041,85 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s">
-        <v>10</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="V1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="X1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
@@ -3217,9 +3210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352E2FD3-2C87-D345-A16D-43280B164616}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3228,13 +3219,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
         <v>45</v>
-      </c>
-      <c r="B1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3519,9 +3510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF6E58F-09B4-FA47-B90C-06F3FD6D2BF2}">
   <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3556,85 +3545,85 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s">
-        <v>10</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="V1" t="s">
-        <v>11</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="X1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
@@ -5725,15 +5714,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8AEDF69-0002-EE44-95A2-4CE0B8CDF487}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O50" sqref="O50"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1">
         <v>0.02</v>
@@ -5741,7 +5728,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2">
         <v>0.05</v>
@@ -5756,9 +5743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2B94B1-5EE6-204E-8A48-076AA507860B}">
   <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5768,82 +5753,82 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" t="s">
-        <v>26</v>
-      </c>
       <c r="P1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
         <v>36</v>
       </c>
-      <c r="S1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X1" t="s">
         <v>39</v>
       </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" t="s">
         <v>40</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
@@ -8102,9 +8087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26778DCB-B80F-F449-834E-1FDA4FB8D60F}">
   <dimension ref="A1:AB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8114,82 +8097,82 @@
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
         <v>20</v>
       </c>
-      <c r="I1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" t="s">
-        <v>26</v>
-      </c>
       <c r="P1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
         <v>36</v>
       </c>
-      <c r="S1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
+        <v>37</v>
+      </c>
+      <c r="X1" t="s">
         <v>39</v>
       </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB1" t="s">
         <v>40</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
@@ -10428,9 +10411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF261709-7187-814D-952C-62F97C4E6AFE}">
   <dimension ref="A1:W52"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:B112"/>
-    </sheetView>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10439,25 +10420,25 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1">
         <f>0.1975*365</f>
         <v>72.087500000000006</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1">
         <v>0.19750000000000001</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1">
         <f>4.8*10^-2</f>
@@ -10466,25 +10447,25 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1">
         <f>0.0027*365</f>
         <v>0.98550000000000004</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1">
         <v>2.7000000000000001E-3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="W4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
